--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.469644215356709</v>
+        <v>2.469644215356425</v>
       </c>
       <c r="C2">
-        <v>0.5394291098045016</v>
+        <v>0.5394291098045301</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2331392837267856</v>
+        <v>0.233139283726814</v>
       </c>
       <c r="F2">
         <v>1.607477346107288</v>
       </c>
       <c r="G2">
-        <v>0.7460019073309496</v>
+        <v>0.7460019073309425</v>
       </c>
       <c r="H2">
         <v>0.4811342549472073</v>
       </c>
       <c r="I2">
-        <v>0.05598361806151253</v>
+        <v>0.05598361806149121</v>
       </c>
       <c r="J2">
-        <v>0.6722937916610974</v>
+        <v>0.6722937916610903</v>
       </c>
       <c r="K2">
-        <v>0.4070948943205721</v>
+        <v>0.4070948943205579</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.136644646030902</v>
+        <v>2.136644646030959</v>
       </c>
       <c r="C3">
-        <v>0.4663216815715145</v>
+        <v>0.4663216815717135</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>0.2014102967392688</v>
       </c>
       <c r="F3">
-        <v>1.39762569606404</v>
+        <v>1.397625696064054</v>
       </c>
       <c r="G3">
         <v>0.6825706693274185</v>
@@ -471,10 +471,10 @@
         <v>0.4573922978546534</v>
       </c>
       <c r="I3">
-        <v>0.05881676676942948</v>
+        <v>0.05881676676943659</v>
       </c>
       <c r="J3">
-        <v>0.5814243772082008</v>
+        <v>0.5814243772081937</v>
       </c>
       <c r="K3">
         <v>0.3515973363514817</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.933957258323289</v>
+        <v>1.933957258323318</v>
       </c>
       <c r="C4">
-        <v>0.4219419701392724</v>
+        <v>0.4219419701393292</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1821339247077631</v>
+        <v>0.1821339247077916</v>
       </c>
       <c r="F4">
         <v>1.271753045154753</v>
       </c>
       <c r="G4">
-        <v>0.6462043173269194</v>
+        <v>0.6462043173269407</v>
       </c>
       <c r="H4">
-        <v>0.4446986390148027</v>
+        <v>0.4446986390147742</v>
       </c>
       <c r="I4">
-        <v>0.0607923015735139</v>
+        <v>0.06079230157350146</v>
       </c>
       <c r="J4">
-        <v>0.5261484706424397</v>
+        <v>0.526148470642454</v>
       </c>
       <c r="K4">
-        <v>0.3178887009990419</v>
+        <v>0.3178887009990845</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.851727498226126</v>
+        <v>1.851727498226069</v>
       </c>
       <c r="C5">
-        <v>0.4039620186217974</v>
+        <v>0.4039620186220532</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1743220290540251</v>
+        <v>0.1743220290540464</v>
       </c>
       <c r="F5">
         <v>1.221121566635858</v>
       </c>
       <c r="G5">
-        <v>0.6319751081223615</v>
+        <v>0.6319751081223686</v>
       </c>
       <c r="H5">
-        <v>0.4399615152998138</v>
+        <v>0.4399615152998422</v>
       </c>
       <c r="I5">
-        <v>0.06165271074082046</v>
+        <v>0.0616527107408249</v>
       </c>
       <c r="J5">
-        <v>0.503730223673287</v>
+        <v>0.5037302236732728</v>
       </c>
       <c r="K5">
         <v>0.3042291465341336</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838093273730522</v>
+        <v>1.838093273730635</v>
       </c>
       <c r="C6">
-        <v>0.4009821828739177</v>
+        <v>0.4009821828740598</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1730272604791594</v>
+        <v>0.1730272604791807</v>
       </c>
       <c r="F6">
-        <v>1.212751877412259</v>
+        <v>1.212751877412231</v>
       </c>
       <c r="G6">
-        <v>0.6296463895748019</v>
+        <v>0.6296463895747877</v>
       </c>
       <c r="H6">
-        <v>0.4392001725315424</v>
+        <v>0.4392001725315495</v>
       </c>
       <c r="I6">
-        <v>0.06179881551573274</v>
+        <v>0.06179881551571675</v>
       </c>
       <c r="J6">
-        <v>0.5000135195654281</v>
+        <v>0.5000135195654138</v>
       </c>
       <c r="K6">
-        <v>0.3019652127678611</v>
+        <v>0.3019652127678825</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.932846893436505</v>
+        <v>1.932846893436334</v>
       </c>
       <c r="C7">
-        <v>0.4216990891855517</v>
+        <v>0.421699089185239</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1820284055523871</v>
+        <v>0.1820284055523942</v>
       </c>
       <c r="F7">
-        <v>1.271067637294493</v>
+        <v>1.271067637294507</v>
       </c>
       <c r="G7">
-        <v>0.6460101009265458</v>
+        <v>0.6460101009265315</v>
       </c>
       <c r="H7">
-        <v>0.4446330368300551</v>
+        <v>0.4446330368300622</v>
       </c>
       <c r="I7">
-        <v>0.0608036861763388</v>
+        <v>0.06080368617633614</v>
       </c>
       <c r="J7">
-        <v>0.5258457258125873</v>
+        <v>0.5258457258125731</v>
       </c>
       <c r="K7">
         <v>0.3177041911218623</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.354407374344589</v>
+        <v>2.354407374344532</v>
       </c>
       <c r="C8">
-        <v>0.5141018039254561</v>
+        <v>0.5141018039254845</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0.2221513287134584</v>
       </c>
       <c r="F8">
-        <v>1.534448755164149</v>
+        <v>1.534448755164135</v>
       </c>
       <c r="G8">
-        <v>0.7235584690680241</v>
+        <v>0.7235584690680028</v>
       </c>
       <c r="H8">
-        <v>0.4725331243793889</v>
+        <v>0.4725331243793747</v>
       </c>
       <c r="I8">
-        <v>0.05690900197375193</v>
+        <v>0.0569090019737537</v>
       </c>
       <c r="J8">
-        <v>0.6408398514253264</v>
+        <v>0.6408398514253122</v>
       </c>
       <c r="K8">
         <v>0.3878735242169498</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.199167169630016</v>
+        <v>3.199167169630073</v>
       </c>
       <c r="C9">
-        <v>0.7004800534420781</v>
+        <v>0.700480053441936</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0.3028727271452567</v>
       </c>
       <c r="F9">
-        <v>2.078818488760405</v>
+        <v>2.07881848876039</v>
       </c>
       <c r="G9">
         <v>0.8990141226814217</v>
@@ -699,13 +699,13 @@
         <v>0.5440812960605896</v>
       </c>
       <c r="I9">
-        <v>0.0513443816532817</v>
+        <v>0.05134438165332256</v>
       </c>
       <c r="J9">
-        <v>0.871619407852009</v>
+        <v>0.8716194078520232</v>
       </c>
       <c r="K9">
-        <v>0.5291530799655462</v>
+        <v>0.5291530799655604</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>3.837079935795714</v>
       </c>
       <c r="C10">
-        <v>0.8423583033726345</v>
+        <v>0.842358303372805</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3640604404505652</v>
+        <v>0.3640604404505865</v>
       </c>
       <c r="F10">
-        <v>2.502342935437241</v>
+        <v>2.502342935437213</v>
       </c>
       <c r="G10">
         <v>1.046687556156613</v>
       </c>
       <c r="H10">
-        <v>0.6098348070728861</v>
+        <v>0.609834807072879</v>
       </c>
       <c r="I10">
         <v>0.0488374097559241</v>
@@ -743,7 +743,7 @@
         <v>1.046211804135822</v>
       </c>
       <c r="K10">
-        <v>0.6363844148311841</v>
+        <v>0.636384414831177</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.132632236304744</v>
+        <v>4.132632236304801</v>
       </c>
       <c r="C11">
-        <v>0.908438102462469</v>
+        <v>0.9084381024624975</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>0.3924666929139704</v>
       </c>
       <c r="F11">
-        <v>2.701802147080627</v>
+        <v>2.701802147080571</v>
       </c>
       <c r="G11">
         <v>1.119097697547318</v>
       </c>
       <c r="H11">
-        <v>0.6433585489553408</v>
+        <v>0.6433585489553479</v>
       </c>
       <c r="I11">
-        <v>0.04812427298120525</v>
+        <v>0.04812427298123545</v>
       </c>
       <c r="J11">
         <v>1.127199980970587</v>
       </c>
       <c r="K11">
-        <v>0.686216124963174</v>
+        <v>0.6862161249631455</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.245473478205781</v>
+        <v>4.245473478206009</v>
       </c>
       <c r="C12">
-        <v>0.9337263794193404</v>
+        <v>0.9337263794192268</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4033208798217629</v>
+        <v>0.4033208798217558</v>
       </c>
       <c r="F12">
         <v>2.778467420724951</v>
@@ -810,7 +810,7 @@
         <v>1.147380789461337</v>
       </c>
       <c r="H12">
-        <v>0.6566442363910596</v>
+        <v>0.6566442363910525</v>
       </c>
       <c r="I12">
         <v>0.0479239793654429</v>
@@ -819,7 +819,7 @@
         <v>1.158137737842765</v>
       </c>
       <c r="K12">
-        <v>0.7052661800812885</v>
+        <v>0.7052661800812743</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.221127482838426</v>
+        <v>4.221127482838369</v>
       </c>
       <c r="C13">
-        <v>0.9282675334740418</v>
+        <v>0.9282675334741839</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4009786455942859</v>
+        <v>0.4009786455943498</v>
       </c>
       <c r="F13">
-        <v>2.76190302199538</v>
+        <v>2.761903021995323</v>
       </c>
       <c r="G13">
-        <v>1.141249227581312</v>
+        <v>1.141249227581326</v>
       </c>
       <c r="H13">
-        <v>0.6537554042923261</v>
+        <v>0.653755404292319</v>
       </c>
       <c r="I13">
-        <v>0.04796386793926288</v>
+        <v>0.04796386793925222</v>
       </c>
       <c r="J13">
-        <v>1.151461996269546</v>
+        <v>1.151461996269532</v>
       </c>
       <c r="K13">
-        <v>0.7011549155669243</v>
+        <v>0.701154915566903</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.141896342368625</v>
+        <v>4.141896342368511</v>
       </c>
       <c r="C14">
-        <v>0.910512994312171</v>
+        <v>0.9105129943118868</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>0.3933576289383112</v>
       </c>
       <c r="F14">
-        <v>2.708085742050685</v>
+        <v>2.708085742050656</v>
       </c>
       <c r="G14">
-        <v>1.12140658631364</v>
+        <v>1.121406586313626</v>
       </c>
       <c r="H14">
         <v>0.6444392839679693</v>
       </c>
       <c r="I14">
-        <v>0.04810634462221941</v>
+        <v>0.04810634462222652</v>
       </c>
       <c r="J14">
-        <v>1.129739578295514</v>
+        <v>1.129739578295485</v>
       </c>
       <c r="K14">
-        <v>0.6877796028077157</v>
+        <v>0.6877796028077512</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.093489856006784</v>
+        <v>4.09348985600684</v>
       </c>
       <c r="C15">
         <v>0.8996737813406241</v>
@@ -915,25 +915,25 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887026955235413</v>
+        <v>0.3887026955235697</v>
       </c>
       <c r="F15">
-        <v>2.675273824458571</v>
+        <v>2.6752738244586</v>
       </c>
       <c r="G15">
-        <v>1.109368296691727</v>
+        <v>1.109368296691756</v>
       </c>
       <c r="H15">
         <v>0.638812132502288</v>
       </c>
       <c r="I15">
-        <v>0.04820296788095746</v>
+        <v>0.04820296788092726</v>
       </c>
       <c r="J15">
-        <v>1.116470448637017</v>
+        <v>1.116470448637045</v>
       </c>
       <c r="K15">
-        <v>0.679611172547574</v>
+        <v>0.6796111725476166</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.817885278255289</v>
+        <v>3.817885278255176</v>
       </c>
       <c r="C16">
         <v>0.8380744295715772</v>
@@ -953,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3622167829104228</v>
+        <v>0.3622167829104086</v>
       </c>
       <c r="F16">
         <v>2.489457569211126</v>
       </c>
       <c r="G16">
-        <v>1.042069808730702</v>
+        <v>1.042069808730716</v>
       </c>
       <c r="H16">
-        <v>0.6077225511833859</v>
+        <v>0.607722551183393</v>
       </c>
       <c r="I16">
-        <v>0.04889329604152692</v>
+        <v>0.0488932960414985</v>
       </c>
       <c r="J16">
-        <v>1.040954186235609</v>
+        <v>1.040954186235624</v>
       </c>
       <c r="K16">
         <v>0.6331513262669475</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.650285841026061</v>
+        <v>3.650285841025891</v>
       </c>
       <c r="C17">
-        <v>0.8007088811038159</v>
+        <v>0.800708881103958</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,22 +994,22 @@
         <v>0.3461251766876074</v>
       </c>
       <c r="F17">
-        <v>2.377311969048563</v>
+        <v>2.377311969048577</v>
       </c>
       <c r="G17">
         <v>1.002198925718602</v>
       </c>
       <c r="H17">
-        <v>0.5896234120955128</v>
+        <v>0.5896234120955057</v>
       </c>
       <c r="I17">
-        <v>0.04943176927771731</v>
+        <v>0.04943176927772974</v>
       </c>
       <c r="J17">
-        <v>0.9950580413542269</v>
+        <v>0.9950580413541985</v>
       </c>
       <c r="K17">
-        <v>0.6049383660380272</v>
+        <v>0.604938366038013</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.554381756879025</v>
+        <v>3.554381756878911</v>
       </c>
       <c r="C18">
-        <v>0.7793590812553077</v>
+        <v>0.7793590812554783</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3369225106478382</v>
+        <v>0.3369225106478524</v>
       </c>
       <c r="F18">
-        <v>2.313437998658358</v>
+        <v>2.313437998658387</v>
       </c>
       <c r="G18">
-        <v>0.979751399437859</v>
+        <v>0.9797513994378448</v>
       </c>
       <c r="H18">
         <v>0.5795484809467268</v>
       </c>
       <c r="I18">
-        <v>0.04978113983806054</v>
+        <v>0.04978113983804455</v>
       </c>
       <c r="J18">
-        <v>0.9688041636858742</v>
+        <v>0.9688041636858884</v>
       </c>
       <c r="K18">
-        <v>0.5888080937848272</v>
+        <v>0.5888080937848414</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.521990947228346</v>
+        <v>3.521990947228403</v>
       </c>
       <c r="C19">
-        <v>0.7721535229890435</v>
+        <v>0.7721535229891856</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.668074856443411</v>
+        <v>3.668074856443639</v>
       </c>
       <c r="C20">
-        <v>0.8046715231365056</v>
+        <v>0.8046715231362498</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3478325869306644</v>
+        <v>0.3478325869306431</v>
       </c>
       <c r="F20">
-        <v>2.389183859095567</v>
+        <v>2.389183859095581</v>
       </c>
       <c r="G20">
         <v>1.006392281780222</v>
       </c>
       <c r="H20">
-        <v>0.5915149129165655</v>
+        <v>0.5915149129165727</v>
       </c>
       <c r="I20">
-        <v>0.04937028740825866</v>
+        <v>0.04937028740827465</v>
       </c>
       <c r="J20">
-        <v>0.9999285198236549</v>
+        <v>0.9999285198236407</v>
       </c>
       <c r="K20">
-        <v>0.6079314404035685</v>
+        <v>0.6079314404035543</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.165142128353864</v>
+        <v>4.16514212835375</v>
       </c>
       <c r="C21">
-        <v>0.9157203528903892</v>
+        <v>0.9157203528903324</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0.6471589997068961</v>
       </c>
       <c r="I21">
-        <v>0.04806253014902495</v>
+        <v>0.04806253014902673</v>
       </c>
       <c r="J21">
-        <v>1.136112289851425</v>
+        <v>1.136112289851411</v>
       </c>
       <c r="K21">
-        <v>0.6917031287450328</v>
+        <v>0.6917031287449973</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.495462856872791</v>
+        <v>4.495462856872905</v>
       </c>
       <c r="C22">
-        <v>0.989868339590231</v>
+        <v>0.9898683395902594</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4273836089359691</v>
+        <v>0.427383608936033</v>
       </c>
       <c r="F22">
         <v>2.949291314942855</v>
       </c>
       <c r="G22">
-        <v>1.211264025054348</v>
+        <v>1.211264025054334</v>
       </c>
       <c r="H22">
-        <v>0.6870103669588801</v>
+        <v>0.687010366958873</v>
       </c>
       <c r="I22">
-        <v>0.04761922968950572</v>
+        <v>0.04761922968953058</v>
       </c>
       <c r="J22">
         <v>1.226710685237521</v>
       </c>
       <c r="K22">
-        <v>0.7475171567217842</v>
+        <v>0.7475171567218197</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.318610005914479</v>
+        <v>4.31861000591465</v>
       </c>
       <c r="C23">
-        <v>0.9501342780222615</v>
+        <v>0.9501342780222899</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4103583515362459</v>
+        <v>0.4103583515362672</v>
       </c>
       <c r="F23">
-        <v>2.828304893577609</v>
+        <v>2.828304893577553</v>
       </c>
       <c r="G23">
         <v>1.165896824165742</v>
       </c>
       <c r="H23">
-        <v>0.6653959819666611</v>
+        <v>0.6653959819666468</v>
       </c>
       <c r="I23">
-        <v>0.04781510034201375</v>
+        <v>0.04781510034201908</v>
       </c>
       <c r="J23">
-        <v>1.178194587579355</v>
+        <v>1.17819458757937</v>
       </c>
       <c r="K23">
-        <v>0.7176203417022933</v>
+        <v>0.7176203417023075</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.660031048761937</v>
+        <v>3.66003104876188</v>
       </c>
       <c r="C24">
-        <v>0.8028796043018929</v>
+        <v>0.8028796043018076</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3470605164634861</v>
+        <v>0.3470605164634719</v>
       </c>
       <c r="F24">
-        <v>2.3838147202854</v>
+        <v>2.383814720285415</v>
       </c>
       <c r="G24">
-        <v>1.004494994853857</v>
+        <v>1.004494994853843</v>
       </c>
       <c r="H24">
-        <v>0.5906587412380517</v>
+        <v>0.5906587412380588</v>
       </c>
       <c r="I24">
-        <v>0.04939796002056518</v>
+        <v>0.04939796002057406</v>
       </c>
       <c r="J24">
-        <v>0.9977261672939761</v>
+        <v>0.9977261672940045</v>
       </c>
       <c r="K24">
-        <v>0.606577994098636</v>
+        <v>0.6065779940986218</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.968098071909594</v>
+        <v>2.96809807190948</v>
       </c>
       <c r="C25">
-        <v>0.649333053445929</v>
+        <v>0.6493330534462416</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2807551287701671</v>
+        <v>0.2807551287701813</v>
       </c>
       <c r="F25">
         <v>1.927928787999306</v>
@@ -1304,16 +1304,16 @@
         <v>0.8486093597834383</v>
       </c>
       <c r="H25">
-        <v>0.5226405089132911</v>
+        <v>0.522640508913284</v>
       </c>
       <c r="I25">
         <v>0.05259754206464962</v>
       </c>
       <c r="J25">
-        <v>0.8084465876917051</v>
+        <v>0.8084465876916909</v>
       </c>
       <c r="K25">
-        <v>0.4904241884475411</v>
+        <v>0.4904241884475553</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.469644215356425</v>
+        <v>2.469644215356709</v>
       </c>
       <c r="C2">
-        <v>0.5394291098045301</v>
+        <v>0.5394291098045016</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.233139283726814</v>
+        <v>0.2331392837267856</v>
       </c>
       <c r="F2">
         <v>1.607477346107288</v>
       </c>
       <c r="G2">
-        <v>0.7460019073309425</v>
+        <v>0.7460019073309496</v>
       </c>
       <c r="H2">
         <v>0.4811342549472073</v>
       </c>
       <c r="I2">
-        <v>0.05598361806149121</v>
+        <v>0.05598361806151253</v>
       </c>
       <c r="J2">
-        <v>0.6722937916610903</v>
+        <v>0.6722937916610974</v>
       </c>
       <c r="K2">
-        <v>0.4070948943205579</v>
+        <v>0.4070948943205721</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.136644646030959</v>
+        <v>2.136644646030902</v>
       </c>
       <c r="C3">
-        <v>0.4663216815717135</v>
+        <v>0.4663216815715145</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>0.2014102967392688</v>
       </c>
       <c r="F3">
-        <v>1.397625696064054</v>
+        <v>1.39762569606404</v>
       </c>
       <c r="G3">
         <v>0.6825706693274185</v>
@@ -471,10 +471,10 @@
         <v>0.4573922978546534</v>
       </c>
       <c r="I3">
-        <v>0.05881676676943659</v>
+        <v>0.05881676676942948</v>
       </c>
       <c r="J3">
-        <v>0.5814243772081937</v>
+        <v>0.5814243772082008</v>
       </c>
       <c r="K3">
         <v>0.3515973363514817</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.933957258323318</v>
+        <v>1.933957258323289</v>
       </c>
       <c r="C4">
-        <v>0.4219419701393292</v>
+        <v>0.4219419701392724</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1821339247077916</v>
+        <v>0.1821339247077631</v>
       </c>
       <c r="F4">
         <v>1.271753045154753</v>
       </c>
       <c r="G4">
-        <v>0.6462043173269407</v>
+        <v>0.6462043173269194</v>
       </c>
       <c r="H4">
-        <v>0.4446986390147742</v>
+        <v>0.4446986390148027</v>
       </c>
       <c r="I4">
-        <v>0.06079230157350146</v>
+        <v>0.0607923015735139</v>
       </c>
       <c r="J4">
-        <v>0.526148470642454</v>
+        <v>0.5261484706424397</v>
       </c>
       <c r="K4">
-        <v>0.3178887009990845</v>
+        <v>0.3178887009990419</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.851727498226069</v>
+        <v>1.851727498226126</v>
       </c>
       <c r="C5">
-        <v>0.4039620186220532</v>
+        <v>0.4039620186217974</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1743220290540464</v>
+        <v>0.1743220290540251</v>
       </c>
       <c r="F5">
         <v>1.221121566635858</v>
       </c>
       <c r="G5">
-        <v>0.6319751081223686</v>
+        <v>0.6319751081223615</v>
       </c>
       <c r="H5">
-        <v>0.4399615152998422</v>
+        <v>0.4399615152998138</v>
       </c>
       <c r="I5">
-        <v>0.0616527107408249</v>
+        <v>0.06165271074082046</v>
       </c>
       <c r="J5">
-        <v>0.5037302236732728</v>
+        <v>0.503730223673287</v>
       </c>
       <c r="K5">
         <v>0.3042291465341336</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838093273730635</v>
+        <v>1.838093273730522</v>
       </c>
       <c r="C6">
-        <v>0.4009821828740598</v>
+        <v>0.4009821828739177</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1730272604791807</v>
+        <v>0.1730272604791594</v>
       </c>
       <c r="F6">
-        <v>1.212751877412231</v>
+        <v>1.212751877412259</v>
       </c>
       <c r="G6">
-        <v>0.6296463895747877</v>
+        <v>0.6296463895748019</v>
       </c>
       <c r="H6">
-        <v>0.4392001725315495</v>
+        <v>0.4392001725315424</v>
       </c>
       <c r="I6">
-        <v>0.06179881551571675</v>
+        <v>0.06179881551573274</v>
       </c>
       <c r="J6">
-        <v>0.5000135195654138</v>
+        <v>0.5000135195654281</v>
       </c>
       <c r="K6">
-        <v>0.3019652127678825</v>
+        <v>0.3019652127678611</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.932846893436334</v>
+        <v>1.932846893436505</v>
       </c>
       <c r="C7">
-        <v>0.421699089185239</v>
+        <v>0.4216990891855517</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1820284055523942</v>
+        <v>0.1820284055523871</v>
       </c>
       <c r="F7">
-        <v>1.271067637294507</v>
+        <v>1.271067637294493</v>
       </c>
       <c r="G7">
-        <v>0.6460101009265315</v>
+        <v>0.6460101009265458</v>
       </c>
       <c r="H7">
-        <v>0.4446330368300622</v>
+        <v>0.4446330368300551</v>
       </c>
       <c r="I7">
-        <v>0.06080368617633614</v>
+        <v>0.0608036861763388</v>
       </c>
       <c r="J7">
-        <v>0.5258457258125731</v>
+        <v>0.5258457258125873</v>
       </c>
       <c r="K7">
         <v>0.3177041911218623</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.354407374344532</v>
+        <v>2.354407374344589</v>
       </c>
       <c r="C8">
-        <v>0.5141018039254845</v>
+        <v>0.5141018039254561</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0.2221513287134584</v>
       </c>
       <c r="F8">
-        <v>1.534448755164135</v>
+        <v>1.534448755164149</v>
       </c>
       <c r="G8">
-        <v>0.7235584690680028</v>
+        <v>0.7235584690680241</v>
       </c>
       <c r="H8">
-        <v>0.4725331243793747</v>
+        <v>0.4725331243793889</v>
       </c>
       <c r="I8">
-        <v>0.0569090019737537</v>
+        <v>0.05690900197375193</v>
       </c>
       <c r="J8">
-        <v>0.6408398514253122</v>
+        <v>0.6408398514253264</v>
       </c>
       <c r="K8">
         <v>0.3878735242169498</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.199167169630073</v>
+        <v>3.199167169630016</v>
       </c>
       <c r="C9">
-        <v>0.700480053441936</v>
+        <v>0.7004800534420781</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0.3028727271452567</v>
       </c>
       <c r="F9">
-        <v>2.07881848876039</v>
+        <v>2.078818488760405</v>
       </c>
       <c r="G9">
         <v>0.8990141226814217</v>
@@ -699,13 +699,13 @@
         <v>0.5440812960605896</v>
       </c>
       <c r="I9">
-        <v>0.05134438165332256</v>
+        <v>0.0513443816532817</v>
       </c>
       <c r="J9">
-        <v>0.8716194078520232</v>
+        <v>0.871619407852009</v>
       </c>
       <c r="K9">
-        <v>0.5291530799655604</v>
+        <v>0.5291530799655462</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>3.837079935795714</v>
       </c>
       <c r="C10">
-        <v>0.842358303372805</v>
+        <v>0.8423583033726345</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3640604404505865</v>
+        <v>0.3640604404505652</v>
       </c>
       <c r="F10">
-        <v>2.502342935437213</v>
+        <v>2.502342935437241</v>
       </c>
       <c r="G10">
         <v>1.046687556156613</v>
       </c>
       <c r="H10">
-        <v>0.609834807072879</v>
+        <v>0.6098348070728861</v>
       </c>
       <c r="I10">
         <v>0.0488374097559241</v>
@@ -743,7 +743,7 @@
         <v>1.046211804135822</v>
       </c>
       <c r="K10">
-        <v>0.636384414831177</v>
+        <v>0.6363844148311841</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.132632236304801</v>
+        <v>4.132632236304744</v>
       </c>
       <c r="C11">
-        <v>0.9084381024624975</v>
+        <v>0.908438102462469</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -766,22 +766,22 @@
         <v>0.3924666929139704</v>
       </c>
       <c r="F11">
-        <v>2.701802147080571</v>
+        <v>2.701802147080627</v>
       </c>
       <c r="G11">
         <v>1.119097697547318</v>
       </c>
       <c r="H11">
-        <v>0.6433585489553479</v>
+        <v>0.6433585489553408</v>
       </c>
       <c r="I11">
-        <v>0.04812427298123545</v>
+        <v>0.04812427298120525</v>
       </c>
       <c r="J11">
         <v>1.127199980970587</v>
       </c>
       <c r="K11">
-        <v>0.6862161249631455</v>
+        <v>0.686216124963174</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.245473478206009</v>
+        <v>4.245473478205781</v>
       </c>
       <c r="C12">
-        <v>0.9337263794192268</v>
+        <v>0.9337263794193404</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4033208798217558</v>
+        <v>0.4033208798217629</v>
       </c>
       <c r="F12">
         <v>2.778467420724951</v>
@@ -810,7 +810,7 @@
         <v>1.147380789461337</v>
       </c>
       <c r="H12">
-        <v>0.6566442363910525</v>
+        <v>0.6566442363910596</v>
       </c>
       <c r="I12">
         <v>0.0479239793654429</v>
@@ -819,7 +819,7 @@
         <v>1.158137737842765</v>
       </c>
       <c r="K12">
-        <v>0.7052661800812743</v>
+        <v>0.7052661800812885</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.221127482838369</v>
+        <v>4.221127482838426</v>
       </c>
       <c r="C13">
-        <v>0.9282675334741839</v>
+        <v>0.9282675334740418</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4009786455943498</v>
+        <v>0.4009786455942859</v>
       </c>
       <c r="F13">
-        <v>2.761903021995323</v>
+        <v>2.76190302199538</v>
       </c>
       <c r="G13">
-        <v>1.141249227581326</v>
+        <v>1.141249227581312</v>
       </c>
       <c r="H13">
-        <v>0.653755404292319</v>
+        <v>0.6537554042923261</v>
       </c>
       <c r="I13">
-        <v>0.04796386793925222</v>
+        <v>0.04796386793926288</v>
       </c>
       <c r="J13">
-        <v>1.151461996269532</v>
+        <v>1.151461996269546</v>
       </c>
       <c r="K13">
-        <v>0.701154915566903</v>
+        <v>0.7011549155669243</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.141896342368511</v>
+        <v>4.141896342368625</v>
       </c>
       <c r="C14">
-        <v>0.9105129943118868</v>
+        <v>0.910512994312171</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>0.3933576289383112</v>
       </c>
       <c r="F14">
-        <v>2.708085742050656</v>
+        <v>2.708085742050685</v>
       </c>
       <c r="G14">
-        <v>1.121406586313626</v>
+        <v>1.12140658631364</v>
       </c>
       <c r="H14">
         <v>0.6444392839679693</v>
       </c>
       <c r="I14">
-        <v>0.04810634462222652</v>
+        <v>0.04810634462221941</v>
       </c>
       <c r="J14">
-        <v>1.129739578295485</v>
+        <v>1.129739578295514</v>
       </c>
       <c r="K14">
-        <v>0.6877796028077512</v>
+        <v>0.6877796028077157</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.09348985600684</v>
+        <v>4.093489856006784</v>
       </c>
       <c r="C15">
         <v>0.8996737813406241</v>
@@ -915,25 +915,25 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887026955235697</v>
+        <v>0.3887026955235413</v>
       </c>
       <c r="F15">
-        <v>2.6752738244586</v>
+        <v>2.675273824458571</v>
       </c>
       <c r="G15">
-        <v>1.109368296691756</v>
+        <v>1.109368296691727</v>
       </c>
       <c r="H15">
         <v>0.638812132502288</v>
       </c>
       <c r="I15">
-        <v>0.04820296788092726</v>
+        <v>0.04820296788095746</v>
       </c>
       <c r="J15">
-        <v>1.116470448637045</v>
+        <v>1.116470448637017</v>
       </c>
       <c r="K15">
-        <v>0.6796111725476166</v>
+        <v>0.679611172547574</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.817885278255176</v>
+        <v>3.817885278255289</v>
       </c>
       <c r="C16">
         <v>0.8380744295715772</v>
@@ -953,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3622167829104086</v>
+        <v>0.3622167829104228</v>
       </c>
       <c r="F16">
         <v>2.489457569211126</v>
       </c>
       <c r="G16">
-        <v>1.042069808730716</v>
+        <v>1.042069808730702</v>
       </c>
       <c r="H16">
-        <v>0.607722551183393</v>
+        <v>0.6077225511833859</v>
       </c>
       <c r="I16">
-        <v>0.0488932960414985</v>
+        <v>0.04889329604152692</v>
       </c>
       <c r="J16">
-        <v>1.040954186235624</v>
+        <v>1.040954186235609</v>
       </c>
       <c r="K16">
         <v>0.6331513262669475</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.650285841025891</v>
+        <v>3.650285841026061</v>
       </c>
       <c r="C17">
-        <v>0.800708881103958</v>
+        <v>0.8007088811038159</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,22 +994,22 @@
         <v>0.3461251766876074</v>
       </c>
       <c r="F17">
-        <v>2.377311969048577</v>
+        <v>2.377311969048563</v>
       </c>
       <c r="G17">
         <v>1.002198925718602</v>
       </c>
       <c r="H17">
-        <v>0.5896234120955057</v>
+        <v>0.5896234120955128</v>
       </c>
       <c r="I17">
-        <v>0.04943176927772974</v>
+        <v>0.04943176927771731</v>
       </c>
       <c r="J17">
-        <v>0.9950580413541985</v>
+        <v>0.9950580413542269</v>
       </c>
       <c r="K17">
-        <v>0.604938366038013</v>
+        <v>0.6049383660380272</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.554381756878911</v>
+        <v>3.554381756879025</v>
       </c>
       <c r="C18">
-        <v>0.7793590812554783</v>
+        <v>0.7793590812553077</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3369225106478524</v>
+        <v>0.3369225106478382</v>
       </c>
       <c r="F18">
-        <v>2.313437998658387</v>
+        <v>2.313437998658358</v>
       </c>
       <c r="G18">
-        <v>0.9797513994378448</v>
+        <v>0.979751399437859</v>
       </c>
       <c r="H18">
         <v>0.5795484809467268</v>
       </c>
       <c r="I18">
-        <v>0.04978113983804455</v>
+        <v>0.04978113983806054</v>
       </c>
       <c r="J18">
-        <v>0.9688041636858884</v>
+        <v>0.9688041636858742</v>
       </c>
       <c r="K18">
-        <v>0.5888080937848414</v>
+        <v>0.5888080937848272</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.521990947228403</v>
+        <v>3.521990947228346</v>
       </c>
       <c r="C19">
-        <v>0.7721535229891856</v>
+        <v>0.7721535229890435</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.668074856443639</v>
+        <v>3.668074856443411</v>
       </c>
       <c r="C20">
-        <v>0.8046715231362498</v>
+        <v>0.8046715231365056</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3478325869306431</v>
+        <v>0.3478325869306644</v>
       </c>
       <c r="F20">
-        <v>2.389183859095581</v>
+        <v>2.389183859095567</v>
       </c>
       <c r="G20">
         <v>1.006392281780222</v>
       </c>
       <c r="H20">
-        <v>0.5915149129165727</v>
+        <v>0.5915149129165655</v>
       </c>
       <c r="I20">
-        <v>0.04937028740827465</v>
+        <v>0.04937028740825866</v>
       </c>
       <c r="J20">
-        <v>0.9999285198236407</v>
+        <v>0.9999285198236549</v>
       </c>
       <c r="K20">
-        <v>0.6079314404035543</v>
+        <v>0.6079314404035685</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.16514212835375</v>
+        <v>4.165142128353864</v>
       </c>
       <c r="C21">
-        <v>0.9157203528903324</v>
+        <v>0.9157203528903892</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0.6471589997068961</v>
       </c>
       <c r="I21">
-        <v>0.04806253014902673</v>
+        <v>0.04806253014902495</v>
       </c>
       <c r="J21">
-        <v>1.136112289851411</v>
+        <v>1.136112289851425</v>
       </c>
       <c r="K21">
-        <v>0.6917031287449973</v>
+        <v>0.6917031287450328</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.495462856872905</v>
+        <v>4.495462856872791</v>
       </c>
       <c r="C22">
-        <v>0.9898683395902594</v>
+        <v>0.989868339590231</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.427383608936033</v>
+        <v>0.4273836089359691</v>
       </c>
       <c r="F22">
         <v>2.949291314942855</v>
       </c>
       <c r="G22">
-        <v>1.211264025054334</v>
+        <v>1.211264025054348</v>
       </c>
       <c r="H22">
-        <v>0.687010366958873</v>
+        <v>0.6870103669588801</v>
       </c>
       <c r="I22">
-        <v>0.04761922968953058</v>
+        <v>0.04761922968950572</v>
       </c>
       <c r="J22">
         <v>1.226710685237521</v>
       </c>
       <c r="K22">
-        <v>0.7475171567218197</v>
+        <v>0.7475171567217842</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.31861000591465</v>
+        <v>4.318610005914479</v>
       </c>
       <c r="C23">
-        <v>0.9501342780222899</v>
+        <v>0.9501342780222615</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4103583515362672</v>
+        <v>0.4103583515362459</v>
       </c>
       <c r="F23">
-        <v>2.828304893577553</v>
+        <v>2.828304893577609</v>
       </c>
       <c r="G23">
         <v>1.165896824165742</v>
       </c>
       <c r="H23">
-        <v>0.6653959819666468</v>
+        <v>0.6653959819666611</v>
       </c>
       <c r="I23">
-        <v>0.04781510034201908</v>
+        <v>0.04781510034201375</v>
       </c>
       <c r="J23">
-        <v>1.17819458757937</v>
+        <v>1.178194587579355</v>
       </c>
       <c r="K23">
-        <v>0.7176203417023075</v>
+        <v>0.7176203417022933</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.66003104876188</v>
+        <v>3.660031048761937</v>
       </c>
       <c r="C24">
-        <v>0.8028796043018076</v>
+        <v>0.8028796043018929</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3470605164634719</v>
+        <v>0.3470605164634861</v>
       </c>
       <c r="F24">
-        <v>2.383814720285415</v>
+        <v>2.3838147202854</v>
       </c>
       <c r="G24">
-        <v>1.004494994853843</v>
+        <v>1.004494994853857</v>
       </c>
       <c r="H24">
-        <v>0.5906587412380588</v>
+        <v>0.5906587412380517</v>
       </c>
       <c r="I24">
-        <v>0.04939796002057406</v>
+        <v>0.04939796002056518</v>
       </c>
       <c r="J24">
-        <v>0.9977261672940045</v>
+        <v>0.9977261672939761</v>
       </c>
       <c r="K24">
-        <v>0.6065779940986218</v>
+        <v>0.606577994098636</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.96809807190948</v>
+        <v>2.968098071909594</v>
       </c>
       <c r="C25">
-        <v>0.6493330534462416</v>
+        <v>0.649333053445929</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2807551287701813</v>
+        <v>0.2807551287701671</v>
       </c>
       <c r="F25">
         <v>1.927928787999306</v>
@@ -1304,16 +1304,16 @@
         <v>0.8486093597834383</v>
       </c>
       <c r="H25">
-        <v>0.522640508913284</v>
+        <v>0.5226405089132911</v>
       </c>
       <c r="I25">
         <v>0.05259754206464962</v>
       </c>
       <c r="J25">
-        <v>0.8084465876916909</v>
+        <v>0.8084465876917051</v>
       </c>
       <c r="K25">
-        <v>0.4904241884475553</v>
+        <v>0.4904241884475411</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.469644215356709</v>
+        <v>2.469675289656436</v>
       </c>
       <c r="C2">
-        <v>0.5394291098045016</v>
+        <v>0.539078279777442</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2331392837267856</v>
+        <v>0.233351809792488</v>
       </c>
       <c r="F2">
-        <v>1.607477346107288</v>
+        <v>1.606570735772777</v>
       </c>
       <c r="G2">
-        <v>0.7460019073309496</v>
+        <v>0.2322180776515168</v>
       </c>
       <c r="H2">
-        <v>0.4811342549472073</v>
+        <v>0.5163290763752997</v>
       </c>
       <c r="I2">
-        <v>0.05598361806151253</v>
+        <v>0.4800734565187454</v>
       </c>
       <c r="J2">
-        <v>0.6722937916610974</v>
+        <v>0.05586431304993233</v>
       </c>
       <c r="K2">
-        <v>0.4070948943205721</v>
+        <v>0.6721874422264165</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.407252229868881</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.136644646030902</v>
+        <v>2.13669625025841</v>
       </c>
       <c r="C3">
-        <v>0.4663216815715145</v>
+        <v>0.4660260488628865</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2014102967392688</v>
+        <v>0.2015967246578185</v>
       </c>
       <c r="F3">
-        <v>1.39762569606404</v>
+        <v>1.396829416839935</v>
       </c>
       <c r="G3">
-        <v>0.6825706693274185</v>
+        <v>0.2084101073384375</v>
       </c>
       <c r="H3">
-        <v>0.4573922978546534</v>
+        <v>0.4769482187217449</v>
       </c>
       <c r="I3">
-        <v>0.05881676676942948</v>
+        <v>0.4564342020089711</v>
       </c>
       <c r="J3">
-        <v>0.5814243772082008</v>
+        <v>0.05870484666843723</v>
       </c>
       <c r="K3">
-        <v>0.3515973363514817</v>
+        <v>0.5813392821530527</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3517369974358431</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.933957258323289</v>
+        <v>1.934018243542681</v>
       </c>
       <c r="C4">
-        <v>0.4219419701392724</v>
+        <v>0.4216790726899831</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1821339247077631</v>
+        <v>0.1823043606541788</v>
       </c>
       <c r="F4">
-        <v>1.271753045154753</v>
+        <v>1.271022872766977</v>
       </c>
       <c r="G4">
-        <v>0.6462043173269194</v>
+        <v>0.1946159728656909</v>
       </c>
       <c r="H4">
-        <v>0.4446986390148027</v>
+        <v>0.4545204280182418</v>
       </c>
       <c r="I4">
-        <v>0.0607923015735139</v>
+        <v>0.4438018812070652</v>
       </c>
       <c r="J4">
-        <v>0.5261484706424397</v>
+        <v>0.06068451225628912</v>
       </c>
       <c r="K4">
-        <v>0.3178887009990419</v>
+        <v>0.5260754219541681</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3180172679277078</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.851727498226126</v>
+        <v>1.85179159635743</v>
       </c>
       <c r="C5">
-        <v>0.4039620186217974</v>
+        <v>0.4037122150872392</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1743220290540251</v>
+        <v>0.1744859532348215</v>
       </c>
       <c r="F5">
-        <v>1.221121566635858</v>
+        <v>1.220417991987162</v>
       </c>
       <c r="G5">
-        <v>0.6319751081223615</v>
+        <v>0.1891819662795484</v>
       </c>
       <c r="H5">
-        <v>0.4399615152998138</v>
+        <v>0.4457831202644442</v>
       </c>
       <c r="I5">
-        <v>0.06165271074082046</v>
+        <v>0.4390893792438462</v>
       </c>
       <c r="J5">
-        <v>0.503730223673287</v>
+        <v>0.06154651406266431</v>
       </c>
       <c r="K5">
-        <v>0.3042291465341336</v>
+        <v>0.5036618653988967</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3043531381191045</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838093273730522</v>
+        <v>1.838157848638417</v>
       </c>
       <c r="C6">
-        <v>0.4009821828739177</v>
+        <v>0.4007345399434143</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1730272604791594</v>
+        <v>0.1731901036059824</v>
       </c>
       <c r="F6">
-        <v>1.212751877412259</v>
+        <v>1.212052700591187</v>
       </c>
       <c r="G6">
-        <v>0.6296463895748019</v>
+        <v>0.1882904054586021</v>
       </c>
       <c r="H6">
-        <v>0.4392001725315424</v>
+        <v>0.444355522057208</v>
       </c>
       <c r="I6">
-        <v>0.06179881551573274</v>
+        <v>0.4383321039220505</v>
       </c>
       <c r="J6">
-        <v>0.5000135195654281</v>
+        <v>0.06169287811148205</v>
       </c>
       <c r="K6">
-        <v>0.3019652127678611</v>
+        <v>0.4999459278552365</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3020884415080687</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.932846893436505</v>
+        <v>1.93290792338621</v>
       </c>
       <c r="C7">
-        <v>0.4216990891855517</v>
+        <v>0.421436369265308</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1820284055523871</v>
+        <v>0.1821987536622203</v>
       </c>
       <c r="F7">
-        <v>1.271067637294493</v>
+        <v>1.270337824907884</v>
       </c>
       <c r="G7">
-        <v>0.6460101009265458</v>
+        <v>0.1945419552336816</v>
       </c>
       <c r="H7">
-        <v>0.4446330368300551</v>
+        <v>0.4544010137404371</v>
       </c>
       <c r="I7">
-        <v>0.0608036861763388</v>
+        <v>0.4437366125205813</v>
       </c>
       <c r="J7">
-        <v>0.5258457258125873</v>
+        <v>0.06069591869173863</v>
       </c>
       <c r="K7">
-        <v>0.3177041911218623</v>
+        <v>0.5257727412235695</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3178326965580851</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.354407374344589</v>
+        <v>2.354446260683005</v>
       </c>
       <c r="C8">
-        <v>0.5141018039254561</v>
+        <v>0.5137702742624981</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2221513287134584</v>
+        <v>0.2223548475509531</v>
       </c>
       <c r="F8">
-        <v>1.534448755164149</v>
+        <v>1.533580571596815</v>
       </c>
       <c r="G8">
-        <v>0.7235584690680241</v>
+        <v>0.2238255137928604</v>
       </c>
       <c r="H8">
-        <v>0.4725331243793889</v>
+        <v>0.502362795664034</v>
       </c>
       <c r="I8">
-        <v>0.05690900197375193</v>
+        <v>0.4715081325974495</v>
       </c>
       <c r="J8">
-        <v>0.6408398514253264</v>
+        <v>0.05679233390302407</v>
       </c>
       <c r="K8">
-        <v>0.3878735242169498</v>
+        <v>0.6407410603552464</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3880248200038565</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.199167169630016</v>
+        <v>3.199131879981167</v>
       </c>
       <c r="C9">
-        <v>0.7004800534420781</v>
+        <v>0.7000021297562284</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3028727271452567</v>
+        <v>0.3031416926825159</v>
       </c>
       <c r="F9">
-        <v>2.078818488760405</v>
+        <v>2.077662322538558</v>
       </c>
       <c r="G9">
-        <v>0.8990141226814217</v>
+        <v>0.2887817973623896</v>
       </c>
       <c r="H9">
-        <v>0.5440812960605896</v>
+        <v>0.6122253245946325</v>
       </c>
       <c r="I9">
-        <v>0.0513443816532817</v>
+        <v>0.5427874981082823</v>
       </c>
       <c r="J9">
-        <v>0.871619407852009</v>
+        <v>0.05120650316991515</v>
       </c>
       <c r="K9">
-        <v>0.5291530799655462</v>
+        <v>0.8714603124990958</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5293468028853354</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.837079935795714</v>
+        <v>3.83696305889066</v>
       </c>
       <c r="C10">
-        <v>0.8423583033726345</v>
+        <v>0.8417621683188941</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3640604404505652</v>
+        <v>0.364377931733074</v>
       </c>
       <c r="F10">
-        <v>2.502342935437241</v>
+        <v>2.500959075747147</v>
       </c>
       <c r="G10">
-        <v>1.046687556156613</v>
+        <v>0.3426369255427488</v>
       </c>
       <c r="H10">
-        <v>0.6098348070728861</v>
+        <v>0.7055377127402664</v>
       </c>
       <c r="I10">
-        <v>0.0488374097559241</v>
+        <v>0.6083284647938996</v>
       </c>
       <c r="J10">
-        <v>1.046211804135822</v>
+        <v>0.04868076172249403</v>
       </c>
       <c r="K10">
-        <v>0.6363844148311841</v>
+        <v>1.045999700301877</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.6366073428147345</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.132632236304744</v>
+        <v>4.132470098394151</v>
       </c>
       <c r="C11">
-        <v>0.908438102462469</v>
+        <v>0.9077848905183998</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3924666929139704</v>
+        <v>0.3928063972660283</v>
       </c>
       <c r="F11">
-        <v>2.701802147080627</v>
+        <v>2.70030956525386</v>
       </c>
       <c r="G11">
-        <v>1.119097697547318</v>
+        <v>0.3688627042555623</v>
       </c>
       <c r="H11">
-        <v>0.6433585489553408</v>
+        <v>0.7514804724539488</v>
       </c>
       <c r="I11">
-        <v>0.04812427298120525</v>
+        <v>0.6417509299301685</v>
       </c>
       <c r="J11">
-        <v>1.127199980970587</v>
+        <v>0.04795815112146506</v>
       </c>
       <c r="K11">
-        <v>0.686216124963174</v>
+        <v>1.126961118590401</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.6864517418245626</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.245473478205781</v>
+        <v>4.245292800812138</v>
       </c>
       <c r="C12">
-        <v>0.9337263794193404</v>
+        <v>0.9330509804748317</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4033208798217629</v>
+        <v>0.4036690186191407</v>
       </c>
       <c r="F12">
-        <v>2.778467420724951</v>
+        <v>2.776932762070885</v>
       </c>
       <c r="G12">
-        <v>1.147380789461337</v>
+        <v>0.3790798458094855</v>
       </c>
       <c r="H12">
-        <v>0.6566442363910596</v>
+        <v>0.7694529713591578</v>
       </c>
       <c r="I12">
-        <v>0.0479239793654429</v>
+        <v>0.6549974745351932</v>
       </c>
       <c r="J12">
-        <v>1.158137737842765</v>
+        <v>0.04775411091623738</v>
       </c>
       <c r="K12">
-        <v>0.7052661800812885</v>
+        <v>1.157888286463688</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.7055064977994547</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.221127482838426</v>
+        <v>4.220950864590407</v>
       </c>
       <c r="C13">
-        <v>0.9282675334740418</v>
+        <v>0.9275969401333271</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4009786455942859</v>
+        <v>0.4013249668246814</v>
       </c>
       <c r="F13">
-        <v>2.76190302199538</v>
+        <v>2.760377468613598</v>
       </c>
       <c r="G13">
-        <v>1.141249227581312</v>
+        <v>0.3768660288496335</v>
       </c>
       <c r="H13">
-        <v>0.6537554042923261</v>
+        <v>0.7655554456477773</v>
       </c>
       <c r="I13">
-        <v>0.04796386793926288</v>
+        <v>0.6521171100825782</v>
       </c>
       <c r="J13">
-        <v>1.151461996269546</v>
+        <v>0.04779481389565987</v>
       </c>
       <c r="K13">
-        <v>0.7011549155669243</v>
+        <v>1.151214847052358</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.7013942258384773</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.141896342368625</v>
+        <v>4.141732708714244</v>
       </c>
       <c r="C14">
-        <v>0.910512994312171</v>
+        <v>0.9098579691397504</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3933576289383112</v>
+        <v>0.3936980267240742</v>
       </c>
       <c r="F14">
-        <v>2.708085742050685</v>
+        <v>2.706589717758618</v>
       </c>
       <c r="G14">
-        <v>1.12140658631364</v>
+        <v>0.3696973094012463</v>
       </c>
       <c r="H14">
-        <v>0.6444392839679693</v>
+        <v>0.7529471090524709</v>
       </c>
       <c r="I14">
-        <v>0.04810634462221941</v>
+        <v>0.6428284613345596</v>
       </c>
       <c r="J14">
-        <v>1.129739578295514</v>
+        <v>0.04793991787170526</v>
       </c>
       <c r="K14">
-        <v>0.6877796028077157</v>
+        <v>1.129499854373293</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.6880156086179525</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.093489856006784</v>
+        <v>4.093333986000459</v>
       </c>
       <c r="C15">
-        <v>0.8996737813406241</v>
+        <v>0.8990282142749493</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3887026955235413</v>
+        <v>0.3890394680833822</v>
       </c>
       <c r="F15">
-        <v>2.675273824458571</v>
+        <v>2.673795764133587</v>
       </c>
       <c r="G15">
-        <v>1.109368296691727</v>
+        <v>0.3653447095269797</v>
       </c>
       <c r="H15">
-        <v>0.638812132502288</v>
+        <v>0.7453013265445492</v>
       </c>
       <c r="I15">
-        <v>0.04820296788095746</v>
+        <v>0.637218029642149</v>
       </c>
       <c r="J15">
-        <v>1.116470448637017</v>
+        <v>0.04803812890931702</v>
       </c>
       <c r="K15">
-        <v>0.679611172547574</v>
+        <v>1.116235211054914</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.679845140105158</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.817885278255289</v>
+        <v>3.817771176652172</v>
       </c>
       <c r="C16">
-        <v>0.8380744295715772</v>
+        <v>0.8374819501287618</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3622167829104228</v>
+        <v>0.3625328255607698</v>
       </c>
       <c r="F16">
-        <v>2.489457569211126</v>
+        <v>2.488080697697029</v>
       </c>
       <c r="G16">
-        <v>1.042069808730702</v>
+        <v>0.3409608720692887</v>
       </c>
       <c r="H16">
-        <v>0.6077225511833859</v>
+        <v>0.7026115517651448</v>
       </c>
       <c r="I16">
-        <v>0.04889329604152692</v>
+        <v>0.606222724467564</v>
       </c>
       <c r="J16">
-        <v>1.040954186235609</v>
+        <v>0.04873724631641529</v>
       </c>
       <c r="K16">
-        <v>0.6331513262669475</v>
+        <v>1.040743771718624</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.6333734115147607</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.650285841026061</v>
+        <v>3.650195125470646</v>
       </c>
       <c r="C17">
-        <v>0.8007088811038159</v>
+        <v>0.8001480583139369</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3461251766876074</v>
+        <v>0.3464285398571292</v>
       </c>
       <c r="F17">
-        <v>2.377311969048563</v>
+        <v>2.375995746714622</v>
       </c>
       <c r="G17">
-        <v>1.002198925718602</v>
+        <v>0.3264698167757842</v>
       </c>
       <c r="H17">
-        <v>0.5896234120955128</v>
+        <v>0.6773665342955297</v>
       </c>
       <c r="I17">
-        <v>0.04943176927771731</v>
+        <v>0.5881801582764083</v>
       </c>
       <c r="J17">
-        <v>0.9950580413542269</v>
+        <v>0.04928085567658691</v>
       </c>
       <c r="K17">
-        <v>0.6049383660380272</v>
+        <v>0.9948621274863427</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.6051529971745566</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.554381756879025</v>
+        <v>3.554303741313674</v>
       </c>
       <c r="C18">
-        <v>0.7793590812553077</v>
+        <v>0.7788161624838779</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3369225106478382</v>
+        <v>0.3372185937879877</v>
       </c>
       <c r="F18">
-        <v>2.313437998658358</v>
+        <v>2.312156187556255</v>
       </c>
       <c r="G18">
-        <v>0.979751399437859</v>
+        <v>0.3182949627312865</v>
       </c>
       <c r="H18">
-        <v>0.5795484809467268</v>
+        <v>0.6631703441545369</v>
       </c>
       <c r="I18">
-        <v>0.04978113983806054</v>
+        <v>0.5781373434362536</v>
       </c>
       <c r="J18">
-        <v>0.9688041636858742</v>
+        <v>0.04963309403966676</v>
       </c>
       <c r="K18">
-        <v>0.5888080937848272</v>
+        <v>0.9686163464845947</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.5890183826558726</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.521990947228346</v>
+        <v>3.52191710902656</v>
       </c>
       <c r="C19">
-        <v>0.7721535229890435</v>
+        <v>0.7716166167361678</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3338152815470039</v>
+        <v>0.3341089019107457</v>
       </c>
       <c r="F19">
-        <v>2.29191494731711</v>
+        <v>2.29064471071203</v>
       </c>
       <c r="G19">
-        <v>0.9722312341981336</v>
+        <v>0.315553508077258</v>
       </c>
       <c r="H19">
-        <v>0.5761928188270886</v>
+        <v>0.6584173563294797</v>
       </c>
       <c r="I19">
-        <v>0.0499060077688096</v>
+        <v>0.5747924863757632</v>
       </c>
       <c r="J19">
-        <v>0.9599385894956924</v>
+        <v>0.04975891880888383</v>
       </c>
       <c r="K19">
-        <v>0.5833625170158072</v>
+        <v>0.9597534739380507</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.5835713267465295</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.668074856443411</v>
+        <v>3.667981730668942</v>
       </c>
       <c r="C20">
-        <v>0.8046715231365056</v>
+        <v>0.8041073625725517</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3478325869306644</v>
+        <v>0.3481372984979814</v>
       </c>
       <c r="F20">
-        <v>2.389183859095567</v>
+        <v>2.387861230576377</v>
       </c>
       <c r="G20">
-        <v>1.006392281780222</v>
+        <v>0.3279955950913092</v>
       </c>
       <c r="H20">
-        <v>0.5915149129165655</v>
+        <v>0.680019872800429</v>
       </c>
       <c r="I20">
-        <v>0.04937028740825866</v>
+        <v>0.5900656814723035</v>
       </c>
       <c r="J20">
-        <v>0.9999285198236549</v>
+        <v>0.04921883616060185</v>
       </c>
       <c r="K20">
-        <v>0.6079314404035685</v>
+        <v>0.9997310880709875</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.6081468708412672</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.165142128353864</v>
+        <v>4.164974720826535</v>
       </c>
       <c r="C21">
-        <v>0.9157203528903892</v>
+        <v>0.9150607713916088</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3955933342102824</v>
+        <v>0.3959354712140453</v>
       </c>
       <c r="F21">
-        <v>2.723861047152411</v>
+        <v>2.722356375518842</v>
       </c>
       <c r="G21">
-        <v>1.12721047978215</v>
+        <v>0.3717948493653438</v>
       </c>
       <c r="H21">
-        <v>0.6471589997068961</v>
+        <v>0.7566342545683966</v>
       </c>
       <c r="I21">
-        <v>0.04806253014902495</v>
+        <v>0.6455401306461397</v>
       </c>
       <c r="J21">
-        <v>1.136112289851425</v>
+        <v>0.04789533623224074</v>
       </c>
       <c r="K21">
-        <v>0.6917031287450328</v>
+        <v>1.135870397986992</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.6919401081481027</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.495462856872791</v>
+        <v>4.495238604830774</v>
       </c>
       <c r="C22">
-        <v>0.989868339590231</v>
+        <v>0.989142995800961</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4273836089359691</v>
+        <v>0.4277503397934765</v>
       </c>
       <c r="F22">
-        <v>2.949291314942855</v>
+        <v>2.947662285929283</v>
       </c>
       <c r="G22">
-        <v>1.211264025054348</v>
+        <v>0.4021084104263366</v>
       </c>
       <c r="H22">
-        <v>0.6870103669588801</v>
+        <v>0.8100982176750193</v>
       </c>
       <c r="I22">
-        <v>0.04761922968950572</v>
+        <v>0.6852759383886919</v>
       </c>
       <c r="J22">
-        <v>1.226710685237521</v>
+        <v>0.04744080530455896</v>
       </c>
       <c r="K22">
-        <v>0.7475171567217842</v>
+        <v>1.226437032559289</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.7477676010097483</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.318610005914479</v>
+        <v>4.318416938284372</v>
       </c>
       <c r="C23">
-        <v>0.9501342780222615</v>
+        <v>0.9494443807519986</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4103583515362459</v>
+        <v>0.4107119430543023</v>
       </c>
       <c r="F23">
-        <v>2.828304893577609</v>
+        <v>2.826742792033258</v>
       </c>
       <c r="G23">
-        <v>1.165896824165742</v>
+        <v>0.3857612600094029</v>
       </c>
       <c r="H23">
-        <v>0.6653959819666611</v>
+        <v>0.7812266646116086</v>
       </c>
       <c r="I23">
-        <v>0.04781510034201375</v>
+        <v>0.6637237084391217</v>
       </c>
       <c r="J23">
-        <v>1.178194587579355</v>
+        <v>0.04764276529579803</v>
       </c>
       <c r="K23">
-        <v>0.7176203417022933</v>
+        <v>1.177938162153353</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.7178636632778463</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.660031048761937</v>
+        <v>3.659939014951135</v>
       </c>
       <c r="C24">
-        <v>0.8028796043018929</v>
+        <v>0.8023169536597834</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3470605164634861</v>
+        <v>0.3473646183905785</v>
       </c>
       <c r="F24">
-        <v>2.3838147202854</v>
+        <v>2.382494989413132</v>
       </c>
       <c r="G24">
-        <v>1.004494994853857</v>
+        <v>0.3273053068282934</v>
       </c>
       <c r="H24">
-        <v>0.5906587412380517</v>
+        <v>0.6788193148585719</v>
       </c>
       <c r="I24">
-        <v>0.04939796002056518</v>
+        <v>0.5892122135398807</v>
       </c>
       <c r="J24">
-        <v>0.9977261672939761</v>
+        <v>0.04924675210592788</v>
       </c>
       <c r="K24">
-        <v>0.606577994098636</v>
+        <v>0.9975294225188662</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6067930633478369</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.968098071909594</v>
+        <v>2.968086929083938</v>
       </c>
       <c r="C25">
-        <v>0.649333053445929</v>
+        <v>0.6488963080122403</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2807551287701671</v>
+        <v>0.28100632593695</v>
       </c>
       <c r="F25">
-        <v>1.927928787999306</v>
+        <v>1.926852870778262</v>
       </c>
       <c r="G25">
-        <v>0.8486093597834383</v>
+        <v>0.2702542160856183</v>
       </c>
       <c r="H25">
-        <v>0.5226405089132911</v>
+        <v>0.5805261369430923</v>
       </c>
       <c r="I25">
-        <v>0.05259754206464962</v>
+        <v>0.5214216785582906</v>
       </c>
       <c r="J25">
-        <v>0.8084465876917051</v>
+        <v>0.05246588835146859</v>
       </c>
       <c r="K25">
-        <v>0.4904241884475411</v>
+        <v>0.8083051085127408</v>
       </c>
       <c r="L25">
+        <v>0.4906067297903931</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.469675289656436</v>
+        <v>3.121711187779113</v>
       </c>
       <c r="C2">
-        <v>0.539078279777442</v>
+        <v>0.5032813299428653</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.233351809792488</v>
+        <v>0.02219084863609577</v>
       </c>
       <c r="F2">
-        <v>1.606570735772777</v>
+        <v>2.49281998192717</v>
       </c>
       <c r="G2">
-        <v>0.2322180776515168</v>
+        <v>0.000835985009458251</v>
       </c>
       <c r="H2">
-        <v>0.5163290763752997</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4800734565187454</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05586431304993233</v>
+        <v>0.1088487665947611</v>
       </c>
       <c r="K2">
-        <v>0.6721874422264165</v>
+        <v>0.7758449818875874</v>
       </c>
       <c r="L2">
-        <v>0.407252229868881</v>
+        <v>0.1028852269246059</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.469163192709857</v>
+      </c>
+      <c r="N2">
+        <v>1.957753637779689</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.13669625025841</v>
+        <v>2.749885886641209</v>
       </c>
       <c r="C3">
-        <v>0.4660260488628865</v>
+        <v>0.4324932122107441</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2015967246578185</v>
+        <v>0.02035537924432251</v>
       </c>
       <c r="F3">
-        <v>1.396829416839935</v>
+        <v>2.33489156785285</v>
       </c>
       <c r="G3">
-        <v>0.2084101073384375</v>
+        <v>0.0008450518995331794</v>
       </c>
       <c r="H3">
-        <v>0.4769482187217449</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4564342020089711</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05870484666843723</v>
+        <v>0.1118446415929562</v>
       </c>
       <c r="K3">
-        <v>0.5813392821530527</v>
+        <v>0.6778242444527791</v>
       </c>
       <c r="L3">
-        <v>0.3517369974358431</v>
+        <v>0.09445198246885411</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.4160869170108299</v>
+      </c>
+      <c r="N3">
+        <v>1.976571340261344</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934018243542681</v>
+        <v>2.526549416334205</v>
       </c>
       <c r="C4">
-        <v>0.4216790726899831</v>
+        <v>0.3898350348211466</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1823043606541788</v>
+        <v>0.01925914419652131</v>
       </c>
       <c r="F4">
-        <v>1.271022872766977</v>
+        <v>2.242063701969855</v>
       </c>
       <c r="G4">
-        <v>0.1946159728656909</v>
+        <v>0.0008507683353283779</v>
       </c>
       <c r="H4">
-        <v>0.4545204280182418</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4438018812070652</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06068451225628912</v>
+        <v>0.1137908059677954</v>
       </c>
       <c r="K4">
-        <v>0.5260754219541681</v>
+        <v>0.6188931419394379</v>
       </c>
       <c r="L4">
-        <v>0.3180172679277078</v>
+        <v>0.0893854414250228</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3841979157318036</v>
+      </c>
+      <c r="N4">
+        <v>1.990322603426208</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.85179159635743</v>
+        <v>2.436648673873322</v>
       </c>
       <c r="C5">
-        <v>0.4037122150872392</v>
+        <v>0.3726241078995542</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1744859532348215</v>
+        <v>0.01881867222623157</v>
       </c>
       <c r="F5">
-        <v>1.220417991987162</v>
+        <v>2.205194207971388</v>
       </c>
       <c r="G5">
-        <v>0.1891819662795484</v>
+        <v>0.0008531371041102982</v>
       </c>
       <c r="H5">
-        <v>0.4457831202644442</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4390893792438462</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06154651406266431</v>
+        <v>0.1146094463330041</v>
       </c>
       <c r="K5">
-        <v>0.5036618653988967</v>
+        <v>0.5951560862094496</v>
       </c>
       <c r="L5">
-        <v>0.3043531381191045</v>
+        <v>0.08734707725209034</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3713608615178146</v>
+      </c>
+      <c r="N5">
+        <v>1.996449444940225</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838157848638417</v>
+        <v>2.421783986796868</v>
       </c>
       <c r="C6">
-        <v>0.4007345399434143</v>
+        <v>0.369775843432592</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1731901036059824</v>
+        <v>0.01874586945555912</v>
       </c>
       <c r="F6">
-        <v>1.212052700591187</v>
+        <v>2.19912766323128</v>
       </c>
       <c r="G6">
-        <v>0.1882904054586021</v>
+        <v>0.0008535328563154534</v>
       </c>
       <c r="H6">
-        <v>0.444355522057208</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4383321039220505</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06169287811148205</v>
+        <v>0.1147468904664759</v>
       </c>
       <c r="K6">
-        <v>0.4999459278552365</v>
+        <v>0.5912303104725112</v>
       </c>
       <c r="L6">
-        <v>0.3020884415080687</v>
+        <v>0.08701014795372686</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3692383192135651</v>
+      </c>
+      <c r="N6">
+        <v>1.997497582616262</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.93290792338621</v>
+        <v>2.525332660511197</v>
       </c>
       <c r="C7">
-        <v>0.421436369265308</v>
+        <v>0.3896022611124863</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1821987536622203</v>
+        <v>0.01925318036559531</v>
       </c>
       <c r="F7">
-        <v>1.270337824907884</v>
+        <v>2.24156269010129</v>
       </c>
       <c r="G7">
-        <v>0.1945419552336816</v>
+        <v>0.0008508001202928162</v>
       </c>
       <c r="H7">
-        <v>0.4544010137404371</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4437366125205813</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06069591869173863</v>
+        <v>0.1138017445074482</v>
       </c>
       <c r="K7">
-        <v>0.5257727412235695</v>
+        <v>0.6185719379934653</v>
       </c>
       <c r="L7">
-        <v>0.3178326965580851</v>
+        <v>0.08935784708495476</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3840241739129411</v>
+      </c>
+      <c r="N7">
+        <v>1.990403151236023</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.354446260683005</v>
+        <v>2.992388351904367</v>
       </c>
       <c r="C8">
-        <v>0.5137702742624981</v>
+        <v>0.4786873503400102</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2223548475509531</v>
+        <v>0.02155065570611114</v>
       </c>
       <c r="F8">
-        <v>1.533580571596815</v>
+        <v>2.437454937914723</v>
       </c>
       <c r="G8">
-        <v>0.2238255137928604</v>
+        <v>0.0008390813616883781</v>
       </c>
       <c r="H8">
-        <v>0.502362795664034</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4715081325974495</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05679233390302407</v>
+        <v>0.1098587970166029</v>
       </c>
       <c r="K8">
-        <v>0.6407410603552464</v>
+        <v>0.7417635606855697</v>
       </c>
       <c r="L8">
-        <v>0.3880248200038565</v>
+        <v>0.09995320407248443</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.4507058434790991</v>
+      </c>
+      <c r="N8">
+        <v>1.963767487476062</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.199131879981167</v>
+        <v>3.954601449151596</v>
       </c>
       <c r="C9">
-        <v>0.7000021297562284</v>
+        <v>0.6612920102954263</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3031416926825159</v>
+        <v>0.02637598716608114</v>
       </c>
       <c r="F9">
-        <v>2.077662322538558</v>
+        <v>2.858576406056727</v>
       </c>
       <c r="G9">
-        <v>0.2887817973623896</v>
+        <v>0.0008171999687980319</v>
       </c>
       <c r="H9">
-        <v>0.6122253245946325</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5427874981082823</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05120650316991515</v>
+        <v>0.1030381321724967</v>
       </c>
       <c r="K9">
-        <v>0.8714603124990958</v>
+        <v>0.995173126145545</v>
       </c>
       <c r="L9">
-        <v>0.5293468028853354</v>
+        <v>0.1217028678915995</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5879268290009421</v>
+      </c>
+      <c r="N9">
+        <v>1.930434780617716</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.83696305889066</v>
+        <v>4.700611806308814</v>
       </c>
       <c r="C10">
-        <v>0.8417621683188941</v>
+        <v>0.802660124399921</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.364377931733074</v>
+        <v>0.03023893262269439</v>
       </c>
       <c r="F10">
-        <v>2.500959075747147</v>
+        <v>3.196941286736063</v>
       </c>
       <c r="G10">
-        <v>0.3426369255427488</v>
+        <v>0.0008016603157378206</v>
       </c>
       <c r="H10">
-        <v>0.7055377127402664</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6083284647938996</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04868076172249403</v>
+        <v>0.09868768003049411</v>
       </c>
       <c r="K10">
-        <v>1.045999700301877</v>
+        <v>1.191516582308054</v>
       </c>
       <c r="L10">
-        <v>0.6366073428147345</v>
+        <v>0.1384112476488184</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6940930535752443</v>
+      </c>
+      <c r="N10">
+        <v>1.919758346560016</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.132470098394151</v>
+        <v>5.051271404374404</v>
       </c>
       <c r="C11">
-        <v>0.9077848905183998</v>
+        <v>0.8691599815167592</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3928063972660283</v>
+        <v>0.03209841374450484</v>
       </c>
       <c r="F11">
-        <v>2.70030956525386</v>
+        <v>3.358811488923521</v>
       </c>
       <c r="G11">
-        <v>0.3688627042555623</v>
+        <v>0.0007946733219620751</v>
       </c>
       <c r="H11">
-        <v>0.7514804724539488</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6417509299301685</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04795815112146506</v>
+        <v>0.09688059662527593</v>
       </c>
       <c r="K11">
-        <v>1.126961118590401</v>
+        <v>1.283808503599047</v>
       </c>
       <c r="L11">
-        <v>0.6864517418245626</v>
+        <v>0.1462051212172</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.743915544642185</v>
+      </c>
+      <c r="N11">
+        <v>1.918494570338666</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.245292800812138</v>
+        <v>5.185950369668319</v>
       </c>
       <c r="C12">
-        <v>0.9330509804748317</v>
+        <v>0.8947173346046213</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4036690186191407</v>
+        <v>0.03282057357210988</v>
       </c>
       <c r="F12">
-        <v>2.776932762070885</v>
+        <v>3.421408413604865</v>
       </c>
       <c r="G12">
-        <v>0.3790798458094855</v>
+        <v>0.000792036072154004</v>
       </c>
       <c r="H12">
-        <v>0.7694529713591578</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6549974745351932</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04775411091623738</v>
+        <v>0.0962239308894226</v>
       </c>
       <c r="K12">
-        <v>1.157888286463688</v>
+        <v>1.319258373973881</v>
       </c>
       <c r="L12">
-        <v>0.7055064977994547</v>
+        <v>0.1491874729090767</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7630363642592286</v>
+      </c>
+      <c r="N12">
+        <v>1.918590431288877</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.220950864590407</v>
+        <v>5.156856059971631</v>
       </c>
       <c r="C13">
-        <v>0.9275969401333271</v>
+        <v>0.8891953572960176</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4013249668246814</v>
+        <v>0.03266418354537137</v>
       </c>
       <c r="F13">
-        <v>2.760377468613598</v>
+        <v>3.407866489074877</v>
       </c>
       <c r="G13">
-        <v>0.3768660288496335</v>
+        <v>0.0007926037257072871</v>
       </c>
       <c r="H13">
-        <v>0.7655554456477773</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6521171100825782</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04779481389565987</v>
+        <v>0.09636407476585163</v>
       </c>
       <c r="K13">
-        <v>1.151214847052358</v>
+        <v>1.311600057734665</v>
       </c>
       <c r="L13">
-        <v>0.7013942258384773</v>
+        <v>0.1485437370579561</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7589064523423801</v>
+      </c>
+      <c r="N13">
+        <v>1.918543233155063</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.141732708714244</v>
+        <v>5.062311949101627</v>
       </c>
       <c r="C14">
-        <v>0.9098579691397504</v>
+        <v>0.8712547028258655</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3936980267240742</v>
+        <v>0.03215744425519418</v>
       </c>
       <c r="F14">
-        <v>2.706589717758618</v>
+        <v>3.363934341942866</v>
       </c>
       <c r="G14">
-        <v>0.3696973094012463</v>
+        <v>0.0007944562020247288</v>
       </c>
       <c r="H14">
-        <v>0.7529471090524709</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6428284613345596</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04793991787170526</v>
+        <v>0.09682600001527675</v>
       </c>
       <c r="K14">
-        <v>1.129499854373293</v>
+        <v>1.286714491432136</v>
       </c>
       <c r="L14">
-        <v>0.6880156086179525</v>
+        <v>0.1464498404528811</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.7454833188554204</v>
+      </c>
+      <c r="N14">
+        <v>1.91849058543167</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.093333986000459</v>
+        <v>5.004655867572069</v>
       </c>
       <c r="C15">
-        <v>0.8990282142749493</v>
+        <v>0.8603163439530306</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3890394680833822</v>
+        <v>0.03184950567263556</v>
       </c>
       <c r="F15">
-        <v>2.673795764133587</v>
+        <v>3.337198981996153</v>
       </c>
       <c r="G15">
-        <v>0.3653447095269797</v>
+        <v>0.0007955919105662179</v>
       </c>
       <c r="H15">
-        <v>0.7453013265445492</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.637218029642149</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04803812890931702</v>
+        <v>0.09711263651905355</v>
       </c>
       <c r="K15">
-        <v>1.116235211054914</v>
+        <v>1.27153894141118</v>
       </c>
       <c r="L15">
-        <v>0.679845140105158</v>
+        <v>0.1451714046071899</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7372954589534615</v>
+      </c>
+      <c r="N15">
+        <v>1.918534993047103</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.817771176652172</v>
+        <v>4.677944743715273</v>
       </c>
       <c r="C16">
-        <v>0.8374819501287618</v>
+        <v>0.7983632483302472</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3625328255607698</v>
+        <v>0.03011973925597644</v>
       </c>
       <c r="F16">
-        <v>2.488080697697029</v>
+        <v>3.186535597621457</v>
       </c>
       <c r="G16">
-        <v>0.3409608720692887</v>
+        <v>0.0008021183171289358</v>
       </c>
       <c r="H16">
-        <v>0.7026115517651448</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.606222724467564</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04873724631641529</v>
+        <v>0.09880947533869033</v>
       </c>
       <c r="K16">
-        <v>1.040743771718624</v>
+        <v>1.185550976830058</v>
       </c>
       <c r="L16">
-        <v>0.6333734115147607</v>
+        <v>0.1379060519345998</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.690870615632285</v>
+      </c>
+      <c r="N16">
+        <v>1.919917999634492</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.650195125470646</v>
+        <v>4.480590644926167</v>
       </c>
       <c r="C17">
-        <v>0.8001480583139369</v>
+        <v>0.7609584439850892</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3464285398571292</v>
+        <v>0.029086956986351</v>
       </c>
       <c r="F17">
-        <v>2.375995746714622</v>
+        <v>3.096249608984692</v>
       </c>
       <c r="G17">
-        <v>0.3264698167757842</v>
+        <v>0.0008061409070298781</v>
       </c>
       <c r="H17">
-        <v>0.6773665342955297</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5881801582764083</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04928085567658691</v>
+        <v>0.09989639722601851</v>
       </c>
       <c r="K17">
-        <v>0.9948621274863427</v>
+        <v>1.13361102915826</v>
       </c>
       <c r="L17">
-        <v>0.6051529971745566</v>
+        <v>0.1335006291888661</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.662804781880439</v>
+      </c>
+      <c r="N17">
+        <v>1.921725396209311</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.554303741313674</v>
+        <v>4.368123049540714</v>
       </c>
       <c r="C18">
-        <v>0.7788161624838779</v>
+        <v>0.7396463300433709</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3372185937879877</v>
+        <v>0.02850232052384172</v>
       </c>
       <c r="F18">
-        <v>2.312156187556255</v>
+        <v>3.045056901955974</v>
       </c>
       <c r="G18">
-        <v>0.3182949627312865</v>
+        <v>0.0008084625353983767</v>
       </c>
       <c r="H18">
-        <v>0.6631703441545369</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5781373434362536</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04963309403966676</v>
+        <v>0.1005375513400857</v>
       </c>
       <c r="K18">
-        <v>0.9686163464845947</v>
+        <v>1.104011580317163</v>
       </c>
       <c r="L18">
-        <v>0.5890183826558726</v>
+        <v>0.1309847137422366</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6468034668416891</v>
+      </c>
+      <c r="N18">
+        <v>1.923099269583957</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.52191710902656</v>
+        <v>4.330215392038383</v>
       </c>
       <c r="C19">
-        <v>0.7716166167361678</v>
+        <v>0.7324634301591004</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3341089019107457</v>
+        <v>0.02830589334241651</v>
       </c>
       <c r="F19">
-        <v>2.29064471071203</v>
+        <v>3.027846103950282</v>
       </c>
       <c r="G19">
-        <v>0.315553508077258</v>
+        <v>0.0008092500544696195</v>
       </c>
       <c r="H19">
-        <v>0.6584173563294797</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5747924863757632</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04975891880888383</v>
+        <v>0.1007572996014758</v>
       </c>
       <c r="K19">
-        <v>0.9597534739380507</v>
+        <v>1.094034878212497</v>
       </c>
       <c r="L19">
-        <v>0.5835713267465295</v>
+        <v>0.1301358621796709</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.6414090021034653</v>
+      </c>
+      <c r="N19">
+        <v>1.923620220828226</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.667981730668942</v>
+        <v>4.501489318978543</v>
       </c>
       <c r="C20">
-        <v>0.8041073625725517</v>
+        <v>0.7649189185814009</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3481372984979814</v>
+        <v>0.02919590399809735</v>
       </c>
       <c r="F20">
-        <v>2.387861230576377</v>
+        <v>3.105783310756152</v>
       </c>
       <c r="G20">
-        <v>0.3279955950913092</v>
+        <v>0.0008057118957196342</v>
       </c>
       <c r="H20">
-        <v>0.680019872800429</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5900656814723035</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04921883616060185</v>
+        <v>0.09977901854892579</v>
       </c>
       <c r="K20">
-        <v>0.9997310880709875</v>
+        <v>1.139111160693361</v>
       </c>
       <c r="L20">
-        <v>0.6081468708412672</v>
+        <v>0.1339677123830967</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6657775661618501</v>
+      </c>
+      <c r="N20">
+        <v>1.921498002416328</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.164974720826535</v>
+        <v>5.090028192841316</v>
       </c>
       <c r="C21">
-        <v>0.9150607713916088</v>
+        <v>0.8765135992360342</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3959354712140453</v>
+        <v>0.03230576776948624</v>
       </c>
       <c r="F21">
-        <v>2.722356375518842</v>
+        <v>3.376801633646522</v>
       </c>
       <c r="G21">
-        <v>0.3717948493653438</v>
+        <v>0.0007939118799480402</v>
       </c>
       <c r="H21">
-        <v>0.7566342545683966</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6455401306461397</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04789533623224074</v>
+        <v>0.09668954565307786</v>
       </c>
       <c r="K21">
-        <v>1.135870397986992</v>
+        <v>1.294009757273685</v>
       </c>
       <c r="L21">
-        <v>0.6919401081481027</v>
+        <v>0.1470640003749466</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7494188237484209</v>
+      </c>
+      <c r="N21">
+        <v>1.918489959872801</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.495238604830774</v>
+        <v>5.485850441265768</v>
       </c>
       <c r="C22">
-        <v>0.989142995800961</v>
+        <v>0.9516691912770909</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4277503397934765</v>
+        <v>0.03444520615216717</v>
       </c>
       <c r="F22">
-        <v>2.947662285929283</v>
+        <v>3.561594931819172</v>
       </c>
       <c r="G22">
-        <v>0.4021084104263366</v>
+        <v>0.000786248039369998</v>
       </c>
       <c r="H22">
-        <v>0.8100982176750193</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6852759383886919</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04744080530455896</v>
+        <v>0.09483321430147029</v>
       </c>
       <c r="K22">
-        <v>1.226437032559289</v>
+        <v>1.398206234331255</v>
       </c>
       <c r="L22">
-        <v>0.7477676010097483</v>
+        <v>0.1558055363310373</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.805583902903102</v>
+      </c>
+      <c r="N22">
+        <v>1.919905004582887</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.318416938284372</v>
+        <v>5.273471769724381</v>
       </c>
       <c r="C23">
-        <v>0.9494443807519986</v>
+        <v>0.9113316829730991</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4107119430543023</v>
+        <v>0.03329231470644345</v>
       </c>
       <c r="F23">
-        <v>2.826742792033258</v>
+        <v>3.462208118221071</v>
       </c>
       <c r="G23">
-        <v>0.3857612600094029</v>
+        <v>0.0007903351508551597</v>
       </c>
       <c r="H23">
-        <v>0.7812266646116086</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6637237084391217</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04764276529579803</v>
+        <v>0.09580798028575188</v>
       </c>
       <c r="K23">
-        <v>1.177938162153353</v>
+        <v>1.342296762659785</v>
       </c>
       <c r="L23">
-        <v>0.7178636632778463</v>
+        <v>0.1511221665724136</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7754575902995526</v>
+      </c>
+      <c r="N23">
+        <v>1.918819187317936</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.659939014951135</v>
+        <v>4.492037952395094</v>
       </c>
       <c r="C24">
-        <v>0.8023169536597834</v>
+        <v>0.7631277931538989</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3473646183905785</v>
+        <v>0.02914662087853515</v>
       </c>
       <c r="F24">
-        <v>2.382494989413132</v>
+        <v>3.101470912156401</v>
       </c>
       <c r="G24">
-        <v>0.3273053068282934</v>
+        <v>0.0008059058234579886</v>
       </c>
       <c r="H24">
-        <v>0.6788193148585719</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5892122135398807</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04924675210592788</v>
+        <v>0.09983203499079707</v>
       </c>
       <c r="K24">
-        <v>0.9975294225188662</v>
+        <v>1.136623742056599</v>
       </c>
       <c r="L24">
-        <v>0.6067930633478369</v>
+        <v>0.1337564919153422</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6644331552284655</v>
+      </c>
+      <c r="N24">
+        <v>1.921599768663668</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.968086929083938</v>
+        <v>3.688294358010808</v>
       </c>
       <c r="C25">
-        <v>0.6488963080122403</v>
+        <v>0.6108168515960699</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.28100632593695</v>
+        <v>0.0250247432543107</v>
       </c>
       <c r="F25">
-        <v>1.926852870778262</v>
+        <v>2.740072853371871</v>
       </c>
       <c r="G25">
-        <v>0.2702542160856183</v>
+        <v>0.00082301471024397</v>
       </c>
       <c r="H25">
-        <v>0.5805261369430923</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5214216785582906</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05246588835146859</v>
+        <v>0.1047758293553471</v>
       </c>
       <c r="K25">
-        <v>0.8083051085127408</v>
+        <v>0.925068409971388</v>
       </c>
       <c r="L25">
-        <v>0.4906067297903931</v>
+        <v>0.1157017035059411</v>
       </c>
       <c r="M25">
+        <v>0.5499771203918797</v>
+      </c>
+      <c r="N25">
+        <v>1.937208489980279</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.121711187779113</v>
+        <v>2.418149057775395</v>
       </c>
       <c r="C2">
-        <v>0.5032813299428653</v>
+        <v>0.4715786536410747</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02219084863609577</v>
+        <v>0.05893781777089258</v>
       </c>
       <c r="F2">
-        <v>2.49281998192717</v>
+        <v>1.213905798655233</v>
       </c>
       <c r="G2">
-        <v>0.000835985009458251</v>
+        <v>0.8128284894907409</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5347021783801296</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4937084672470817</v>
       </c>
       <c r="J2">
-        <v>0.1088487665947611</v>
+        <v>0.04106074558690764</v>
       </c>
       <c r="K2">
-        <v>0.7758449818875874</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1028852269246059</v>
+        <v>0.2626740048221876</v>
       </c>
       <c r="M2">
-        <v>0.469163192709857</v>
+        <v>0.4590976606620742</v>
       </c>
       <c r="N2">
-        <v>1.957753637779689</v>
+        <v>0.7862282256021071</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.749885886641209</v>
+        <v>2.101604057783334</v>
       </c>
       <c r="C3">
-        <v>0.4324932122107441</v>
+        <v>0.4155302088141468</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02035537924432251</v>
+        <v>0.05903382940107482</v>
       </c>
       <c r="F3">
-        <v>2.33489156785285</v>
+        <v>1.144627234627563</v>
       </c>
       <c r="G3">
-        <v>0.0008450518995331794</v>
+        <v>0.7523830171349601</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.514375854566552</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4835055898234373</v>
       </c>
       <c r="J3">
-        <v>0.1118446415929562</v>
+        <v>0.04033027176737747</v>
       </c>
       <c r="K3">
-        <v>0.6778242444527791</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.09445198246885411</v>
+        <v>0.2408897488976436</v>
       </c>
       <c r="M3">
-        <v>0.4160869170108299</v>
+        <v>0.4024215724458173</v>
       </c>
       <c r="N3">
-        <v>1.976571340261344</v>
+        <v>0.8308976789723292</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.526549416334205</v>
+        <v>1.908428889002181</v>
       </c>
       <c r="C4">
-        <v>0.3898350348211466</v>
+        <v>0.3812453401390599</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01925914419652131</v>
+        <v>0.05911936880293078</v>
       </c>
       <c r="F4">
-        <v>2.242063701969855</v>
+        <v>1.104228605085495</v>
       </c>
       <c r="G4">
-        <v>0.0008507683353283779</v>
+        <v>0.7171678876619012</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.502986630740196</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4783982575643506</v>
       </c>
       <c r="J4">
-        <v>0.1137908059677954</v>
+        <v>0.03988797731837934</v>
       </c>
       <c r="K4">
-        <v>0.6188931419394379</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0893854414250228</v>
+        <v>0.2277289345001989</v>
       </c>
       <c r="M4">
-        <v>0.3841979157318036</v>
+        <v>0.3678996037604065</v>
       </c>
       <c r="N4">
-        <v>1.990322603426208</v>
+        <v>0.8595380566742481</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.436648673873322</v>
+        <v>1.829961929695145</v>
       </c>
       <c r="C5">
-        <v>0.3726241078995542</v>
+        <v>0.3672962994702687</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01881867222623157</v>
+        <v>0.0591607444217348</v>
       </c>
       <c r="F5">
-        <v>2.205194207971388</v>
+        <v>1.08827232057736</v>
       </c>
       <c r="G5">
-        <v>0.0008531371041102982</v>
+        <v>0.7032608471363773</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.498604223169437</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4765923981130129</v>
       </c>
       <c r="J5">
-        <v>0.1146094463330041</v>
+        <v>0.03970932061682397</v>
       </c>
       <c r="K5">
-        <v>0.5951560862094496</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08734707725209034</v>
+        <v>0.2224165330753038</v>
       </c>
       <c r="M5">
-        <v>0.3713608615178146</v>
+        <v>0.3538933845342669</v>
       </c>
       <c r="N5">
-        <v>1.996449444940225</v>
+        <v>0.8715058281505783</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.421783986796868</v>
+        <v>1.816946615551188</v>
       </c>
       <c r="C6">
-        <v>0.369775843432592</v>
+        <v>0.364981136348888</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01874586945555912</v>
+        <v>0.05916800383040188</v>
       </c>
       <c r="F6">
-        <v>2.19912766323128</v>
+        <v>1.085652499987702</v>
       </c>
       <c r="G6">
-        <v>0.0008535328563154534</v>
+        <v>0.7009774178354178</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4978917194986394</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4763087323731696</v>
       </c>
       <c r="J6">
-        <v>0.1147468904664759</v>
+        <v>0.03967975092579756</v>
       </c>
       <c r="K6">
-        <v>0.5912303104725112</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08701014795372686</v>
+        <v>0.2215373850462612</v>
       </c>
       <c r="M6">
-        <v>0.3692383192135651</v>
+        <v>0.351571168721712</v>
       </c>
       <c r="N6">
-        <v>1.997497582616262</v>
+        <v>0.8735107422570554</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.525332660511197</v>
+        <v>1.90736968646479</v>
       </c>
       <c r="C7">
-        <v>0.3896022611124863</v>
+        <v>0.3810571410363934</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01925318036559531</v>
+        <v>0.05911990063049366</v>
       </c>
       <c r="F7">
-        <v>2.24156269010129</v>
+        <v>1.10401140241224</v>
       </c>
       <c r="G7">
-        <v>0.0008508001202928162</v>
+        <v>0.7169785806000704</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5029265001614363</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4783728078951484</v>
       </c>
       <c r="J7">
-        <v>0.1138017445074482</v>
+        <v>0.03988556146101452</v>
       </c>
       <c r="K7">
-        <v>0.6185719379934653</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08935784708495476</v>
+        <v>0.2276570883576383</v>
       </c>
       <c r="M7">
-        <v>0.3840241739129411</v>
+        <v>0.3677104711117423</v>
       </c>
       <c r="N7">
-        <v>1.990403151236023</v>
+        <v>0.8596982681880991</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.992388351904367</v>
+        <v>2.308730740843316</v>
       </c>
       <c r="C8">
-        <v>0.4786873503400102</v>
+        <v>0.4522200212915379</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02155065570611114</v>
+        <v>0.05896529816229101</v>
       </c>
       <c r="F8">
-        <v>2.437454937914723</v>
+        <v>1.189555248697047</v>
       </c>
       <c r="G8">
-        <v>0.0008390813616883781</v>
+        <v>0.7915717050944977</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5274574890354131</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.48994065506011</v>
       </c>
       <c r="J8">
-        <v>0.1098587970166029</v>
+        <v>0.04080759706047843</v>
       </c>
       <c r="K8">
-        <v>0.7417635606855697</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09995320407248443</v>
+        <v>0.2551161715070265</v>
       </c>
       <c r="M8">
-        <v>0.4507058434790991</v>
+        <v>0.4394931981929631</v>
       </c>
       <c r="N8">
-        <v>1.963767487476062</v>
+        <v>0.8013732153907682</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.954601449151596</v>
+        <v>3.107387136870045</v>
       </c>
       <c r="C9">
-        <v>0.6612920102954263</v>
+        <v>0.5932944425083804</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02637598716608114</v>
+        <v>0.05888155966856523</v>
       </c>
       <c r="F9">
-        <v>2.858576406056727</v>
+        <v>1.375789130137491</v>
       </c>
       <c r="G9">
-        <v>0.0008171999687980319</v>
+        <v>0.9545611695871088</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5849768012203498</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5225596788064379</v>
       </c>
       <c r="J9">
-        <v>0.1030381321724967</v>
+        <v>0.04266451861264642</v>
       </c>
       <c r="K9">
-        <v>0.995173126145545</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1217028678915995</v>
+        <v>0.3108281730303588</v>
       </c>
       <c r="M9">
-        <v>0.5879268290009421</v>
+        <v>0.5828525015896062</v>
       </c>
       <c r="N9">
-        <v>1.930434780617716</v>
+        <v>0.6970284766149391</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.700611806308814</v>
+        <v>3.704561542236377</v>
       </c>
       <c r="C10">
-        <v>0.802660124399921</v>
+        <v>0.6986353024066432</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03023893262269439</v>
+        <v>0.05896712521399916</v>
       </c>
       <c r="F10">
-        <v>3.196941286736063</v>
+        <v>1.526149981222673</v>
       </c>
       <c r="G10">
-        <v>0.0008016603157378206</v>
+        <v>1.08697487325999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6341114616437551</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5537072600672559</v>
       </c>
       <c r="J10">
-        <v>0.09868768003049411</v>
+        <v>0.04405824605583319</v>
       </c>
       <c r="K10">
-        <v>1.191516582308054</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1384112476488184</v>
+        <v>0.3531394329455395</v>
       </c>
       <c r="M10">
-        <v>0.6940930535752443</v>
+        <v>0.6903573703372459</v>
       </c>
       <c r="N10">
-        <v>1.919758346560016</v>
+        <v>0.6270811687565043</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.051271404374404</v>
+        <v>3.979306550602644</v>
       </c>
       <c r="C11">
-        <v>0.8691599815167592</v>
+        <v>0.7471141503774561</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03209841374450484</v>
+        <v>0.05904143082056734</v>
       </c>
       <c r="F11">
-        <v>3.358811488923521</v>
+        <v>1.598040998018618</v>
       </c>
       <c r="G11">
-        <v>0.0007946733219620751</v>
+        <v>1.150567220824968</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6582340942234453</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5697103736739848</v>
       </c>
       <c r="J11">
-        <v>0.09688059662527593</v>
+        <v>0.04469871307168916</v>
       </c>
       <c r="K11">
-        <v>1.283808503599047</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1462051212172</v>
+        <v>0.3727462295476585</v>
       </c>
       <c r="M11">
-        <v>0.743915544642185</v>
+        <v>0.7398829673451672</v>
       </c>
       <c r="N11">
-        <v>1.918494570338666</v>
+        <v>0.5968640751940733</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.185950369668319</v>
+        <v>4.083862995700713</v>
       </c>
       <c r="C12">
-        <v>0.8947173346046213</v>
+        <v>0.76556948612523</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03282057357210988</v>
+        <v>0.05907498704281799</v>
       </c>
       <c r="F12">
-        <v>3.421408413604865</v>
+        <v>1.625816085987012</v>
       </c>
       <c r="G12">
-        <v>0.000792036072154004</v>
+        <v>1.175185897834382</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.667648755982384</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5760590872567448</v>
       </c>
       <c r="J12">
-        <v>0.0962239308894226</v>
+        <v>0.04494217518707444</v>
       </c>
       <c r="K12">
-        <v>1.319258373973881</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1491874729090767</v>
+        <v>0.3802277082336758</v>
       </c>
       <c r="M12">
-        <v>0.7630363642592286</v>
+        <v>0.7587394496072335</v>
       </c>
       <c r="N12">
-        <v>1.918590431288877</v>
+        <v>0.5856655628675043</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.156856059971631</v>
+        <v>4.061320698941643</v>
       </c>
       <c r="C13">
-        <v>0.8891953572960176</v>
+        <v>0.7615901749281875</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03266418354537137</v>
+        <v>0.05906751341430727</v>
       </c>
       <c r="F13">
-        <v>3.407866489074877</v>
+        <v>1.61980886157265</v>
       </c>
       <c r="G13">
-        <v>0.0007926037257072871</v>
+        <v>1.169858985938362</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6656082626920465</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5746785179677829</v>
       </c>
       <c r="J13">
-        <v>0.09636407476585163</v>
+        <v>0.04488969973546375</v>
       </c>
       <c r="K13">
-        <v>1.311600057734665</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1485437370579561</v>
+        <v>0.3786138245923354</v>
       </c>
       <c r="M13">
-        <v>0.7589064523423801</v>
+        <v>0.7546736051331422</v>
       </c>
       <c r="N13">
-        <v>1.918543233155063</v>
+        <v>0.5880662792948712</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.062311949101627</v>
+        <v>3.987897682576147</v>
       </c>
       <c r="C14">
-        <v>0.8712547028258655</v>
+        <v>0.7486304249910347</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03215744425519418</v>
+        <v>0.05904408087713531</v>
       </c>
       <c r="F14">
-        <v>3.363934341942866</v>
+        <v>1.600314719440306</v>
       </c>
       <c r="G14">
-        <v>0.0007944562020247288</v>
+        <v>1.152581506888112</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6590028807462716</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5702267497456717</v>
       </c>
       <c r="J14">
-        <v>0.09682600001527675</v>
+        <v>0.0447187241449889</v>
       </c>
       <c r="K14">
-        <v>1.286714491432136</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1464498404528811</v>
+        <v>0.3733605656786949</v>
       </c>
       <c r="M14">
-        <v>0.7454833188554204</v>
+        <v>0.7414321750197033</v>
       </c>
       <c r="N14">
-        <v>1.91849058543167</v>
+        <v>0.5959377935665913</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.004655867572069</v>
+        <v>3.942993489014953</v>
       </c>
       <c r="C15">
-        <v>0.8603163439530306</v>
+        <v>0.7407054307332999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03184950567263556</v>
+        <v>0.0590304439170346</v>
       </c>
       <c r="F15">
-        <v>3.337198981996153</v>
+        <v>1.588447359219273</v>
       </c>
       <c r="G15">
-        <v>0.0007955919105662179</v>
+        <v>1.142070282632289</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6549941393300287</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5675382862353118</v>
       </c>
       <c r="J15">
-        <v>0.09711263651905355</v>
+        <v>0.04461411812113525</v>
       </c>
       <c r="K15">
-        <v>1.27153894141118</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1451714046071899</v>
+        <v>0.3701503516040674</v>
       </c>
       <c r="M15">
-        <v>0.7372954589534615</v>
+        <v>0.7333351302214268</v>
       </c>
       <c r="N15">
-        <v>1.918534993047103</v>
+        <v>0.6007915297359752</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.677944743715273</v>
+        <v>3.686674487273649</v>
       </c>
       <c r="C16">
-        <v>0.7983632483302472</v>
+        <v>0.6954797634167278</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03011973925597644</v>
+        <v>0.05896300844889968</v>
       </c>
       <c r="F16">
-        <v>3.186535597621457</v>
+        <v>1.521526122243273</v>
       </c>
       <c r="G16">
-        <v>0.0008021183171289358</v>
+        <v>1.08289109604064</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6325727381326374</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5527004074923241</v>
       </c>
       <c r="J16">
-        <v>0.09880947533869033</v>
+        <v>0.04401652002509238</v>
       </c>
       <c r="K16">
-        <v>1.185550976830058</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1379060519345998</v>
+        <v>0.3518657420677442</v>
       </c>
       <c r="M16">
-        <v>0.690870615632285</v>
+        <v>0.6871343314350327</v>
       </c>
       <c r="N16">
-        <v>1.919917999634492</v>
+        <v>0.6290893089425325</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.480590644926167</v>
+        <v>3.530271415124673</v>
       </c>
       <c r="C17">
-        <v>0.7609584439850892</v>
+        <v>0.6678900453243841</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.029086956986351</v>
+        <v>0.05893092340104822</v>
       </c>
       <c r="F17">
-        <v>3.096249608984692</v>
+        <v>1.481400208348504</v>
       </c>
       <c r="G17">
-        <v>0.0008061409070298781</v>
+        <v>1.047483902400998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6192888256165077</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5440846567162367</v>
       </c>
       <c r="J17">
-        <v>0.09989639722601851</v>
+        <v>0.04365156623961752</v>
       </c>
       <c r="K17">
-        <v>1.13361102915826</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1335006291888661</v>
+        <v>0.3407442649486683</v>
       </c>
       <c r="M17">
-        <v>0.662804781880439</v>
+        <v>0.658959545357213</v>
       </c>
       <c r="N17">
-        <v>1.921725396209311</v>
+        <v>0.6468688134200793</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.368123049540714</v>
+        <v>3.440598392885363</v>
       </c>
       <c r="C18">
-        <v>0.7396463300433709</v>
+        <v>0.6520726448720779</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02850232052384172</v>
+        <v>0.05891577709873808</v>
       </c>
       <c r="F18">
-        <v>3.045056901955974</v>
+        <v>1.458646245422983</v>
       </c>
       <c r="G18">
-        <v>0.0008084625353983767</v>
+        <v>1.027431004001201</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6118133282113121</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5393001053795032</v>
       </c>
       <c r="J18">
-        <v>0.1005375513400857</v>
+        <v>0.04344226137526874</v>
       </c>
       <c r="K18">
-        <v>1.104011580317163</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1309847137422366</v>
+        <v>0.3343809615754054</v>
       </c>
       <c r="M18">
-        <v>0.6468034668416891</v>
+        <v>0.6428117774098823</v>
       </c>
       <c r="N18">
-        <v>1.923099269583957</v>
+        <v>0.6572450474375273</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.330215392038383</v>
+        <v>3.410283644833441</v>
       </c>
       <c r="C19">
-        <v>0.7324634301591004</v>
+        <v>0.6467254915631031</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02830589334241651</v>
+        <v>0.05891120759395196</v>
       </c>
       <c r="F19">
-        <v>3.027846103950282</v>
+        <v>1.450996590720592</v>
       </c>
       <c r="G19">
-        <v>0.0008092500544696195</v>
+        <v>1.020693493032013</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6093098680203184</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5377087819827011</v>
       </c>
       <c r="J19">
-        <v>0.1007572996014758</v>
+        <v>0.04337149857946088</v>
       </c>
       <c r="K19">
-        <v>1.094034878212497</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1301358621796709</v>
+        <v>0.3322320554841838</v>
       </c>
       <c r="M19">
-        <v>0.6414090021034653</v>
+        <v>0.6373539425743857</v>
       </c>
       <c r="N19">
-        <v>1.923620220828226</v>
+        <v>0.660783616013072</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.501489318978543</v>
+        <v>3.546890696109699</v>
       </c>
       <c r="C20">
-        <v>0.7649189185814009</v>
+        <v>0.6708215717836765</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02919590399809735</v>
+        <v>0.05893399426317192</v>
       </c>
       <c r="F20">
-        <v>3.105783310756152</v>
+        <v>1.485637657087906</v>
       </c>
       <c r="G20">
-        <v>0.0008057118957196342</v>
+        <v>1.051220345526858</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.620685661964842</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5449839461648267</v>
       </c>
       <c r="J20">
-        <v>0.09977901854892579</v>
+        <v>0.04369035337708382</v>
       </c>
       <c r="K20">
-        <v>1.139111160693361</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1339677123830967</v>
+        <v>0.3419246644781992</v>
       </c>
       <c r="M20">
-        <v>0.6657775661618501</v>
+        <v>0.6619527456965457</v>
       </c>
       <c r="N20">
-        <v>1.921498002416328</v>
+        <v>0.6449605421232061</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.090028192841316</v>
+        <v>4.00944917474817</v>
       </c>
       <c r="C21">
-        <v>0.8765135992360342</v>
+        <v>0.7524342283184353</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03230576776948624</v>
+        <v>0.05905081368692322</v>
       </c>
       <c r="F21">
-        <v>3.376801633646522</v>
+        <v>1.606025238070885</v>
       </c>
       <c r="G21">
-        <v>0.0007939118799480402</v>
+        <v>1.157641267629799</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6609352312174792</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5715262974003466</v>
       </c>
       <c r="J21">
-        <v>0.09668954565307786</v>
+        <v>0.04476891849375519</v>
       </c>
       <c r="K21">
-        <v>1.294009757273685</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1470640003749466</v>
+        <v>0.374901990127043</v>
       </c>
       <c r="M21">
-        <v>0.7494188237484209</v>
+        <v>0.7453186214944623</v>
       </c>
       <c r="N21">
-        <v>1.918489959872801</v>
+        <v>0.5936190012500973</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.485850441265768</v>
+        <v>4.314806793071114</v>
       </c>
       <c r="C22">
-        <v>0.9516691912770909</v>
+        <v>0.806350006266257</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03444520615216717</v>
+        <v>0.05915892874288264</v>
       </c>
       <c r="F22">
-        <v>3.561594931819172</v>
+        <v>1.687946233951621</v>
       </c>
       <c r="G22">
-        <v>0.000786248039369998</v>
+        <v>1.230356388021647</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.6888857923339913</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.5905691211291924</v>
       </c>
       <c r="J22">
-        <v>0.09483321430147029</v>
+        <v>0.04547925664470398</v>
       </c>
       <c r="K22">
-        <v>1.398206234331255</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1558055363310373</v>
+        <v>0.3967884188343191</v>
       </c>
       <c r="M22">
-        <v>0.805583902903102</v>
+        <v>0.8004056473399928</v>
       </c>
       <c r="N22">
-        <v>1.919905004582887</v>
+        <v>0.5614940024936885</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.273471769724381</v>
+        <v>4.151526999995383</v>
       </c>
       <c r="C23">
-        <v>0.9113316829730991</v>
+        <v>0.7775152281990927</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03329231470644345</v>
+        <v>0.0590981985598944</v>
       </c>
       <c r="F23">
-        <v>3.462208118221071</v>
+        <v>1.64390945564088</v>
       </c>
       <c r="G23">
-        <v>0.0007903351508551597</v>
+        <v>1.191238086613453</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6738085653308588</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.5802416044768108</v>
       </c>
       <c r="J23">
-        <v>0.09580798028575188</v>
+        <v>0.04509963596701994</v>
       </c>
       <c r="K23">
-        <v>1.342296762659785</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1511221665724136</v>
+        <v>0.3850748565444349</v>
       </c>
       <c r="M23">
-        <v>0.7754575902995526</v>
+        <v>0.7709449606458918</v>
       </c>
       <c r="N23">
-        <v>1.918819187317936</v>
+        <v>0.5785040901322915</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.492037952395094</v>
+        <v>3.539376360873632</v>
       </c>
       <c r="C24">
-        <v>0.7631277931538989</v>
+        <v>0.6694960919707853</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02914662087853515</v>
+        <v>0.05893259567266096</v>
       </c>
       <c r="F24">
-        <v>3.101470912156401</v>
+        <v>1.4837209291764</v>
       </c>
       <c r="G24">
-        <v>0.0008059058234579886</v>
+        <v>1.049530159380595</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6200536507842145</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.544576853621038</v>
       </c>
       <c r="J24">
-        <v>0.09983203499079707</v>
+        <v>0.04367281611785145</v>
       </c>
       <c r="K24">
-        <v>1.136623742056599</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1337564919153422</v>
+        <v>0.3413909109798112</v>
       </c>
       <c r="M24">
-        <v>0.6644331552284655</v>
+        <v>0.6605993641365373</v>
       </c>
       <c r="N24">
-        <v>1.921599768663668</v>
+        <v>0.6458227911740604</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.688294358010808</v>
+        <v>2.889760388166337</v>
       </c>
       <c r="C25">
-        <v>0.6108168515960699</v>
+        <v>0.5548919919474997</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0250247432543107</v>
+        <v>0.05887944036382464</v>
       </c>
       <c r="F25">
-        <v>2.740072853371871</v>
+        <v>1.323205368651074</v>
       </c>
       <c r="G25">
-        <v>0.00082301471024397</v>
+        <v>0.9084350999015527</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5682966145540007</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5125608216405695</v>
       </c>
       <c r="J25">
-        <v>0.1047758293553471</v>
+        <v>0.04215699259889405</v>
       </c>
       <c r="K25">
-        <v>0.925068409971388</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1157017035059411</v>
+        <v>0.2955329562688576</v>
       </c>
       <c r="M25">
-        <v>0.5499771203918797</v>
+        <v>0.5437334562425917</v>
       </c>
       <c r="N25">
-        <v>1.937208489980279</v>
+        <v>0.7241235975627198</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.418149057775395</v>
+        <v>1.235034407920523</v>
       </c>
       <c r="C2">
-        <v>0.4715786536410747</v>
+        <v>0.1905543085327963</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05893781777089258</v>
+        <v>0.1750444730758582</v>
       </c>
       <c r="F2">
-        <v>1.213905798655233</v>
+        <v>2.083185004842619</v>
       </c>
       <c r="G2">
-        <v>0.8128284894907409</v>
+        <v>1.047729313344064</v>
       </c>
       <c r="H2">
-        <v>0.5347021783801296</v>
+        <v>1.036581200750263</v>
       </c>
       <c r="I2">
-        <v>0.4937084672470817</v>
+        <v>0.9968959980320093</v>
       </c>
       <c r="J2">
-        <v>0.04106074558690764</v>
+        <v>0.0519340307173195</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2626740048221876</v>
+        <v>0.442840988115222</v>
       </c>
       <c r="M2">
-        <v>0.4590976606620742</v>
+        <v>0.3493261213143342</v>
       </c>
       <c r="N2">
-        <v>0.7862282256021071</v>
+        <v>1.589797112282355</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.101604057783334</v>
+        <v>1.148705948682164</v>
       </c>
       <c r="C3">
-        <v>0.4155302088141468</v>
+        <v>0.1728947131852294</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05903382940107482</v>
+        <v>0.1754753712506512</v>
       </c>
       <c r="F3">
-        <v>1.144627234627563</v>
+        <v>2.080451053136699</v>
       </c>
       <c r="G3">
-        <v>0.7523830171349601</v>
+        <v>1.041538780712003</v>
       </c>
       <c r="H3">
-        <v>0.514375854566552</v>
+        <v>1.039183797146976</v>
       </c>
       <c r="I3">
-        <v>0.4835055898234373</v>
+        <v>1.002348751589373</v>
       </c>
       <c r="J3">
-        <v>0.04033027176737747</v>
+        <v>0.05162651519041006</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2408897488976436</v>
+        <v>0.4390765830141348</v>
       </c>
       <c r="M3">
-        <v>0.4024215724458173</v>
+        <v>0.3349726243342204</v>
       </c>
       <c r="N3">
-        <v>0.8308976789723292</v>
+        <v>1.608120184331</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908428889002181</v>
+        <v>1.09611105637515</v>
       </c>
       <c r="C4">
-        <v>0.3812453401390599</v>
+        <v>0.161969185187786</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05911936880293078</v>
+        <v>0.1757613576528221</v>
       </c>
       <c r="F4">
-        <v>1.104228605085495</v>
+        <v>2.079867179875876</v>
       </c>
       <c r="G4">
-        <v>0.7171678876619012</v>
+        <v>1.0384837223868</v>
       </c>
       <c r="H4">
-        <v>0.502986630740196</v>
+        <v>1.041325294943988</v>
       </c>
       <c r="I4">
-        <v>0.4783982575643506</v>
+        <v>1.006254125864352</v>
       </c>
       <c r="J4">
-        <v>0.03988797731837934</v>
+        <v>0.05144132818572267</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2277289345001989</v>
+        <v>0.4369183537759227</v>
       </c>
       <c r="M4">
-        <v>0.3678996037604065</v>
+        <v>0.3262968858204474</v>
       </c>
       <c r="N4">
-        <v>0.8595380566742481</v>
+        <v>1.619955938006633</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829961929695145</v>
+        <v>1.074782480408885</v>
       </c>
       <c r="C5">
-        <v>0.3672962994702687</v>
+        <v>0.1574961518726923</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0591607444217348</v>
+        <v>0.1758832976927072</v>
       </c>
       <c r="F5">
-        <v>1.08827232057736</v>
+        <v>2.079904553116435</v>
       </c>
       <c r="G5">
-        <v>0.7032608471363773</v>
+        <v>1.037425931326624</v>
       </c>
       <c r="H5">
-        <v>0.498604223169437</v>
+        <v>1.042334573854234</v>
       </c>
       <c r="I5">
-        <v>0.4765923981130129</v>
+        <v>1.007985617787284</v>
       </c>
       <c r="J5">
-        <v>0.03970932061682397</v>
+        <v>0.051366790386421</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2224165330753038</v>
+        <v>0.4360775079904826</v>
       </c>
       <c r="M5">
-        <v>0.3538933845342669</v>
+        <v>0.3227961960998016</v>
       </c>
       <c r="N5">
-        <v>0.8715058281505783</v>
+        <v>1.624926255026706</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816946615551188</v>
+        <v>1.071247210539696</v>
       </c>
       <c r="C6">
-        <v>0.364981136348888</v>
+        <v>0.156752150729119</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05916800383040188</v>
+        <v>0.1759038721906889</v>
       </c>
       <c r="F6">
-        <v>1.085652499987702</v>
+        <v>2.079927387225581</v>
       </c>
       <c r="G6">
-        <v>0.7009774178354178</v>
+        <v>1.037261578693546</v>
       </c>
       <c r="H6">
-        <v>0.4978917194986394</v>
+        <v>1.042510412371499</v>
       </c>
       <c r="I6">
-        <v>0.4763087323731696</v>
+        <v>1.008281583714201</v>
       </c>
       <c r="J6">
-        <v>0.03967975092579756</v>
+        <v>0.05135446989436687</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2215373850462612</v>
+        <v>0.435940224814189</v>
       </c>
       <c r="M6">
-        <v>0.351571168721712</v>
+        <v>0.3222170136789586</v>
       </c>
       <c r="N6">
-        <v>0.8735107422570554</v>
+        <v>1.625760459141528</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.90736968646479</v>
+        <v>1.095822988378274</v>
       </c>
       <c r="C7">
-        <v>0.3810571410363934</v>
+        <v>0.1619089445533746</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05911990063049366</v>
+        <v>0.1757629803026965</v>
       </c>
       <c r="F7">
-        <v>1.10401140241224</v>
+        <v>2.079866569184063</v>
       </c>
       <c r="G7">
-        <v>0.7169785806000704</v>
+        <v>1.038468699342701</v>
       </c>
       <c r="H7">
-        <v>0.5029265001614363</v>
+        <v>1.041338353428785</v>
       </c>
       <c r="I7">
-        <v>0.4783728078951484</v>
+        <v>1.006276910612669</v>
       </c>
       <c r="J7">
-        <v>0.03988556146101452</v>
+        <v>0.05144031916830549</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2276570883576383</v>
+        <v>0.4369068571504755</v>
       </c>
       <c r="M7">
-        <v>0.3677104711117423</v>
+        <v>0.3262495333482818</v>
       </c>
       <c r="N7">
-        <v>0.8596982681880991</v>
+        <v>1.620022373672711</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.308730740843316</v>
+        <v>1.205183527392762</v>
       </c>
       <c r="C8">
-        <v>0.4522200212915379</v>
+        <v>0.1844823573582346</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05896529816229101</v>
+        <v>0.1751886106824898</v>
       </c>
       <c r="F8">
-        <v>1.189555248697047</v>
+        <v>2.082015117169689</v>
       </c>
       <c r="G8">
-        <v>0.7915717050944977</v>
+        <v>1.045439745168736</v>
       </c>
       <c r="H8">
-        <v>0.5274574890354131</v>
+        <v>1.037365732739616</v>
       </c>
       <c r="I8">
-        <v>0.48994065506011</v>
+        <v>0.9986603457161678</v>
       </c>
       <c r="J8">
-        <v>0.04080759706047843</v>
+        <v>0.05182725501745011</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2551161715070265</v>
+        <v>0.4415113233286689</v>
       </c>
       <c r="M8">
-        <v>0.4394931981929631</v>
+        <v>0.3443486410047996</v>
       </c>
       <c r="N8">
-        <v>0.8013732153907682</v>
+        <v>1.595993408460522</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.107387136870045</v>
+        <v>1.422874175558434</v>
       </c>
       <c r="C9">
-        <v>0.5932944425083804</v>
+        <v>0.2280989175822299</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05888155966856523</v>
+        <v>0.1742315750398085</v>
       </c>
       <c r="F9">
-        <v>1.375789130137491</v>
+        <v>2.094917559057336</v>
       </c>
       <c r="G9">
-        <v>0.9545611695871088</v>
+        <v>1.065049439773745</v>
       </c>
       <c r="H9">
-        <v>0.5849768012203498</v>
+        <v>1.033891771552078</v>
       </c>
       <c r="I9">
-        <v>0.5225596788064379</v>
+        <v>0.988153347736251</v>
       </c>
       <c r="J9">
-        <v>0.04266451861264642</v>
+        <v>0.05261422037499131</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3108281730303588</v>
+        <v>0.4517501880494592</v>
       </c>
       <c r="M9">
-        <v>0.5828525015896062</v>
+        <v>0.380924119746112</v>
       </c>
       <c r="N9">
-        <v>0.6970284766149391</v>
+        <v>1.553517640347646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.704561542236377</v>
+        <v>1.584764556443474</v>
       </c>
       <c r="C10">
-        <v>0.6986353024066432</v>
+        <v>0.2597569276090042</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05896712521399916</v>
+        <v>0.1736308431901961</v>
       </c>
       <c r="F10">
-        <v>1.526149981222673</v>
+        <v>2.109702176566245</v>
       </c>
       <c r="G10">
-        <v>1.08697487325999</v>
+        <v>1.083109607757621</v>
       </c>
       <c r="H10">
-        <v>0.6341114616437551</v>
+        <v>1.033977809567943</v>
       </c>
       <c r="I10">
-        <v>0.5537072600672559</v>
+        <v>0.9831440833646781</v>
       </c>
       <c r="J10">
-        <v>0.04405824605583319</v>
+        <v>0.05320884087428723</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3531394329455395</v>
+        <v>0.4600038686192107</v>
       </c>
       <c r="M10">
-        <v>0.6903573703372459</v>
+        <v>0.4084505147297648</v>
       </c>
       <c r="N10">
-        <v>0.6270811687565043</v>
+        <v>1.525142555705948</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.979306550602644</v>
+        <v>1.658833887082039</v>
       </c>
       <c r="C11">
-        <v>0.7471141503774561</v>
+        <v>0.274077049468616</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05904143082056734</v>
+        <v>0.1733796215289871</v>
       </c>
       <c r="F11">
-        <v>1.598040998018618</v>
+        <v>2.117582122979385</v>
       </c>
       <c r="G11">
-        <v>1.150567220824968</v>
+        <v>1.092125977992964</v>
       </c>
       <c r="H11">
-        <v>0.6582340942234453</v>
+        <v>1.034591485133774</v>
       </c>
       <c r="I11">
-        <v>0.5697103736739848</v>
+        <v>0.9814560168879325</v>
       </c>
       <c r="J11">
-        <v>0.04469871307168916</v>
+        <v>0.05348276601887747</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3727462295476585</v>
+        <v>0.4639162292526606</v>
       </c>
       <c r="M11">
-        <v>0.7398829673451672</v>
+        <v>0.4211140276191117</v>
       </c>
       <c r="N11">
-        <v>0.5968640751940733</v>
+        <v>1.512848995738988</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.083862995700713</v>
+        <v>1.686942441894757</v>
       </c>
       <c r="C12">
-        <v>0.76556948612523</v>
+        <v>0.279488126603411</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05907498704281799</v>
+        <v>0.1732876484869186</v>
       </c>
       <c r="F12">
-        <v>1.625816085987012</v>
+        <v>2.120732135352142</v>
       </c>
       <c r="G12">
-        <v>1.175185897834382</v>
+        <v>1.095655897321421</v>
       </c>
       <c r="H12">
-        <v>0.667648755982384</v>
+        <v>1.034906597888551</v>
       </c>
       <c r="I12">
-        <v>0.5760590872567448</v>
+        <v>0.9809019035974487</v>
       </c>
       <c r="J12">
-        <v>0.04494217518707444</v>
+        <v>0.05358697352059849</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3802277082336758</v>
+        <v>0.465420291977523</v>
       </c>
       <c r="M12">
-        <v>0.7587394496072335</v>
+        <v>0.4259295788712336</v>
       </c>
       <c r="N12">
-        <v>0.5856655628675043</v>
+        <v>1.50828214903548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.061320698941643</v>
+        <v>1.6808861034595</v>
       </c>
       <c r="C13">
-        <v>0.7615901749281875</v>
+        <v>0.2783232714170367</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05906751341430727</v>
+        <v>0.1733073162164844</v>
       </c>
       <c r="F13">
-        <v>1.61980886157265</v>
+        <v>2.120046337940806</v>
       </c>
       <c r="G13">
-        <v>1.169858985938362</v>
+        <v>1.094890516427682</v>
       </c>
       <c r="H13">
-        <v>0.6656082626920465</v>
+        <v>1.034835051645899</v>
       </c>
       <c r="I13">
-        <v>0.5746785179677829</v>
+        <v>0.9810174531116687</v>
       </c>
       <c r="J13">
-        <v>0.04488969973546375</v>
+        <v>0.05356450955127201</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3786138245923354</v>
+        <v>0.4650953651097609</v>
       </c>
       <c r="M13">
-        <v>0.7546736051331422</v>
+        <v>0.4248915707484358</v>
       </c>
       <c r="N13">
-        <v>0.5880662792948712</v>
+        <v>1.509261765258483</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.987897682576147</v>
+        <v>1.661145195584083</v>
       </c>
       <c r="C14">
-        <v>0.7486304249910347</v>
+        <v>0.2745224551165961</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05904408087713531</v>
+        <v>0.1733719916068504</v>
       </c>
       <c r="F14">
-        <v>1.600314719440306</v>
+        <v>2.117837948238034</v>
       </c>
       <c r="G14">
-        <v>1.152581506888112</v>
+        <v>1.092414066748518</v>
       </c>
       <c r="H14">
-        <v>0.6590028807462716</v>
+        <v>1.034615751042026</v>
       </c>
       <c r="I14">
-        <v>0.5702267497456717</v>
+        <v>0.9814087226542654</v>
       </c>
       <c r="J14">
-        <v>0.0447187241449889</v>
+        <v>0.05349132973928405</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3733605656786949</v>
+        <v>0.4640395185480628</v>
       </c>
       <c r="M14">
-        <v>0.7414321750197033</v>
+        <v>0.4215098032108884</v>
       </c>
       <c r="N14">
-        <v>0.5959377935665913</v>
+        <v>1.512471505062113</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.942993489014953</v>
+        <v>1.649061119141322</v>
       </c>
       <c r="C15">
-        <v>0.7407054307332999</v>
+        <v>0.2721928305302299</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0590304439170346</v>
+        <v>0.1734120182050063</v>
       </c>
       <c r="F15">
-        <v>1.588447359219273</v>
+        <v>2.116506871704885</v>
       </c>
       <c r="G15">
-        <v>1.142070282632289</v>
+        <v>1.090912240486205</v>
       </c>
       <c r="H15">
-        <v>0.6549941393300287</v>
+        <v>1.0344921998811</v>
       </c>
       <c r="I15">
-        <v>0.5675382862353118</v>
+        <v>0.9816594772393827</v>
       </c>
       <c r="J15">
-        <v>0.04461411812113525</v>
+        <v>0.0534465667933901</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3701503516040674</v>
+        <v>0.4633957127386878</v>
       </c>
       <c r="M15">
-        <v>0.7333351302214268</v>
+        <v>0.4194409913250396</v>
       </c>
       <c r="N15">
-        <v>0.6007915297359752</v>
+        <v>1.514449086410991</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.686674487273649</v>
+        <v>1.579932414065752</v>
       </c>
       <c r="C16">
-        <v>0.6954797634167278</v>
+        <v>0.2588194424176322</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05896300844889968</v>
+        <v>0.173647703856278</v>
       </c>
       <c r="F16">
-        <v>1.521526122243273</v>
+        <v>2.109210436551223</v>
       </c>
       <c r="G16">
-        <v>1.08289109604064</v>
+        <v>1.082536519613399</v>
       </c>
       <c r="H16">
-        <v>0.6325727381326374</v>
+        <v>1.033949274892791</v>
       </c>
       <c r="I16">
-        <v>0.5527004074923241</v>
+        <v>0.9832663039270031</v>
       </c>
       <c r="J16">
-        <v>0.04401652002509238</v>
+        <v>0.05319100693177958</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3518657420677442</v>
+        <v>0.4597513481191129</v>
       </c>
       <c r="M16">
-        <v>0.6871343314350327</v>
+        <v>0.4076257560573211</v>
       </c>
       <c r="N16">
-        <v>0.6290893089425325</v>
+        <v>1.525958341218921</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.530271415124673</v>
+        <v>1.537632262738157</v>
       </c>
       <c r="C17">
-        <v>0.6678900453243841</v>
+        <v>0.2505945188129886</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05893092340104822</v>
+        <v>0.1737979292500018</v>
       </c>
       <c r="F17">
-        <v>1.481400208348504</v>
+        <v>2.105030004245805</v>
       </c>
       <c r="G17">
-        <v>1.047483902400998</v>
+        <v>1.077603704247849</v>
       </c>
       <c r="H17">
-        <v>0.6192888256165077</v>
+        <v>1.033763437984447</v>
       </c>
       <c r="I17">
-        <v>0.5440846567162367</v>
+        <v>0.9844034552583736</v>
       </c>
       <c r="J17">
-        <v>0.04365156623961752</v>
+        <v>0.05303509675379559</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3407442649486683</v>
+        <v>0.4575559422010542</v>
       </c>
       <c r="M17">
-        <v>0.658959545357213</v>
+        <v>0.4004136133824687</v>
       </c>
       <c r="N17">
-        <v>0.6468688134200793</v>
+        <v>1.533176335198739</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.440598392885363</v>
+        <v>1.513342354712961</v>
       </c>
       <c r="C18">
-        <v>0.6520726448720779</v>
+        <v>0.245856108553852</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05891577709873808</v>
+        <v>0.1738864114990966</v>
       </c>
       <c r="F18">
-        <v>1.458646245422983</v>
+        <v>2.102734179702026</v>
       </c>
       <c r="G18">
-        <v>1.027431004001201</v>
+        <v>1.074841817395736</v>
       </c>
       <c r="H18">
-        <v>0.6118133282113121</v>
+        <v>1.033710620938535</v>
       </c>
       <c r="I18">
-        <v>0.5393001053795032</v>
+        <v>0.9851131005498601</v>
       </c>
       <c r="J18">
-        <v>0.04344226137526874</v>
+        <v>0.05294574502138261</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3343809615754054</v>
+        <v>0.4563080566625786</v>
       </c>
       <c r="M18">
-        <v>0.6428117774098823</v>
+        <v>0.396278721934749</v>
       </c>
       <c r="N18">
-        <v>0.6572450474375273</v>
+        <v>1.537385758755359</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.410283644833441</v>
+        <v>1.505125111696429</v>
       </c>
       <c r="C19">
-        <v>0.6467254915631031</v>
+        <v>0.2442504487372332</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05891120759395196</v>
+        <v>0.1739167270966426</v>
       </c>
       <c r="F19">
-        <v>1.450996590720592</v>
+        <v>2.101975512022349</v>
       </c>
       <c r="G19">
-        <v>1.020693493032013</v>
+        <v>1.073919614916747</v>
       </c>
       <c r="H19">
-        <v>0.6093098680203184</v>
+        <v>1.033702021509711</v>
       </c>
       <c r="I19">
-        <v>0.5377087819827011</v>
+        <v>0.9853629156435062</v>
       </c>
       <c r="J19">
-        <v>0.04337149857946088</v>
+        <v>0.05291554811545751</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3322320554841838</v>
+        <v>0.4558880996027455</v>
       </c>
       <c r="M19">
-        <v>0.6373539425743857</v>
+        <v>0.3948810167215342</v>
       </c>
       <c r="N19">
-        <v>0.660783616013072</v>
+        <v>1.538820925470091</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.546890696109699</v>
+        <v>1.542131050997455</v>
       </c>
       <c r="C20">
-        <v>0.6708215717836765</v>
+        <v>0.2514708675856525</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05893399426317192</v>
+        <v>0.1737817226720892</v>
       </c>
       <c r="F20">
-        <v>1.485637657087906</v>
+        <v>2.105463773192966</v>
       </c>
       <c r="G20">
-        <v>1.051220345526858</v>
+        <v>1.078121010219803</v>
       </c>
       <c r="H20">
-        <v>0.620685661964842</v>
+        <v>1.033777623657826</v>
       </c>
       <c r="I20">
-        <v>0.5449839461648267</v>
+        <v>0.9842766492994883</v>
       </c>
       <c r="J20">
-        <v>0.04369035337708382</v>
+        <v>0.05305166026877117</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3419246644781992</v>
+        <v>0.4577881106286554</v>
       </c>
       <c r="M20">
-        <v>0.6619527456965457</v>
+        <v>0.401179978937428</v>
       </c>
       <c r="N20">
-        <v>0.6449605421232061</v>
+        <v>1.532401982055212</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.00944917474817</v>
+        <v>1.666941955000539</v>
       </c>
       <c r="C21">
-        <v>0.7524342283184353</v>
+        <v>0.275639162612805</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05905081368692322</v>
+        <v>0.1733529092353514</v>
       </c>
       <c r="F21">
-        <v>1.606025238070885</v>
+        <v>2.118482098904664</v>
       </c>
       <c r="G21">
-        <v>1.157641267629799</v>
+        <v>1.093138318485671</v>
       </c>
       <c r="H21">
-        <v>0.6609352312174792</v>
+        <v>1.034677918873854</v>
       </c>
       <c r="I21">
-        <v>0.5715262974003466</v>
+        <v>0.9812914856866897</v>
       </c>
       <c r="J21">
-        <v>0.04476891849375519</v>
+        <v>0.05351281157149401</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.374901990127043</v>
+        <v>0.4643490357782696</v>
       </c>
       <c r="M21">
-        <v>0.7453186214944623</v>
+        <v>0.4225025650191085</v>
       </c>
       <c r="N21">
-        <v>0.5936190012500973</v>
+        <v>1.51152632508823</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.314806793071114</v>
+        <v>1.748863008160242</v>
       </c>
       <c r="C22">
-        <v>0.806350006266257</v>
+        <v>0.2913667013466466</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05915892874288264</v>
+        <v>0.1730910632306415</v>
       </c>
       <c r="F22">
-        <v>1.687946233951621</v>
+        <v>2.127958206259805</v>
       </c>
       <c r="G22">
-        <v>1.230356388021647</v>
+        <v>1.103627115000563</v>
       </c>
       <c r="H22">
-        <v>0.6888857923339913</v>
+        <v>1.035748562847061</v>
       </c>
       <c r="I22">
-        <v>0.5905691211291924</v>
+        <v>0.9798367438579305</v>
       </c>
       <c r="J22">
-        <v>0.04547925664470398</v>
+        <v>0.05381697978043931</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3967884188343191</v>
+        <v>0.4687682744757637</v>
       </c>
       <c r="M22">
-        <v>0.8004056473399928</v>
+        <v>0.4365554820781767</v>
       </c>
       <c r="N22">
-        <v>0.5614940024936885</v>
+        <v>1.498398528223852</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.151526999995383</v>
+        <v>1.705108495183936</v>
       </c>
       <c r="C23">
-        <v>0.7775152281990927</v>
+        <v>0.2829788106625983</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0590981985598944</v>
+        <v>0.1732291350067401</v>
       </c>
       <c r="F23">
-        <v>1.64390945564088</v>
+        <v>2.12281205033743</v>
       </c>
       <c r="G23">
-        <v>1.191238086613453</v>
+        <v>1.097967207944833</v>
       </c>
       <c r="H23">
-        <v>0.6738085653308588</v>
+        <v>1.035132977611482</v>
       </c>
       <c r="I23">
-        <v>0.5802416044768108</v>
+        <v>0.9805677006884181</v>
       </c>
       <c r="J23">
-        <v>0.04509963596701994</v>
+        <v>0.05365439015913154</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3850748565444349</v>
+        <v>0.4663976773137648</v>
       </c>
       <c r="M23">
-        <v>0.7709449606458918</v>
+        <v>0.4290445053584548</v>
       </c>
       <c r="N23">
-        <v>0.5785040901322915</v>
+        <v>1.505357861873019</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.539376360873632</v>
+        <v>1.540097058381662</v>
       </c>
       <c r="C24">
-        <v>0.6694960919707853</v>
+        <v>0.251074700815991</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05893259567266096</v>
+        <v>0.173789043075872</v>
       </c>
       <c r="F24">
-        <v>1.4837209291764</v>
+        <v>2.105267331202754</v>
       </c>
       <c r="G24">
-        <v>1.049530159380595</v>
+        <v>1.077886905547317</v>
       </c>
       <c r="H24">
-        <v>0.6200536507842145</v>
+        <v>1.033771042036435</v>
       </c>
       <c r="I24">
-        <v>0.544576853621038</v>
+        <v>0.984333804212902</v>
       </c>
       <c r="J24">
-        <v>0.04367281611785145</v>
+        <v>0.05304417101990921</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3413909109798112</v>
+        <v>0.4576831027843156</v>
       </c>
       <c r="M24">
-        <v>0.6605993641365373</v>
+        <v>0.4008334693403341</v>
       </c>
       <c r="N24">
-        <v>0.6458227911740604</v>
+        <v>1.532751881139859</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.889760388166337</v>
+        <v>1.363638752897828</v>
       </c>
       <c r="C25">
-        <v>0.5548919919474997</v>
+        <v>0.2163681147729051</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05887944036382464</v>
+        <v>0.1744724377555089</v>
       </c>
       <c r="F25">
-        <v>1.323205368651074</v>
+        <v>2.090496047438236</v>
       </c>
       <c r="G25">
-        <v>0.9084350999015527</v>
+        <v>1.059105326749631</v>
       </c>
       <c r="H25">
-        <v>0.5682966145540007</v>
+        <v>1.034368758893635</v>
       </c>
       <c r="I25">
-        <v>0.5125608216405695</v>
+        <v>0.990520563068948</v>
       </c>
       <c r="J25">
-        <v>0.04215699259889405</v>
+        <v>0.0523983854660024</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2955329562688576</v>
+        <v>0.4488514563741433</v>
       </c>
       <c r="M25">
-        <v>0.5437334562425917</v>
+        <v>0.3709141400980229</v>
       </c>
       <c r="N25">
-        <v>0.7241235975627198</v>
+        <v>1.564511187666621</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.235034407920523</v>
+        <v>2.418149057775224</v>
       </c>
       <c r="C2">
-        <v>0.1905543085327963</v>
+        <v>0.4715786536406767</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1750444730758582</v>
+        <v>0.05893781777088813</v>
       </c>
       <c r="F2">
-        <v>2.083185004842619</v>
+        <v>1.213905798655219</v>
       </c>
       <c r="G2">
-        <v>1.047729313344064</v>
+        <v>0.8128284894907694</v>
       </c>
       <c r="H2">
-        <v>1.036581200750263</v>
+        <v>0.5347021783801438</v>
       </c>
       <c r="I2">
-        <v>0.9968959980320093</v>
+        <v>0.4937084672470888</v>
       </c>
       <c r="J2">
-        <v>0.0519340307173195</v>
+        <v>0.04106074558701422</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.442840988115222</v>
+        <v>0.2626740048222302</v>
       </c>
       <c r="M2">
-        <v>0.3493261213143342</v>
+        <v>0.4590976606620742</v>
       </c>
       <c r="N2">
-        <v>1.589797112282355</v>
+        <v>0.7862282256021196</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.148705948682164</v>
+        <v>2.101604057783106</v>
       </c>
       <c r="C3">
-        <v>0.1728947131852294</v>
+        <v>0.41553020881409</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1754753712506512</v>
+        <v>0.05903382940109303</v>
       </c>
       <c r="F3">
-        <v>2.080451053136699</v>
+        <v>1.144627234627563</v>
       </c>
       <c r="G3">
-        <v>1.041538780712003</v>
+        <v>0.7523830171348891</v>
       </c>
       <c r="H3">
-        <v>1.039183797146976</v>
+        <v>0.5143758545665662</v>
       </c>
       <c r="I3">
-        <v>1.002348751589373</v>
+        <v>0.4835055898234373</v>
       </c>
       <c r="J3">
-        <v>0.05162651519041006</v>
+        <v>0.04033027176732773</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4390765830141348</v>
+        <v>0.2408897488976578</v>
       </c>
       <c r="M3">
-        <v>0.3349726243342204</v>
+        <v>0.4024215724458244</v>
       </c>
       <c r="N3">
-        <v>1.608120184331</v>
+        <v>0.8308976789723186</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.09611105637515</v>
+        <v>1.908428889002181</v>
       </c>
       <c r="C4">
-        <v>0.161969185187786</v>
+        <v>0.3812453401391735</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1757613576528221</v>
+        <v>0.05911936880294277</v>
       </c>
       <c r="F4">
-        <v>2.079867179875876</v>
+        <v>1.104228605085495</v>
       </c>
       <c r="G4">
-        <v>1.0384837223868</v>
+        <v>0.7171678876619012</v>
       </c>
       <c r="H4">
-        <v>1.041325294943988</v>
+        <v>0.5029866307400681</v>
       </c>
       <c r="I4">
-        <v>1.006254125864352</v>
+        <v>0.4783982575643506</v>
       </c>
       <c r="J4">
-        <v>0.05144132818572267</v>
+        <v>0.03988797731833671</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4369183537759227</v>
+        <v>0.2277289345001492</v>
       </c>
       <c r="M4">
-        <v>0.3262968858204474</v>
+        <v>0.3678996037604065</v>
       </c>
       <c r="N4">
-        <v>1.619955938006633</v>
+        <v>0.8595380566742428</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.074782480408885</v>
+        <v>1.829961929695116</v>
       </c>
       <c r="C5">
-        <v>0.1574961518726923</v>
+        <v>0.3672962994702971</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1758832976927072</v>
+        <v>0.05916074442173036</v>
       </c>
       <c r="F5">
-        <v>2.079904553116435</v>
+        <v>1.088272320577389</v>
       </c>
       <c r="G5">
-        <v>1.037425931326624</v>
+        <v>0.7032608471364199</v>
       </c>
       <c r="H5">
-        <v>1.042334573854234</v>
+        <v>0.4986042231694512</v>
       </c>
       <c r="I5">
-        <v>1.007985617787284</v>
+        <v>0.47659239811302</v>
       </c>
       <c r="J5">
-        <v>0.051366790386421</v>
+        <v>0.0397093206168293</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4360775079904826</v>
+        <v>0.2224165330752257</v>
       </c>
       <c r="M5">
-        <v>0.3227961960998016</v>
+        <v>0.3538933845342669</v>
       </c>
       <c r="N5">
-        <v>1.624926255026706</v>
+        <v>0.8715058281506352</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.071247210539696</v>
+        <v>1.81694661555116</v>
       </c>
       <c r="C6">
-        <v>0.156752150729119</v>
+        <v>0.3649811363486606</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1759038721906889</v>
+        <v>0.05916800383040322</v>
       </c>
       <c r="F6">
-        <v>2.079927387225581</v>
+        <v>1.085652499987702</v>
       </c>
       <c r="G6">
-        <v>1.037261578693546</v>
+        <v>0.7009774178354178</v>
       </c>
       <c r="H6">
-        <v>1.042510412371499</v>
+        <v>0.4978917194986394</v>
       </c>
       <c r="I6">
-        <v>1.008281583714201</v>
+        <v>0.4763087323731696</v>
       </c>
       <c r="J6">
-        <v>0.05135446989436687</v>
+        <v>0.03967975092574072</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.435940224814189</v>
+        <v>0.2215373850462115</v>
       </c>
       <c r="M6">
-        <v>0.3222170136789586</v>
+        <v>0.3515711687216907</v>
       </c>
       <c r="N6">
-        <v>1.625760459141528</v>
+        <v>0.8735107422570589</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.095822988378274</v>
+        <v>1.907369686465017</v>
       </c>
       <c r="C7">
-        <v>0.1619089445533746</v>
+        <v>0.3810571410365355</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1757629803026965</v>
+        <v>0.05911990063048744</v>
       </c>
       <c r="F7">
-        <v>2.079866569184063</v>
+        <v>1.10401140241224</v>
       </c>
       <c r="G7">
-        <v>1.038468699342701</v>
+        <v>0.7169785806000704</v>
       </c>
       <c r="H7">
-        <v>1.041338353428785</v>
+        <v>0.5029265001614505</v>
       </c>
       <c r="I7">
-        <v>1.006276910612669</v>
+        <v>0.4783728078951697</v>
       </c>
       <c r="J7">
-        <v>0.05144031916830549</v>
+        <v>0.03988556146097011</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4369068571504755</v>
+        <v>0.2276570883576952</v>
       </c>
       <c r="M7">
-        <v>0.3262495333482818</v>
+        <v>0.3677104711117423</v>
       </c>
       <c r="N7">
-        <v>1.620022373672711</v>
+        <v>0.8596982681880974</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.205183527392762</v>
+        <v>2.308730740843259</v>
       </c>
       <c r="C8">
-        <v>0.1844823573582346</v>
+        <v>0.452220021291879</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1751886106824898</v>
+        <v>0.05896529816231766</v>
       </c>
       <c r="F8">
-        <v>2.082015117169689</v>
+        <v>1.189555248697062</v>
       </c>
       <c r="G8">
-        <v>1.045439745168736</v>
+        <v>0.7915717050945403</v>
       </c>
       <c r="H8">
-        <v>1.037365732739616</v>
+        <v>0.5274574890354273</v>
       </c>
       <c r="I8">
-        <v>0.9986603457161678</v>
+        <v>0.4899406550601242</v>
       </c>
       <c r="J8">
-        <v>0.05182725501745011</v>
+        <v>0.04080759706052461</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4415113233286689</v>
+        <v>0.2551161715070265</v>
       </c>
       <c r="M8">
-        <v>0.3443486410047996</v>
+        <v>0.439493198192956</v>
       </c>
       <c r="N8">
-        <v>1.595993408460522</v>
+        <v>0.8013732153907736</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.422874175558434</v>
+        <v>3.107387136870045</v>
       </c>
       <c r="C9">
-        <v>0.2280989175822299</v>
+        <v>0.5932944425085225</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1742315750398085</v>
+        <v>0.05888155966857678</v>
       </c>
       <c r="F9">
-        <v>2.094917559057336</v>
+        <v>1.375789130137491</v>
       </c>
       <c r="G9">
-        <v>1.065049439773745</v>
+        <v>0.9545611695872083</v>
       </c>
       <c r="H9">
-        <v>1.033891771552078</v>
+        <v>0.584976801220364</v>
       </c>
       <c r="I9">
-        <v>0.988153347736251</v>
+        <v>0.522559678806445</v>
       </c>
       <c r="J9">
-        <v>0.05261422037499131</v>
+        <v>0.0426645186126855</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4517501880494592</v>
+        <v>0.3108281730304157</v>
       </c>
       <c r="M9">
-        <v>0.380924119746112</v>
+        <v>0.5828525015896133</v>
       </c>
       <c r="N9">
-        <v>1.553517640347646</v>
+        <v>0.6970284766149248</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.584764556443474</v>
+        <v>3.704561542236149</v>
       </c>
       <c r="C10">
-        <v>0.2597569276090042</v>
+        <v>0.6986353024066148</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1736308431901961</v>
+        <v>0.05896712521398584</v>
       </c>
       <c r="F10">
-        <v>2.109702176566245</v>
+        <v>1.526149981222673</v>
       </c>
       <c r="G10">
-        <v>1.083109607757621</v>
+        <v>1.086974873260033</v>
       </c>
       <c r="H10">
-        <v>1.033977809567943</v>
+        <v>0.6341114616437551</v>
       </c>
       <c r="I10">
-        <v>0.9831440833646781</v>
+        <v>0.5537072600672772</v>
       </c>
       <c r="J10">
-        <v>0.05320884087428723</v>
+        <v>0.04405824605593267</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4600038686192107</v>
+        <v>0.3531394329454258</v>
       </c>
       <c r="M10">
-        <v>0.4084505147297648</v>
+        <v>0.6903573703372601</v>
       </c>
       <c r="N10">
-        <v>1.525142555705948</v>
+        <v>0.6270811687565079</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.658833887082039</v>
+        <v>3.979306550602701</v>
       </c>
       <c r="C11">
-        <v>0.274077049468616</v>
+        <v>0.7471141503774561</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1733796215289871</v>
+        <v>0.0590414308205629</v>
       </c>
       <c r="F11">
-        <v>2.117582122979385</v>
+        <v>1.598040998018632</v>
       </c>
       <c r="G11">
-        <v>1.092125977992964</v>
+        <v>1.150567220825081</v>
       </c>
       <c r="H11">
-        <v>1.034591485133774</v>
+        <v>0.6582340942234453</v>
       </c>
       <c r="I11">
-        <v>0.9814560168879325</v>
+        <v>0.5697103736739919</v>
       </c>
       <c r="J11">
-        <v>0.05348276601887747</v>
+        <v>0.04469871307167494</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4639162292526606</v>
+        <v>0.3727462295477011</v>
       </c>
       <c r="M11">
-        <v>0.4211140276191117</v>
+        <v>0.739882967345153</v>
       </c>
       <c r="N11">
-        <v>1.512848995738988</v>
+        <v>0.5968640751940626</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.686942441894757</v>
+        <v>4.083862995700656</v>
       </c>
       <c r="C12">
-        <v>0.279488126603411</v>
+        <v>0.7655694861252016</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1732876484869186</v>
+        <v>0.0590749870427878</v>
       </c>
       <c r="F12">
-        <v>2.120732135352142</v>
+        <v>1.625816085987026</v>
       </c>
       <c r="G12">
-        <v>1.095655897321421</v>
+        <v>1.17518589783441</v>
       </c>
       <c r="H12">
-        <v>1.034906597888551</v>
+        <v>0.6676487559824125</v>
       </c>
       <c r="I12">
-        <v>0.9809019035974487</v>
+        <v>0.5760590872567519</v>
       </c>
       <c r="J12">
-        <v>0.05358697352059849</v>
+        <v>0.04494217518707089</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.465420291977523</v>
+        <v>0.3802277082336474</v>
       </c>
       <c r="M12">
-        <v>0.4259295788712336</v>
+        <v>0.7587394496072335</v>
       </c>
       <c r="N12">
-        <v>1.50828214903548</v>
+        <v>0.5856655628675789</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.6808861034595</v>
+        <v>4.061320698941472</v>
       </c>
       <c r="C13">
-        <v>0.2783232714170367</v>
+        <v>0.7615901749280738</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1733073162164844</v>
+        <v>0.05906751341428951</v>
       </c>
       <c r="F13">
-        <v>2.120046337940806</v>
+        <v>1.619808861572636</v>
       </c>
       <c r="G13">
-        <v>1.094890516427682</v>
+        <v>1.169858985938305</v>
       </c>
       <c r="H13">
-        <v>1.034835051645899</v>
+        <v>0.6656082626919329</v>
       </c>
       <c r="I13">
-        <v>0.9810174531116687</v>
+        <v>0.5746785179678042</v>
       </c>
       <c r="J13">
-        <v>0.05356450955127201</v>
+        <v>0.0448896997353998</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4650953651097609</v>
+        <v>0.3786138245924064</v>
       </c>
       <c r="M13">
-        <v>0.4248915707484358</v>
+        <v>0.7546736051331351</v>
       </c>
       <c r="N13">
-        <v>1.509261765258483</v>
+        <v>0.5880662792948677</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.661145195584083</v>
+        <v>3.98789768257609</v>
       </c>
       <c r="C14">
-        <v>0.2745224551165961</v>
+        <v>0.7486304249912052</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1733719916068504</v>
+        <v>0.05904408087714952</v>
       </c>
       <c r="F14">
-        <v>2.117837948238034</v>
+        <v>1.600314719440334</v>
       </c>
       <c r="G14">
-        <v>1.092414066748518</v>
+        <v>1.152581506888083</v>
       </c>
       <c r="H14">
-        <v>1.034615751042026</v>
+        <v>0.6590028807461579</v>
       </c>
       <c r="I14">
-        <v>0.9814087226542654</v>
+        <v>0.5702267497456788</v>
       </c>
       <c r="J14">
-        <v>0.05349132973928405</v>
+        <v>0.04471872414488587</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4640395185480628</v>
+        <v>0.3733605656787233</v>
       </c>
       <c r="M14">
-        <v>0.4215098032108884</v>
+        <v>0.7414321750197388</v>
       </c>
       <c r="N14">
-        <v>1.512471505062113</v>
+        <v>0.59593779356657</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.649061119141322</v>
+        <v>3.942993489014953</v>
       </c>
       <c r="C15">
-        <v>0.2721928305302299</v>
+        <v>0.7407054307334136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1734120182050063</v>
+        <v>0.05903044391703371</v>
       </c>
       <c r="F15">
-        <v>2.116506871704885</v>
+        <v>1.588447359219273</v>
       </c>
       <c r="G15">
-        <v>1.090912240486205</v>
+        <v>1.142070282632289</v>
       </c>
       <c r="H15">
-        <v>1.0344921998811</v>
+        <v>0.6549941393300287</v>
       </c>
       <c r="I15">
-        <v>0.9816594772393827</v>
+        <v>0.5675382862353189</v>
       </c>
       <c r="J15">
-        <v>0.0534465667933901</v>
+        <v>0.04461411812109972</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4633957127386878</v>
+        <v>0.3701503516040106</v>
       </c>
       <c r="M15">
-        <v>0.4194409913250396</v>
+        <v>0.7333351302214268</v>
       </c>
       <c r="N15">
-        <v>1.514449086410991</v>
+        <v>0.6007915297360249</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.579932414065752</v>
+        <v>3.686674487273592</v>
       </c>
       <c r="C16">
-        <v>0.2588194424176322</v>
+        <v>0.6954797634166994</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.173647703856278</v>
+        <v>0.05896300844889968</v>
       </c>
       <c r="F16">
-        <v>2.109210436551223</v>
+        <v>1.521526122243273</v>
       </c>
       <c r="G16">
-        <v>1.082536519613399</v>
+        <v>1.082891096040612</v>
       </c>
       <c r="H16">
-        <v>1.033949274892791</v>
+        <v>0.6325727381326374</v>
       </c>
       <c r="I16">
-        <v>0.9832663039270031</v>
+        <v>0.5527004074923241</v>
       </c>
       <c r="J16">
-        <v>0.05319100693177958</v>
+        <v>0.04401652002504974</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4597513481191129</v>
+        <v>0.3518657420677584</v>
       </c>
       <c r="M16">
-        <v>0.4076257560573211</v>
+        <v>0.6871343314350256</v>
       </c>
       <c r="N16">
-        <v>1.525958341218921</v>
+        <v>0.6290893089425253</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.537632262738157</v>
+        <v>3.530271415124673</v>
       </c>
       <c r="C17">
-        <v>0.2505945188129886</v>
+        <v>0.6678900453243273</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1737979292500018</v>
+        <v>0.05893092340106421</v>
       </c>
       <c r="F17">
-        <v>2.105030004245805</v>
+        <v>1.481400208348518</v>
       </c>
       <c r="G17">
-        <v>1.077603704247849</v>
+        <v>1.047483902401041</v>
       </c>
       <c r="H17">
-        <v>1.033763437984447</v>
+        <v>0.6192888256165219</v>
       </c>
       <c r="I17">
-        <v>0.9844034552583736</v>
+        <v>0.5440846567162509</v>
       </c>
       <c r="J17">
-        <v>0.05303509675379559</v>
+        <v>0.04365156623970634</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4575559422010542</v>
+        <v>0.3407442649485404</v>
       </c>
       <c r="M17">
-        <v>0.4004136133824687</v>
+        <v>0.658959545357213</v>
       </c>
       <c r="N17">
-        <v>1.533176335198739</v>
+        <v>0.6468688134200189</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.513342354712961</v>
+        <v>3.440598392885306</v>
       </c>
       <c r="C18">
-        <v>0.245856108553852</v>
+        <v>0.6520726448719643</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1738864114990966</v>
+        <v>0.05891577709875495</v>
       </c>
       <c r="F18">
-        <v>2.102734179702026</v>
+        <v>1.458646245422983</v>
       </c>
       <c r="G18">
-        <v>1.074841817395736</v>
+        <v>1.027431004001187</v>
       </c>
       <c r="H18">
-        <v>1.033710620938535</v>
+        <v>0.6118133282113263</v>
       </c>
       <c r="I18">
-        <v>0.9851131005498601</v>
+        <v>0.5393001053795103</v>
       </c>
       <c r="J18">
-        <v>0.05294574502138261</v>
+        <v>0.04344226137526874</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4563080566625786</v>
+        <v>0.3343809615754196</v>
       </c>
       <c r="M18">
-        <v>0.396278721934749</v>
+        <v>0.6428117774098894</v>
       </c>
       <c r="N18">
-        <v>1.537385758755359</v>
+        <v>0.6572450474375273</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.505125111696429</v>
+        <v>3.410283644833385</v>
       </c>
       <c r="C19">
-        <v>0.2442504487372332</v>
+        <v>0.6467254915630747</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1739167270966426</v>
+        <v>0.05891120759395374</v>
       </c>
       <c r="F19">
-        <v>2.101975512022349</v>
+        <v>1.450996590720592</v>
       </c>
       <c r="G19">
-        <v>1.073919614916747</v>
+        <v>1.020693493032013</v>
       </c>
       <c r="H19">
-        <v>1.033702021509711</v>
+        <v>0.6093098680203184</v>
       </c>
       <c r="I19">
-        <v>0.9853629156435062</v>
+        <v>0.5377087819827224</v>
       </c>
       <c r="J19">
-        <v>0.05291554811545751</v>
+        <v>0.04337149857945732</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4558880996027455</v>
+        <v>0.3322320554841269</v>
       </c>
       <c r="M19">
-        <v>0.3948810167215342</v>
+        <v>0.6373539425743857</v>
       </c>
       <c r="N19">
-        <v>1.538820925470091</v>
+        <v>0.6607836160131235</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.542131050997455</v>
+        <v>3.546890696109699</v>
       </c>
       <c r="C20">
-        <v>0.2514708675856525</v>
+        <v>0.6708215717836197</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1737817226720892</v>
+        <v>0.05893399426318702</v>
       </c>
       <c r="F20">
-        <v>2.105463773192966</v>
+        <v>1.485637657087906</v>
       </c>
       <c r="G20">
-        <v>1.078121010219803</v>
+        <v>1.051220345526914</v>
       </c>
       <c r="H20">
-        <v>1.033777623657826</v>
+        <v>0.6206856619648278</v>
       </c>
       <c r="I20">
-        <v>0.9842766492994883</v>
+        <v>0.5449839461648267</v>
       </c>
       <c r="J20">
-        <v>0.05305166026877117</v>
+        <v>0.04369035337717975</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4577881106286554</v>
+        <v>0.3419246644781282</v>
       </c>
       <c r="M20">
-        <v>0.401179978937428</v>
+        <v>0.6619527456965457</v>
       </c>
       <c r="N20">
-        <v>1.532401982055212</v>
+        <v>0.6449605421232025</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.666941955000539</v>
+        <v>4.009449174748056</v>
       </c>
       <c r="C21">
-        <v>0.275639162612805</v>
+        <v>0.7524342283185774</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1733529092353514</v>
+        <v>0.05905081368694542</v>
       </c>
       <c r="F21">
-        <v>2.118482098904664</v>
+        <v>1.60602523807087</v>
       </c>
       <c r="G21">
-        <v>1.093138318485671</v>
+        <v>1.157641267629856</v>
       </c>
       <c r="H21">
-        <v>1.034677918873854</v>
+        <v>0.6609352312174792</v>
       </c>
       <c r="I21">
-        <v>0.9812914856866897</v>
+        <v>0.5715262974003608</v>
       </c>
       <c r="J21">
-        <v>0.05351281157149401</v>
+        <v>0.04476891849375164</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4643490357782696</v>
+        <v>0.374901990127114</v>
       </c>
       <c r="M21">
-        <v>0.4225025650191085</v>
+        <v>0.7453186214944694</v>
       </c>
       <c r="N21">
-        <v>1.51152632508823</v>
+        <v>0.5936190012500902</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.748863008160242</v>
+        <v>4.314806793071114</v>
       </c>
       <c r="C22">
-        <v>0.2913667013466466</v>
+        <v>0.8063500062663707</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1730910632306415</v>
+        <v>0.05915892874287998</v>
       </c>
       <c r="F22">
-        <v>2.127958206259805</v>
+        <v>1.687946233951635</v>
       </c>
       <c r="G22">
-        <v>1.103627115000563</v>
+        <v>1.230356388021562</v>
       </c>
       <c r="H22">
-        <v>1.035748562847061</v>
+        <v>0.6888857923339913</v>
       </c>
       <c r="I22">
-        <v>0.9798367438579305</v>
+        <v>0.5905691211291924</v>
       </c>
       <c r="J22">
-        <v>0.05381697978043931</v>
+        <v>0.04547925664463293</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4687682744757637</v>
+        <v>0.3967884188343902</v>
       </c>
       <c r="M22">
-        <v>0.4365554820781767</v>
+        <v>0.8004056473399999</v>
       </c>
       <c r="N22">
-        <v>1.498398528223852</v>
+        <v>0.5614940024936921</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.705108495183936</v>
+        <v>4.15152699999544</v>
       </c>
       <c r="C23">
-        <v>0.2829788106625983</v>
+        <v>0.7775152281991211</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1732291350067401</v>
+        <v>0.05909819855989351</v>
       </c>
       <c r="F23">
-        <v>2.12281205033743</v>
+        <v>1.643909455640895</v>
       </c>
       <c r="G23">
-        <v>1.097967207944833</v>
+        <v>1.191238086613424</v>
       </c>
       <c r="H23">
-        <v>1.035132977611482</v>
+        <v>0.6738085653308303</v>
       </c>
       <c r="I23">
-        <v>0.9805677006884181</v>
+        <v>0.5802416044767824</v>
       </c>
       <c r="J23">
-        <v>0.05365439015913154</v>
+        <v>0.04509963596692046</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4663976773137648</v>
+        <v>0.3850748565444206</v>
       </c>
       <c r="M23">
-        <v>0.4290445053584548</v>
+        <v>0.7709449606458776</v>
       </c>
       <c r="N23">
-        <v>1.505357861873019</v>
+        <v>0.5785040901322738</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.540097058381662</v>
+        <v>3.539376360873689</v>
       </c>
       <c r="C24">
-        <v>0.251074700815991</v>
+        <v>0.6694960919709558</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.173789043075872</v>
+        <v>0.05893259567264231</v>
       </c>
       <c r="F24">
-        <v>2.105267331202754</v>
+        <v>1.4837209291764</v>
       </c>
       <c r="G24">
-        <v>1.077886905547317</v>
+        <v>1.049530159380652</v>
       </c>
       <c r="H24">
-        <v>1.033771042036435</v>
+        <v>0.6200536507843282</v>
       </c>
       <c r="I24">
-        <v>0.984333804212902</v>
+        <v>0.5445768536210451</v>
       </c>
       <c r="J24">
-        <v>0.05304417101990921</v>
+        <v>0.04367281611794382</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4576831027843156</v>
+        <v>0.3413909109798254</v>
       </c>
       <c r="M24">
-        <v>0.4008334693403341</v>
+        <v>0.6605993641365373</v>
       </c>
       <c r="N24">
-        <v>1.532751881139859</v>
+        <v>0.6458227911740799</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.363638752897828</v>
+        <v>2.88976038816628</v>
       </c>
       <c r="C25">
-        <v>0.2163681147729051</v>
+        <v>0.5548919919472155</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1744724377555089</v>
+        <v>0.05887944036382819</v>
       </c>
       <c r="F25">
-        <v>2.090496047438236</v>
+        <v>1.323205368651088</v>
       </c>
       <c r="G25">
-        <v>1.059105326749631</v>
+        <v>0.9084350999014958</v>
       </c>
       <c r="H25">
-        <v>1.034368758893635</v>
+        <v>0.568296614553887</v>
       </c>
       <c r="I25">
-        <v>0.990520563068948</v>
+        <v>0.5125608216405482</v>
       </c>
       <c r="J25">
-        <v>0.0523983854660024</v>
+        <v>0.04215699259894379</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4488514563741433</v>
+        <v>0.2955329562687865</v>
       </c>
       <c r="M25">
-        <v>0.3709141400980229</v>
+        <v>0.5437334562426059</v>
       </c>
       <c r="N25">
-        <v>1.564511187666621</v>
+        <v>0.7241235975627216</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.418149057775224</v>
+        <v>1.007595493960338</v>
       </c>
       <c r="C2">
-        <v>0.4715786536406767</v>
+        <v>0.09414364873450154</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05893781777088813</v>
+        <v>0.06654452014475432</v>
       </c>
       <c r="F2">
-        <v>1.213905798655219</v>
+        <v>1.284809150538536</v>
       </c>
       <c r="G2">
-        <v>0.8128284894907694</v>
+        <v>0.7401665438211467</v>
       </c>
       <c r="H2">
-        <v>0.5347021783801438</v>
+        <v>0.01313907891134289</v>
       </c>
       <c r="I2">
-        <v>0.4937084672470888</v>
+        <v>0.01348168069911226</v>
       </c>
       <c r="J2">
-        <v>0.04106074558701422</v>
+        <v>0.562043031212653</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6151546644562984</v>
       </c>
       <c r="L2">
-        <v>0.2626740048222302</v>
+        <v>0.07770919451689906</v>
       </c>
       <c r="M2">
-        <v>0.4590976606620742</v>
+        <v>0.8739817356747324</v>
       </c>
       <c r="N2">
-        <v>0.7862282256021196</v>
+        <v>0.2522189451997008</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2594366827862906</v>
+      </c>
+      <c r="P2">
+        <v>1.210166560789258</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.101604057783106</v>
+        <v>0.8801762573514793</v>
       </c>
       <c r="C3">
-        <v>0.41553020881409</v>
+        <v>0.0845022968369733</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05903382940109303</v>
+        <v>0.06133001597488708</v>
       </c>
       <c r="F3">
-        <v>1.144627234627563</v>
+        <v>1.217107075984273</v>
       </c>
       <c r="G3">
-        <v>0.7523830171348891</v>
+        <v>0.7155786995530917</v>
       </c>
       <c r="H3">
-        <v>0.5143758545665662</v>
+        <v>0.016423436635086</v>
       </c>
       <c r="I3">
-        <v>0.4835055898234373</v>
+        <v>0.01665935134329022</v>
       </c>
       <c r="J3">
-        <v>0.04033027176732773</v>
+        <v>0.5551265797254956</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6056118294889288</v>
       </c>
       <c r="L3">
-        <v>0.2408897488976578</v>
+        <v>0.07269250366623581</v>
       </c>
       <c r="M3">
-        <v>0.4024215724458244</v>
+        <v>0.7600946296954305</v>
       </c>
       <c r="N3">
-        <v>0.8308976789723186</v>
+        <v>0.2253209566125491</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2281338026945896</v>
+      </c>
+      <c r="P3">
+        <v>1.243846966718017</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908428889002181</v>
+        <v>0.801709359997659</v>
       </c>
       <c r="C4">
-        <v>0.3812453401391735</v>
+        <v>0.07865385059529473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05911936880294277</v>
+        <v>0.0581220387746253</v>
       </c>
       <c r="F4">
-        <v>1.104228605085495</v>
+        <v>1.176091768567119</v>
       </c>
       <c r="G4">
-        <v>0.7171678876619012</v>
+        <v>0.700903818677304</v>
       </c>
       <c r="H4">
-        <v>0.5029866307400681</v>
+        <v>0.01870627534724473</v>
       </c>
       <c r="I4">
-        <v>0.4783982575643506</v>
+        <v>0.01889361756379904</v>
       </c>
       <c r="J4">
-        <v>0.03988797731833671</v>
+        <v>0.5511667568487155</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5999542747080362</v>
       </c>
       <c r="L4">
-        <v>0.2277289345001492</v>
+        <v>0.0695871152130465</v>
       </c>
       <c r="M4">
-        <v>0.3678996037604065</v>
+        <v>0.6901841358131833</v>
       </c>
       <c r="N4">
-        <v>0.8595380566742428</v>
+        <v>0.2088991596051315</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2089179375878558</v>
+      </c>
+      <c r="P4">
+        <v>1.265053108015731</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829961929695116</v>
+        <v>0.7689457419295991</v>
       </c>
       <c r="C5">
-        <v>0.3672962994702971</v>
+        <v>0.0764042061257868</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05916074442173036</v>
+        <v>0.05681486606082586</v>
       </c>
       <c r="F5">
-        <v>1.088272320577389</v>
+        <v>1.158787244432105</v>
       </c>
       <c r="G5">
-        <v>0.7032608471364199</v>
+        <v>0.6943285475498442</v>
       </c>
       <c r="H5">
-        <v>0.4986042231694512</v>
+        <v>0.01970744803704449</v>
       </c>
       <c r="I5">
-        <v>0.47659239811302</v>
+        <v>0.0199657687209811</v>
       </c>
       <c r="J5">
-        <v>0.0397093206168293</v>
+        <v>0.549265681178511</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5971629779655068</v>
       </c>
       <c r="L5">
-        <v>0.2224165330752257</v>
+        <v>0.0683638303868257</v>
       </c>
       <c r="M5">
-        <v>0.3538933845342669</v>
+        <v>0.6614855654691354</v>
       </c>
       <c r="N5">
-        <v>0.8715058281506352</v>
+        <v>0.2024281443385405</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2010517919538728</v>
+      </c>
+      <c r="P5">
+        <v>1.273448656985053</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.81694661555116</v>
+        <v>0.7626131366105255</v>
       </c>
       <c r="C6">
-        <v>0.3649811363486606</v>
+        <v>0.0761772068097315</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05916800383040322</v>
+        <v>0.0566003077218209</v>
       </c>
       <c r="F6">
-        <v>1.085652499987702</v>
+        <v>1.15503793287413</v>
       </c>
       <c r="G6">
-        <v>0.7009774178354178</v>
+        <v>0.6923923284667381</v>
       </c>
       <c r="H6">
-        <v>0.4978917194986394</v>
+        <v>0.01988505189682555</v>
       </c>
       <c r="I6">
-        <v>0.4763087323731696</v>
+        <v>0.02026853989289634</v>
       </c>
       <c r="J6">
-        <v>0.03967975092574072</v>
+        <v>0.5485175692303272</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5960492833408679</v>
       </c>
       <c r="L6">
-        <v>0.2215373850462115</v>
+        <v>0.0682205335821493</v>
       </c>
       <c r="M6">
-        <v>0.3515711687216907</v>
+        <v>0.6564666178119154</v>
       </c>
       <c r="N6">
-        <v>0.8735107422570589</v>
+        <v>0.2015994445681031</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1997024797714282</v>
+      </c>
+      <c r="P6">
+        <v>1.274393343346208</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907369686465017</v>
+        <v>0.7988328834509559</v>
       </c>
       <c r="C7">
-        <v>0.3810571410365355</v>
+        <v>0.07902236246529526</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05911990063048744</v>
+        <v>0.05811167092470981</v>
       </c>
       <c r="F7">
-        <v>1.10401140241224</v>
+        <v>1.173444882003395</v>
       </c>
       <c r="G7">
-        <v>0.7169785806000704</v>
+        <v>0.6984930966303722</v>
       </c>
       <c r="H7">
-        <v>0.5029265001614505</v>
+        <v>0.01873901781984449</v>
       </c>
       <c r="I7">
-        <v>0.4783728078951697</v>
+        <v>0.01921967409889547</v>
       </c>
       <c r="J7">
-        <v>0.03988556146097011</v>
+        <v>0.5499502030358627</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5981341935727151</v>
       </c>
       <c r="L7">
-        <v>0.2276570883576952</v>
+        <v>0.06973617115682629</v>
       </c>
       <c r="M7">
-        <v>0.3677104711117423</v>
+        <v>0.6891025145953904</v>
       </c>
       <c r="N7">
-        <v>0.8596982681880974</v>
+        <v>0.2094808746114865</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2086936826511376</v>
+      </c>
+      <c r="P7">
+        <v>1.263933130966393</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.308730740843259</v>
+        <v>0.9604510198794003</v>
       </c>
       <c r="C8">
-        <v>0.452220021291879</v>
+        <v>0.09133621355211829</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05896529816231766</v>
+        <v>0.06475741474289975</v>
       </c>
       <c r="F8">
-        <v>1.189555248697062</v>
+        <v>1.258156239777648</v>
       </c>
       <c r="G8">
-        <v>0.7915717050945403</v>
+        <v>0.7285321625469123</v>
       </c>
       <c r="H8">
-        <v>0.5274574890354273</v>
+        <v>0.0142362443166017</v>
       </c>
       <c r="I8">
-        <v>0.4899406550601242</v>
+        <v>0.01489026348932843</v>
       </c>
       <c r="J8">
-        <v>0.04080759706052461</v>
+        <v>0.558030686169289</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6094727867097234</v>
       </c>
       <c r="L8">
-        <v>0.2551161715070265</v>
+        <v>0.07620816758403848</v>
       </c>
       <c r="M8">
-        <v>0.439493198192956</v>
+        <v>0.833773674775216</v>
       </c>
       <c r="N8">
-        <v>0.8013732153907736</v>
+        <v>0.2438149880248091</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2484830994346829</v>
+      </c>
+      <c r="P8">
+        <v>1.220110926125606</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.107387136870045</v>
+        <v>1.28016138333507</v>
       </c>
       <c r="C9">
-        <v>0.5932944425085225</v>
+        <v>0.1154675473263467</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05888155966857678</v>
+        <v>0.07774918271685038</v>
       </c>
       <c r="F9">
-        <v>1.375789130137491</v>
+        <v>1.433340323972416</v>
       </c>
       <c r="G9">
-        <v>0.9545611695872083</v>
+        <v>0.7952059689381343</v>
       </c>
       <c r="H9">
-        <v>0.584976801220364</v>
+        <v>0.007595102617277333</v>
       </c>
       <c r="I9">
-        <v>0.522559678806445</v>
+        <v>0.00828372828638102</v>
       </c>
       <c r="J9">
-        <v>0.0426645186126855</v>
+        <v>0.578384359613068</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6365810442685742</v>
       </c>
       <c r="L9">
-        <v>0.3108281730304157</v>
+        <v>0.08842018704211441</v>
       </c>
       <c r="M9">
-        <v>0.5828525015896133</v>
+        <v>1.1192104440631</v>
       </c>
       <c r="N9">
-        <v>0.6970284766149248</v>
+        <v>0.3107822551046553</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3268292529511427</v>
+      </c>
+      <c r="P9">
+        <v>1.140563564543559</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.704561542236149</v>
+        <v>1.505623143015413</v>
       </c>
       <c r="C10">
-        <v>0.6986353024066148</v>
+        <v>0.1349059054818014</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05896712521398584</v>
+        <v>0.0846864450013598</v>
       </c>
       <c r="F10">
-        <v>1.526149981222673</v>
+        <v>1.544708904605002</v>
       </c>
       <c r="G10">
-        <v>1.086974873260033</v>
+        <v>0.8358724004537663</v>
       </c>
       <c r="H10">
-        <v>0.6341114616437551</v>
+        <v>0.004559944747409617</v>
       </c>
       <c r="I10">
-        <v>0.5537072600672772</v>
+        <v>0.00523026690111994</v>
       </c>
       <c r="J10">
-        <v>0.04405824605593267</v>
+        <v>0.5894619418601224</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6499982185883866</v>
       </c>
       <c r="L10">
-        <v>0.3531394329454258</v>
+        <v>0.09900301035285608</v>
       </c>
       <c r="M10">
-        <v>0.6903573703372601</v>
+        <v>1.326161350781973</v>
       </c>
       <c r="N10">
-        <v>0.6270811687565079</v>
+        <v>0.3502257815933234</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3788597096847113</v>
+      </c>
+      <c r="P10">
+        <v>1.080252296153063</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.979306550602701</v>
+        <v>1.538279311373884</v>
       </c>
       <c r="C11">
-        <v>0.7471141503774561</v>
+        <v>0.1526752715133881</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0590414308205629</v>
+        <v>0.06728490596523784</v>
       </c>
       <c r="F11">
-        <v>1.598040998018632</v>
+        <v>1.425532612692365</v>
       </c>
       <c r="G11">
-        <v>1.150567220825081</v>
+        <v>0.7680957638684873</v>
       </c>
       <c r="H11">
-        <v>0.6582340942234453</v>
+        <v>0.02303646760026368</v>
       </c>
       <c r="I11">
-        <v>0.5697103736739919</v>
+        <v>0.00509197207130363</v>
       </c>
       <c r="J11">
-        <v>0.04469871307167494</v>
+        <v>0.5510439129532045</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5961798172406247</v>
       </c>
       <c r="L11">
-        <v>0.3727462295477011</v>
+        <v>0.120659528501065</v>
       </c>
       <c r="M11">
-        <v>0.739882967345153</v>
+        <v>1.391124423103832</v>
       </c>
       <c r="N11">
-        <v>0.5968640751940626</v>
+        <v>0.2812901810939223</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3540748357191603</v>
+      </c>
+      <c r="P11">
+        <v>1.021725378857312</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.083862995700656</v>
+        <v>1.521207934102506</v>
       </c>
       <c r="C12">
-        <v>0.7655694861252016</v>
+        <v>0.163471572024207</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0590749870427878</v>
+        <v>0.05413465403495188</v>
       </c>
       <c r="F12">
-        <v>1.625816085987026</v>
+        <v>1.308390594593718</v>
       </c>
       <c r="G12">
-        <v>1.17518589783441</v>
+        <v>0.7074849324598773</v>
       </c>
       <c r="H12">
-        <v>0.6676487559824125</v>
+        <v>0.06192876680965753</v>
       </c>
       <c r="I12">
-        <v>0.5760590872567519</v>
+        <v>0.005002436274261335</v>
       </c>
       <c r="J12">
-        <v>0.04494217518707089</v>
+        <v>0.5187308069958192</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5523859133604816</v>
       </c>
       <c r="L12">
-        <v>0.3802277082336474</v>
+        <v>0.1399166866884158</v>
       </c>
       <c r="M12">
-        <v>0.7587394496072335</v>
+        <v>1.402677585274745</v>
       </c>
       <c r="N12">
-        <v>0.5856655628675789</v>
+        <v>0.2210247840819619</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3231739890334495</v>
+      </c>
+      <c r="P12">
+        <v>0.9932583778403115</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.061320698941472</v>
+        <v>1.461091053778858</v>
       </c>
       <c r="C13">
-        <v>0.7615901749280738</v>
+        <v>0.1700097244342089</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05906751341428951</v>
+        <v>0.04352543866220948</v>
       </c>
       <c r="F13">
-        <v>1.619808861572636</v>
+        <v>1.182516946214392</v>
       </c>
       <c r="G13">
-        <v>1.169858985938305</v>
+        <v>0.6451841089876922</v>
       </c>
       <c r="H13">
-        <v>0.6656082626919329</v>
+        <v>0.1182033658804897</v>
       </c>
       <c r="I13">
-        <v>0.5746785179678042</v>
+        <v>0.005344949186294023</v>
       </c>
       <c r="J13">
-        <v>0.0448896997353998</v>
+        <v>0.4873175054076881</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5109544203994183</v>
       </c>
       <c r="L13">
-        <v>0.3786138245924064</v>
+        <v>0.1584636703424849</v>
       </c>
       <c r="M13">
-        <v>0.7546736051331351</v>
+        <v>1.372484084102922</v>
       </c>
       <c r="N13">
-        <v>0.5880662792948677</v>
+        <v>0.1653058277549704</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2858139400662623</v>
+      </c>
+      <c r="P13">
+        <v>0.9836858138198989</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.98789768257609</v>
+        <v>1.399077655854057</v>
       </c>
       <c r="C14">
-        <v>0.7486304249912052</v>
+        <v>0.1728354179826113</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05904408087714952</v>
+        <v>0.03770000264371021</v>
       </c>
       <c r="F14">
-        <v>1.600314719440334</v>
+        <v>1.091093143427685</v>
       </c>
       <c r="G14">
-        <v>1.152581506888083</v>
+        <v>0.6008103852617808</v>
       </c>
       <c r="H14">
-        <v>0.6590028807461579</v>
+        <v>0.1680578827940309</v>
       </c>
       <c r="I14">
-        <v>0.5702267497456788</v>
+        <v>0.005895421880581786</v>
       </c>
       <c r="J14">
-        <v>0.04471872414488587</v>
+        <v>0.4656925075939569</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4830415077584114</v>
       </c>
       <c r="L14">
-        <v>0.3733605656787233</v>
+        <v>0.1715094760043598</v>
       </c>
       <c r="M14">
-        <v>0.7414321750197388</v>
+        <v>1.332336557434672</v>
       </c>
       <c r="N14">
-        <v>0.59593779356657</v>
+        <v>0.1298212633232154</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2570915062719834</v>
+      </c>
+      <c r="P14">
+        <v>0.9860505901750383</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.942993489014953</v>
+        <v>1.374079432680077</v>
       </c>
       <c r="C15">
-        <v>0.7407054307334136</v>
+        <v>0.1727372044233988</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05903044391703371</v>
+        <v>0.03644094631523398</v>
       </c>
       <c r="F15">
-        <v>1.588447359219273</v>
+        <v>1.0659850085692</v>
       </c>
       <c r="G15">
-        <v>1.142070282632289</v>
+        <v>0.588794131499057</v>
       </c>
       <c r="H15">
-        <v>0.6549941393300287</v>
+        <v>0.1808086185366307</v>
       </c>
       <c r="I15">
-        <v>0.5675382862353189</v>
+        <v>0.006271101791500477</v>
       </c>
       <c r="J15">
-        <v>0.04461411812109972</v>
+        <v>0.460199096926857</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4760549729325128</v>
       </c>
       <c r="L15">
-        <v>0.3701503516040106</v>
+        <v>0.1741768516824322</v>
       </c>
       <c r="M15">
-        <v>0.7333351302214268</v>
+        <v>1.313504100601307</v>
       </c>
       <c r="N15">
-        <v>0.6007915297360249</v>
+        <v>0.1214235542344895</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2486458468023223</v>
+      </c>
+      <c r="P15">
+        <v>0.9896601482284115</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.686674487273592</v>
+        <v>1.289183442453293</v>
       </c>
       <c r="C16">
-        <v>0.6954797634166994</v>
+        <v>0.1629239701189249</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05896300844889968</v>
+        <v>0.03588040505895762</v>
       </c>
       <c r="F16">
-        <v>1.521526122243273</v>
+        <v>1.044248997378176</v>
       </c>
       <c r="G16">
-        <v>1.082891096040612</v>
+        <v>0.5830154537956815</v>
       </c>
       <c r="H16">
-        <v>0.6325727381326374</v>
+        <v>0.169353030594209</v>
       </c>
       <c r="I16">
-        <v>0.5527004074923241</v>
+        <v>0.007603917328029119</v>
       </c>
       <c r="J16">
-        <v>0.04401652002504974</v>
+        <v>0.4611500533281401</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4779398565660671</v>
       </c>
       <c r="L16">
-        <v>0.3518657420677584</v>
+        <v>0.1653273992015301</v>
       </c>
       <c r="M16">
-        <v>0.6871343314350256</v>
+        <v>1.23041461581596</v>
       </c>
       <c r="N16">
-        <v>0.6290893089425253</v>
+        <v>0.1176474796099285</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2348444957954179</v>
+      </c>
+      <c r="P16">
+        <v>1.014719277754974</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.530271415124673</v>
+        <v>1.25682903284175</v>
       </c>
       <c r="C17">
-        <v>0.6678900453243273</v>
+        <v>0.153942940882402</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05893092340106421</v>
+        <v>0.03823191158112493</v>
       </c>
       <c r="F17">
-        <v>1.481400208348518</v>
+        <v>1.07545688291961</v>
       </c>
       <c r="G17">
-        <v>1.047483902401041</v>
+        <v>0.6018918651499234</v>
       </c>
       <c r="H17">
-        <v>0.6192888256165219</v>
+        <v>0.1323099416656817</v>
       </c>
       <c r="I17">
-        <v>0.5440846567162509</v>
+        <v>0.00838051741806467</v>
       </c>
       <c r="J17">
-        <v>0.04365156623970634</v>
+        <v>0.4732868222594959</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4939703640656781</v>
       </c>
       <c r="L17">
-        <v>0.3407442649485404</v>
+        <v>0.1514442988129616</v>
       </c>
       <c r="M17">
-        <v>0.658959545357213</v>
+        <v>1.188097829738609</v>
       </c>
       <c r="N17">
-        <v>0.6468688134200189</v>
+        <v>0.1327210108673569</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2392505281162265</v>
+      </c>
+      <c r="P17">
+        <v>1.032563819295003</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.440598392885306</v>
+        <v>1.267697444618022</v>
       </c>
       <c r="C18">
-        <v>0.6520726448719643</v>
+        <v>0.1444262773655822</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05891577709875495</v>
+        <v>0.04487145365752809</v>
       </c>
       <c r="F18">
-        <v>1.458646245422983</v>
+        <v>1.159555692230569</v>
       </c>
       <c r="G18">
-        <v>1.027431004001187</v>
+        <v>0.6467379834046909</v>
       </c>
       <c r="H18">
-        <v>0.6118133282113263</v>
+        <v>0.07961644610670504</v>
       </c>
       <c r="I18">
-        <v>0.5393001053795103</v>
+        <v>0.00833920849440517</v>
       </c>
       <c r="J18">
-        <v>0.04344226137526874</v>
+        <v>0.497674939507263</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5261842880363083</v>
       </c>
       <c r="L18">
-        <v>0.3343809615754196</v>
+        <v>0.1329475892485164</v>
       </c>
       <c r="M18">
-        <v>0.6428117774098894</v>
+        <v>1.176257734617735</v>
       </c>
       <c r="N18">
-        <v>0.6572450474375273</v>
+        <v>0.1692030278045635</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2604896195060462</v>
+      </c>
+      <c r="P18">
+        <v>1.049690478512722</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.410283644833385</v>
+        <v>1.307955849291602</v>
       </c>
       <c r="C19">
-        <v>0.6467254915630747</v>
+        <v>0.1364407780330055</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05891120759395374</v>
+        <v>0.05678627418795656</v>
       </c>
       <c r="F19">
-        <v>1.450996590720592</v>
+        <v>1.280293533107383</v>
       </c>
       <c r="G19">
-        <v>1.020693493032013</v>
+        <v>0.7075221538170098</v>
       </c>
       <c r="H19">
-        <v>0.6093098680203184</v>
+        <v>0.03378917043223595</v>
       </c>
       <c r="I19">
-        <v>0.5377087819827224</v>
+        <v>0.008206605074727591</v>
       </c>
       <c r="J19">
-        <v>0.04337149857945732</v>
+        <v>0.5291318994497232</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5681637883888868</v>
       </c>
       <c r="L19">
-        <v>0.3322320554841269</v>
+        <v>0.1149106472732768</v>
       </c>
       <c r="M19">
-        <v>0.6373539425743857</v>
+        <v>1.188221726215119</v>
       </c>
       <c r="N19">
-        <v>0.6607836160131235</v>
+        <v>0.2271575230366807</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2946440413813392</v>
+      </c>
+      <c r="P19">
+        <v>1.068954584061676</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.546890696109699</v>
+        <v>1.43833583532259</v>
       </c>
       <c r="C20">
-        <v>0.6708215717836197</v>
+        <v>0.1310874550216283</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05893399426318702</v>
+        <v>0.08277555231713407</v>
       </c>
       <c r="F20">
-        <v>1.485637657087906</v>
+        <v>1.506947432864649</v>
       </c>
       <c r="G20">
-        <v>1.051220345526914</v>
+        <v>0.8174512058171217</v>
       </c>
       <c r="H20">
-        <v>0.6206856619648278</v>
+        <v>0.005274015427346956</v>
       </c>
       <c r="I20">
-        <v>0.5449839461648267</v>
+        <v>0.00681823959986172</v>
       </c>
       <c r="J20">
-        <v>0.04369035337717975</v>
+        <v>0.5826023039754915</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6406658558943548</v>
       </c>
       <c r="L20">
-        <v>0.3419246644781282</v>
+        <v>0.09685548711212277</v>
       </c>
       <c r="M20">
-        <v>0.6619527456965457</v>
+        <v>1.269356926008982</v>
       </c>
       <c r="N20">
-        <v>0.6449605421232025</v>
+        <v>0.3414909709387501</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3645725701983764</v>
+      </c>
+      <c r="P20">
+        <v>1.092464578795184</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.009449174748056</v>
+        <v>1.624404501272295</v>
       </c>
       <c r="C21">
-        <v>0.7524342283185774</v>
+        <v>0.1446534310194494</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05905081368694542</v>
+        <v>0.09217486835909838</v>
       </c>
       <c r="F21">
-        <v>1.60602523807087</v>
+        <v>1.625501072957348</v>
       </c>
       <c r="G21">
-        <v>1.157641267629856</v>
+        <v>0.8662951342714251</v>
       </c>
       <c r="H21">
-        <v>0.6609352312174792</v>
+        <v>0.002939508900736132</v>
       </c>
       <c r="I21">
-        <v>0.5715262974003608</v>
+        <v>0.004721005279936463</v>
       </c>
       <c r="J21">
-        <v>0.04476891849375164</v>
+        <v>0.6000887066908689</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6631028188810646</v>
       </c>
       <c r="L21">
-        <v>0.374901990127114</v>
+        <v>0.1023776063970203</v>
       </c>
       <c r="M21">
-        <v>0.7453186214944694</v>
+        <v>1.433966095064903</v>
       </c>
       <c r="N21">
-        <v>0.5936190012500902</v>
+        <v>0.3882160617290111</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.4133689918885253</v>
+      </c>
+      <c r="P21">
+        <v>1.054405754833052</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.314806793071114</v>
+        <v>1.745470472631723</v>
       </c>
       <c r="C22">
-        <v>0.8063500062663707</v>
+        <v>0.1536070319436931</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05915892874287998</v>
+        <v>0.09698287233347003</v>
       </c>
       <c r="F22">
-        <v>1.687946233951635</v>
+        <v>1.696951673392704</v>
       </c>
       <c r="G22">
-        <v>1.230356388021562</v>
+        <v>0.896829354600186</v>
       </c>
       <c r="H22">
-        <v>0.6888857923339913</v>
+        <v>0.001891493145046885</v>
       </c>
       <c r="I22">
-        <v>0.5905691211291924</v>
+        <v>0.003377112684461281</v>
       </c>
       <c r="J22">
-        <v>0.04547925664463293</v>
+        <v>0.6108714356097096</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6768359536605431</v>
       </c>
       <c r="L22">
-        <v>0.3967884188343902</v>
+        <v>0.1065669065499684</v>
       </c>
       <c r="M22">
-        <v>0.8004056473399999</v>
+        <v>1.541195240027605</v>
       </c>
       <c r="N22">
-        <v>0.5614940024936921</v>
+        <v>0.4125423956053567</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.442625598185252</v>
+      </c>
+      <c r="P22">
+        <v>1.029294375847552</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.15152699999544</v>
+        <v>1.6838362939381</v>
       </c>
       <c r="C23">
-        <v>0.7775152281991211</v>
+        <v>0.1483165704908487</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05909819855989351</v>
+        <v>0.09440619157412655</v>
       </c>
       <c r="F23">
-        <v>1.643909455640895</v>
+        <v>1.661572948940702</v>
       </c>
       <c r="G23">
-        <v>1.191238086613424</v>
+        <v>0.8831793587745693</v>
       </c>
       <c r="H23">
-        <v>0.6738085653308303</v>
+        <v>0.002413492865522171</v>
       </c>
       <c r="I23">
-        <v>0.5802416044767824</v>
+        <v>0.003727939752846687</v>
       </c>
       <c r="J23">
-        <v>0.04509963596692046</v>
+        <v>0.6064531610429071</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6715398063657858</v>
       </c>
       <c r="L23">
-        <v>0.3850748565444206</v>
+        <v>0.1041187958730241</v>
       </c>
       <c r="M23">
-        <v>0.7709449606458776</v>
+        <v>1.484797805227799</v>
       </c>
       <c r="N23">
-        <v>0.5785040901322738</v>
+        <v>0.3987313067901823</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.4271518293817493</v>
+      </c>
+      <c r="P23">
+        <v>1.043836019915673</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.539376360873689</v>
+        <v>1.44575920280306</v>
       </c>
       <c r="C24">
-        <v>0.6694960919709558</v>
+        <v>0.1294204389695182</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05893259567264231</v>
+        <v>0.08469078069904867</v>
       </c>
       <c r="F24">
-        <v>1.4837209291764</v>
+        <v>1.524834575951417</v>
       </c>
       <c r="G24">
-        <v>1.049530159380652</v>
+        <v>0.8285535581402996</v>
       </c>
       <c r="H24">
-        <v>0.6200536507843282</v>
+        <v>0.005047105610327063</v>
       </c>
       <c r="I24">
-        <v>0.5445768536210451</v>
+        <v>0.006252179011282166</v>
       </c>
       <c r="J24">
-        <v>0.04367281611794382</v>
+        <v>0.5883282934241407</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6488489145430734</v>
       </c>
       <c r="L24">
-        <v>0.3413909109798254</v>
+        <v>0.09517221337826243</v>
       </c>
       <c r="M24">
-        <v>0.6605993641365373</v>
+        <v>1.270515959927792</v>
       </c>
       <c r="N24">
-        <v>0.6458227911740799</v>
+        <v>0.3480239435566546</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3684552421923328</v>
+      </c>
+      <c r="P24">
+        <v>1.098270050044665</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.88976038816628</v>
+        <v>1.189314540636445</v>
       </c>
       <c r="C25">
-        <v>0.5548919919472155</v>
+        <v>0.1095846203796853</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05887944036382819</v>
+        <v>0.07424788180605546</v>
       </c>
       <c r="F25">
-        <v>1.323205368651088</v>
+        <v>1.381034909867751</v>
       </c>
       <c r="G25">
-        <v>0.9084350999014958</v>
+        <v>0.7725694301626191</v>
       </c>
       <c r="H25">
-        <v>0.568296614553887</v>
+        <v>0.009161095893803622</v>
       </c>
       <c r="I25">
-        <v>0.5125608216405482</v>
+        <v>0.01031179294382412</v>
       </c>
       <c r="J25">
-        <v>0.04215699259894379</v>
+        <v>0.5704815283866367</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6258646894733602</v>
       </c>
       <c r="L25">
-        <v>0.2955329562687865</v>
+        <v>0.08544657220087259</v>
       </c>
       <c r="M25">
-        <v>0.5437334562426059</v>
+        <v>1.04059445327411</v>
       </c>
       <c r="N25">
-        <v>0.7241235975627216</v>
+        <v>0.2937895382448374</v>
       </c>
       <c r="O25">
+        <v>0.3053918853265785</v>
+      </c>
+      <c r="P25">
+        <v>1.159605225358529</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.007595493960338</v>
+        <v>0.9408858770868278</v>
       </c>
       <c r="C2">
-        <v>0.09414364873450154</v>
+        <v>0.09520912429295691</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06654452014475432</v>
+        <v>0.06828322378541429</v>
       </c>
       <c r="F2">
-        <v>1.284809150538536</v>
+        <v>1.200828151193903</v>
       </c>
       <c r="G2">
-        <v>0.7401665438211467</v>
+        <v>0.6440684776350452</v>
       </c>
       <c r="H2">
-        <v>0.01313907891134289</v>
+        <v>0.01099276549508876</v>
       </c>
       <c r="I2">
-        <v>0.01348168069911226</v>
+        <v>0.009953140036587094</v>
       </c>
       <c r="J2">
-        <v>0.562043031212653</v>
+        <v>0.5230531070742614</v>
       </c>
       <c r="K2">
-        <v>0.6151546644562984</v>
+        <v>0.5362264448219101</v>
       </c>
       <c r="L2">
-        <v>0.07770919451689906</v>
+        <v>0.228035557176014</v>
       </c>
       <c r="M2">
-        <v>0.8739817356747324</v>
+        <v>0.1758252902783113</v>
       </c>
       <c r="N2">
-        <v>0.2522189451997008</v>
+        <v>0.07857056534144036</v>
       </c>
       <c r="O2">
-        <v>0.2594366827862906</v>
+        <v>0.8601603215088858</v>
       </c>
       <c r="P2">
-        <v>1.210166560789258</v>
+        <v>0.2803776531735309</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2564338879902657</v>
+      </c>
+      <c r="R2">
+        <v>1.129735282968266</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8801762573514793</v>
+        <v>0.8242157388630176</v>
       </c>
       <c r="C3">
-        <v>0.0845022968369733</v>
+        <v>0.08360606750357391</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06133001597488708</v>
+        <v>0.06317466184562548</v>
       </c>
       <c r="F3">
-        <v>1.217107075984273</v>
+        <v>1.142143255431122</v>
       </c>
       <c r="G3">
-        <v>0.7155786995530917</v>
+        <v>0.6294371244838999</v>
       </c>
       <c r="H3">
-        <v>0.016423436635086</v>
+        <v>0.01379260893616008</v>
       </c>
       <c r="I3">
-        <v>0.01665935134329022</v>
+        <v>0.01232763978701268</v>
       </c>
       <c r="J3">
-        <v>0.5551265797254956</v>
+        <v>0.515306837245447</v>
       </c>
       <c r="K3">
-        <v>0.6056118294889288</v>
+        <v>0.5317493254845793</v>
       </c>
       <c r="L3">
-        <v>0.07269250366623581</v>
+        <v>0.2308660295846963</v>
       </c>
       <c r="M3">
-        <v>0.7600946296954305</v>
+        <v>0.1712761520506412</v>
       </c>
       <c r="N3">
-        <v>0.2253209566125491</v>
+        <v>0.07243562960145056</v>
       </c>
       <c r="O3">
-        <v>0.2281338026945896</v>
+        <v>0.749319194860675</v>
       </c>
       <c r="P3">
-        <v>1.243846966718017</v>
+        <v>0.2506419613681032</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2256056831398148</v>
+      </c>
+      <c r="R3">
+        <v>1.163082697235817</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.801709359997659</v>
+        <v>0.7521429554557244</v>
       </c>
       <c r="C4">
-        <v>0.07865385059529473</v>
+        <v>0.07660239564857818</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0581220387746253</v>
+        <v>0.06003277428720111</v>
       </c>
       <c r="F4">
-        <v>1.176091768567119</v>
+        <v>1.10650967167345</v>
       </c>
       <c r="G4">
-        <v>0.700903818677304</v>
+        <v>0.6208629273218378</v>
       </c>
       <c r="H4">
-        <v>0.01870627534724473</v>
+        <v>0.01574259604474704</v>
       </c>
       <c r="I4">
-        <v>0.01889361756379904</v>
+        <v>0.01401673197903319</v>
       </c>
       <c r="J4">
-        <v>0.5511667568487155</v>
+        <v>0.5105793841621136</v>
       </c>
       <c r="K4">
-        <v>0.5999542747080362</v>
+        <v>0.5290930115955952</v>
       </c>
       <c r="L4">
-        <v>0.0695871152130465</v>
+        <v>0.2325609076067572</v>
       </c>
       <c r="M4">
-        <v>0.6901841358131833</v>
+        <v>0.1691106827929332</v>
       </c>
       <c r="N4">
-        <v>0.2088991596051315</v>
+        <v>0.06866608452091327</v>
       </c>
       <c r="O4">
-        <v>0.2089179375878558</v>
+        <v>0.681169451401118</v>
       </c>
       <c r="P4">
-        <v>1.265053108015731</v>
+        <v>0.2325300776541042</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2066644293085922</v>
+      </c>
+      <c r="R4">
+        <v>1.18409336681815</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7689457419295991</v>
+        <v>0.7219697629914208</v>
       </c>
       <c r="C5">
-        <v>0.0764042061257868</v>
+        <v>0.07390974340417955</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05681486606082586</v>
+        <v>0.05875309468872203</v>
       </c>
       <c r="F5">
-        <v>1.158787244432105</v>
+        <v>1.091398028228326</v>
       </c>
       <c r="G5">
-        <v>0.6943285475498442</v>
+        <v>0.6168345948117988</v>
       </c>
       <c r="H5">
-        <v>0.01970744803704449</v>
+        <v>0.01659875608387074</v>
       </c>
       <c r="I5">
-        <v>0.0199657687209811</v>
+        <v>0.01486477986255696</v>
       </c>
       <c r="J5">
-        <v>0.549265681178511</v>
+        <v>0.5083175940395108</v>
       </c>
       <c r="K5">
-        <v>0.5971629779655068</v>
+        <v>0.527551652156621</v>
       </c>
       <c r="L5">
-        <v>0.0683638303868257</v>
+        <v>0.2330151565886318</v>
       </c>
       <c r="M5">
-        <v>0.6614855654691354</v>
+        <v>0.1682503732500269</v>
       </c>
       <c r="N5">
-        <v>0.2024281443385405</v>
+        <v>0.06718426912753372</v>
       </c>
       <c r="O5">
-        <v>0.2010517919538728</v>
+        <v>0.6531683847925223</v>
       </c>
       <c r="P5">
-        <v>1.273448656985053</v>
+        <v>0.2253868612930319</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1989071268093667</v>
+      </c>
+      <c r="R5">
+        <v>1.19249349745858</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7626131366105255</v>
+        <v>0.7161070891301051</v>
       </c>
       <c r="C6">
-        <v>0.0761772068097315</v>
+        <v>0.07362901230141716</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0566003077218209</v>
+        <v>0.05854337970923851</v>
       </c>
       <c r="F6">
-        <v>1.15503793287413</v>
+        <v>1.088056623590347</v>
       </c>
       <c r="G6">
-        <v>0.6923923284667381</v>
+        <v>0.615399975263685</v>
       </c>
       <c r="H6">
-        <v>0.01988505189682555</v>
+        <v>0.016750785923343</v>
       </c>
       <c r="I6">
-        <v>0.02026853989289634</v>
+        <v>0.01514414326883973</v>
       </c>
       <c r="J6">
-        <v>0.5485175692303272</v>
+        <v>0.5075246890350229</v>
       </c>
       <c r="K6">
-        <v>0.5960492833408679</v>
+        <v>0.5267098850686338</v>
       </c>
       <c r="L6">
-        <v>0.0682205335821493</v>
+        <v>0.2328152009174609</v>
       </c>
       <c r="M6">
-        <v>0.6564666178119154</v>
+        <v>0.1679515992608955</v>
       </c>
       <c r="N6">
-        <v>0.2015994445681031</v>
+        <v>0.06700646547988498</v>
       </c>
       <c r="O6">
-        <v>0.1997024797714282</v>
+        <v>0.6482709916189009</v>
       </c>
       <c r="P6">
-        <v>1.274393343346208</v>
+        <v>0.2244515298999659</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1975767474363899</v>
+      </c>
+      <c r="R6">
+        <v>1.193539813429913</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7988328834509559</v>
+        <v>0.7488573774574263</v>
       </c>
       <c r="C7">
-        <v>0.07902236246529526</v>
+        <v>0.07670694537510059</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05811167092470981</v>
+        <v>0.06014106388752083</v>
       </c>
       <c r="F7">
-        <v>1.173444882003395</v>
+        <v>1.102871585530721</v>
       </c>
       <c r="G7">
-        <v>0.6984930966303722</v>
+        <v>0.6213719746045001</v>
       </c>
       <c r="H7">
-        <v>0.01873901781984449</v>
+        <v>0.01577968025410054</v>
       </c>
       <c r="I7">
-        <v>0.01921967409889547</v>
+        <v>0.01438901756438948</v>
       </c>
       <c r="J7">
-        <v>0.5499502030358627</v>
+        <v>0.5043782040996732</v>
       </c>
       <c r="K7">
-        <v>0.5981341935727151</v>
+        <v>0.5267436801732899</v>
       </c>
       <c r="L7">
-        <v>0.06973617115682629</v>
+        <v>0.2315005252904854</v>
       </c>
       <c r="M7">
-        <v>0.6891025145953904</v>
+        <v>0.1684193255803326</v>
       </c>
       <c r="N7">
-        <v>0.2094808746114865</v>
+        <v>0.06893058502722127</v>
       </c>
       <c r="O7">
-        <v>0.2086936826511376</v>
+        <v>0.6789509138130114</v>
       </c>
       <c r="P7">
-        <v>1.263933130966393</v>
+        <v>0.2332837635618432</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2064186982303617</v>
+      </c>
+      <c r="R7">
+        <v>1.182764891795157</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9604510198794003</v>
+        <v>0.8957719111461131</v>
       </c>
       <c r="C8">
-        <v>0.09133621355211829</v>
+        <v>0.090739912495863</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06475741474289975</v>
+        <v>0.06692877975223155</v>
       </c>
       <c r="F8">
-        <v>1.258156239777648</v>
+        <v>1.173698208082484</v>
       </c>
       <c r="G8">
-        <v>0.7285321625469123</v>
+        <v>0.6450979676006199</v>
       </c>
       <c r="H8">
-        <v>0.0142362443166017</v>
+        <v>0.01195125635358642</v>
       </c>
       <c r="I8">
-        <v>0.01489026348932843</v>
+        <v>0.01117507397339956</v>
       </c>
       <c r="J8">
-        <v>0.558030686169289</v>
+        <v>0.5024747630837254</v>
       </c>
       <c r="K8">
-        <v>0.6094727867097234</v>
+        <v>0.5301864090652373</v>
       </c>
       <c r="L8">
-        <v>0.07620816758403848</v>
+        <v>0.2271105848903545</v>
       </c>
       <c r="M8">
-        <v>0.833773674775216</v>
+        <v>0.1726782261005724</v>
       </c>
       <c r="N8">
-        <v>0.2438149880248091</v>
+        <v>0.07704307417114009</v>
       </c>
       <c r="O8">
-        <v>0.2484830994346829</v>
+        <v>0.8171436938660577</v>
       </c>
       <c r="P8">
-        <v>1.220110926125606</v>
+        <v>0.2715711620131174</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2455636962180634</v>
+      </c>
+      <c r="R8">
+        <v>1.138482799427711</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.28016138333507</v>
+        <v>1.186742114485867</v>
       </c>
       <c r="C9">
-        <v>0.1154675473263467</v>
+        <v>0.1196610963796587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07774918271685038</v>
+        <v>0.07977213301783692</v>
       </c>
       <c r="F9">
-        <v>1.433340323972416</v>
+        <v>1.324290707756816</v>
       </c>
       <c r="G9">
-        <v>0.7952059689381343</v>
+        <v>0.6891223117085445</v>
       </c>
       <c r="H9">
-        <v>0.007595102617277333</v>
+        <v>0.006307190485583425</v>
       </c>
       <c r="I9">
-        <v>0.00828372828638102</v>
+        <v>0.006213817544294287</v>
       </c>
       <c r="J9">
-        <v>0.578384359613068</v>
+        <v>0.5188674502062298</v>
       </c>
       <c r="K9">
-        <v>0.6365810442685742</v>
+        <v>0.5432024509845093</v>
       </c>
       <c r="L9">
-        <v>0.08842018704211441</v>
+        <v>0.2205647092666148</v>
       </c>
       <c r="M9">
-        <v>1.1192104440631</v>
+        <v>0.187749139137523</v>
       </c>
       <c r="N9">
-        <v>0.3107822551046553</v>
+        <v>0.09225764514006229</v>
       </c>
       <c r="O9">
-        <v>0.3268292529511427</v>
+        <v>1.09312076886323</v>
       </c>
       <c r="P9">
-        <v>1.140563564543559</v>
+        <v>0.346064508048201</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.3225868496570428</v>
+      </c>
+      <c r="R9">
+        <v>1.059323335980242</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.505623143015413</v>
+        <v>1.387954614873394</v>
       </c>
       <c r="C10">
-        <v>0.1349059054818014</v>
+        <v>0.1409220446423092</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0846864450013598</v>
+        <v>0.08726102060516183</v>
       </c>
       <c r="F10">
-        <v>1.544708904605002</v>
+        <v>1.412123286297529</v>
       </c>
       <c r="G10">
-        <v>0.8358724004537663</v>
+        <v>0.7309762112570155</v>
       </c>
       <c r="H10">
-        <v>0.004559944747409617</v>
+        <v>0.003800103487694884</v>
       </c>
       <c r="I10">
-        <v>0.00523026690111994</v>
+        <v>0.004098330303339281</v>
       </c>
       <c r="J10">
-        <v>0.5894619418601224</v>
+        <v>0.4994566667335647</v>
       </c>
       <c r="K10">
-        <v>0.6499982185883866</v>
+        <v>0.5432549995471589</v>
       </c>
       <c r="L10">
-        <v>0.09900301035285608</v>
+        <v>0.2119722295081949</v>
       </c>
       <c r="M10">
-        <v>1.326161350781973</v>
+        <v>0.1979427456628606</v>
       </c>
       <c r="N10">
-        <v>0.3502257815933234</v>
+        <v>0.1060446698767095</v>
       </c>
       <c r="O10">
-        <v>0.3788597096847113</v>
+        <v>1.285760794329292</v>
       </c>
       <c r="P10">
-        <v>1.080252296153063</v>
+        <v>0.3914387629361613</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3734606306639563</v>
+      </c>
+      <c r="R10">
+        <v>0.9994541296163151</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.538279311373884</v>
+        <v>1.415710363507259</v>
       </c>
       <c r="C11">
-        <v>0.1526752715133881</v>
+        <v>0.1554418583499171</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06728490596523784</v>
+        <v>0.07055907603365341</v>
       </c>
       <c r="F11">
-        <v>1.425532612692365</v>
+        <v>1.2887655218031</v>
       </c>
       <c r="G11">
-        <v>0.7680957638684873</v>
+        <v>0.7047273853510347</v>
       </c>
       <c r="H11">
-        <v>0.02303646760026368</v>
+        <v>0.02236632339768718</v>
       </c>
       <c r="I11">
-        <v>0.00509197207130363</v>
+        <v>0.004304021029119198</v>
       </c>
       <c r="J11">
-        <v>0.5510439129532045</v>
+        <v>0.4190383912395603</v>
       </c>
       <c r="K11">
-        <v>0.5961798172406247</v>
+        <v>0.4905334128400867</v>
       </c>
       <c r="L11">
-        <v>0.120659528501065</v>
+        <v>0.1898744394213985</v>
       </c>
       <c r="M11">
-        <v>1.391124423103832</v>
+        <v>0.1816268914897066</v>
       </c>
       <c r="N11">
-        <v>0.2812901810939223</v>
+        <v>0.1326512658524877</v>
       </c>
       <c r="O11">
-        <v>0.3540748357191603</v>
+        <v>1.335088236286538</v>
       </c>
       <c r="P11">
-        <v>1.021725378857312</v>
+        <v>0.3191685924554122</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3486350086743286</v>
+      </c>
+      <c r="R11">
+        <v>0.956802213048733</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.521207934102506</v>
+        <v>1.40175201504286</v>
       </c>
       <c r="C12">
-        <v>0.163471572024207</v>
+        <v>0.1638350273311318</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05413465403495188</v>
+        <v>0.05718402334846751</v>
       </c>
       <c r="F12">
-        <v>1.308390594593718</v>
+        <v>1.177341919694925</v>
       </c>
       <c r="G12">
-        <v>0.7074849324598773</v>
+        <v>0.6667444887973915</v>
       </c>
       <c r="H12">
-        <v>0.06192876680965753</v>
+        <v>0.06125836121213979</v>
       </c>
       <c r="I12">
-        <v>0.005002436274261335</v>
+        <v>0.004254013601954654</v>
       </c>
       <c r="J12">
-        <v>0.5187308069958192</v>
+        <v>0.3778489233484308</v>
       </c>
       <c r="K12">
-        <v>0.5523859133604816</v>
+        <v>0.4528569046717195</v>
       </c>
       <c r="L12">
-        <v>0.1399166866884158</v>
+        <v>0.1758545489286583</v>
       </c>
       <c r="M12">
-        <v>1.402677585274745</v>
+        <v>0.1678525147988523</v>
       </c>
       <c r="N12">
-        <v>0.2210247840819619</v>
+        <v>0.1550161043967151</v>
       </c>
       <c r="O12">
-        <v>0.3231739890334495</v>
+        <v>1.340867002535219</v>
       </c>
       <c r="P12">
-        <v>0.9932583778403115</v>
+        <v>0.2541862327565667</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.318055585453088</v>
+      </c>
+      <c r="R12">
+        <v>0.942641035529368</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.461091053778858</v>
+        <v>1.352767933833348</v>
       </c>
       <c r="C13">
-        <v>0.1700097244342089</v>
+        <v>0.1697099572964476</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04352543866220948</v>
+        <v>0.04573849804877561</v>
       </c>
       <c r="F13">
-        <v>1.182516946214392</v>
+        <v>1.066902503629109</v>
       </c>
       <c r="G13">
-        <v>0.6451841089876922</v>
+        <v>0.608434303369279</v>
       </c>
       <c r="H13">
-        <v>0.1182033658804897</v>
+        <v>0.1174502395117401</v>
       </c>
       <c r="I13">
-        <v>0.005344949186294023</v>
+        <v>0.004475903717295893</v>
       </c>
       <c r="J13">
-        <v>0.4873175054076881</v>
+        <v>0.3635605083881046</v>
       </c>
       <c r="K13">
-        <v>0.5109544203994183</v>
+        <v>0.4227838931105268</v>
       </c>
       <c r="L13">
-        <v>0.1584636703424849</v>
+        <v>0.1659552959046948</v>
       </c>
       <c r="M13">
-        <v>1.372484084102922</v>
+        <v>0.1550217655538795</v>
       </c>
       <c r="N13">
-        <v>0.1653058277549704</v>
+        <v>0.1745815850792525</v>
       </c>
       <c r="O13">
-        <v>0.2858139400662623</v>
+        <v>1.315452230500398</v>
       </c>
       <c r="P13">
-        <v>0.9836858138198989</v>
+        <v>0.1924859250714519</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2813480133140516</v>
+      </c>
+      <c r="R13">
+        <v>0.9454503134287151</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.399077655854057</v>
+        <v>1.301991093810074</v>
       </c>
       <c r="C14">
-        <v>0.1728354179826113</v>
+        <v>0.1729231430535521</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03770000264371021</v>
+        <v>0.03925183432050261</v>
       </c>
       <c r="F14">
-        <v>1.091093143427685</v>
+        <v>0.9898504407833002</v>
       </c>
       <c r="G14">
-        <v>0.6008103852617808</v>
+        <v>0.5599086104399618</v>
       </c>
       <c r="H14">
-        <v>0.1680578827940309</v>
+        <v>0.1672053623320551</v>
       </c>
       <c r="I14">
-        <v>0.005895421880581786</v>
+        <v>0.004876688194594969</v>
       </c>
       <c r="J14">
-        <v>0.4656925075939569</v>
+        <v>0.363134983879462</v>
       </c>
       <c r="K14">
-        <v>0.4830415077584114</v>
+        <v>0.4046313254384444</v>
       </c>
       <c r="L14">
-        <v>0.1715094760043598</v>
+        <v>0.1605019044920564</v>
       </c>
       <c r="M14">
-        <v>1.332336557434672</v>
+        <v>0.1464595128239665</v>
       </c>
       <c r="N14">
-        <v>0.1298212633232154</v>
+        <v>0.1871769061907287</v>
       </c>
       <c r="O14">
-        <v>0.2570915062719834</v>
+        <v>1.283215305685218</v>
       </c>
       <c r="P14">
-        <v>0.9860505901750383</v>
+        <v>0.1525560745545391</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2532013035212302</v>
+      </c>
+      <c r="R14">
+        <v>0.9545190570998372</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.374079432680077</v>
+        <v>1.281283099621248</v>
       </c>
       <c r="C15">
-        <v>0.1727372044233988</v>
+        <v>0.173311483805648</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03644094631523398</v>
+        <v>0.03781322596724568</v>
       </c>
       <c r="F15">
-        <v>1.0659850085692</v>
+        <v>0.9698810770706956</v>
       </c>
       <c r="G15">
-        <v>0.588794131499057</v>
+        <v>0.5442276866888847</v>
       </c>
       <c r="H15">
-        <v>0.1808086185366307</v>
+        <v>0.1799073635831974</v>
       </c>
       <c r="I15">
-        <v>0.006271101791500477</v>
+        <v>0.005197362854767462</v>
       </c>
       <c r="J15">
-        <v>0.460199096926857</v>
+        <v>0.3669139612060945</v>
       </c>
       <c r="K15">
-        <v>0.4760549729325128</v>
+        <v>0.4009107842057062</v>
       </c>
       <c r="L15">
-        <v>0.1741768516824322</v>
+        <v>0.1596149848184307</v>
       </c>
       <c r="M15">
-        <v>1.313504100601307</v>
+        <v>0.144332689128543</v>
       </c>
       <c r="N15">
-        <v>0.1214235542344895</v>
+        <v>0.189264504668472</v>
       </c>
       <c r="O15">
-        <v>0.2486458468023223</v>
+        <v>1.268269813656218</v>
       </c>
       <c r="P15">
-        <v>0.9896601482284115</v>
+        <v>0.1429184204683054</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.244952590371053</v>
+      </c>
+      <c r="R15">
+        <v>0.9591122188142904</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.289183442453293</v>
+        <v>1.209521426712058</v>
       </c>
       <c r="C16">
-        <v>0.1629239701189249</v>
+        <v>0.1664654807296131</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03588040505895762</v>
+        <v>0.03697649951612547</v>
       </c>
       <c r="F16">
-        <v>1.044248997378176</v>
+        <v>0.9623178022300891</v>
       </c>
       <c r="G16">
-        <v>0.5830154537956815</v>
+        <v>0.5167954659594329</v>
       </c>
       <c r="H16">
-        <v>0.169353030594209</v>
+        <v>0.1682028119095236</v>
       </c>
       <c r="I16">
-        <v>0.007603917328029119</v>
+        <v>0.006163671220888567</v>
       </c>
       <c r="J16">
-        <v>0.4611500533281401</v>
+        <v>0.4045002833167572</v>
       </c>
       <c r="K16">
-        <v>0.4779398565660671</v>
+        <v>0.4101949652158225</v>
       </c>
       <c r="L16">
-        <v>0.1653273992015301</v>
+        <v>0.1649008230837516</v>
       </c>
       <c r="M16">
-        <v>1.23041461581596</v>
+        <v>0.1449232142528132</v>
       </c>
       <c r="N16">
-        <v>0.1176474796099285</v>
+        <v>0.1766376030101569</v>
       </c>
       <c r="O16">
-        <v>0.2348444957954179</v>
+        <v>1.201401918395391</v>
       </c>
       <c r="P16">
-        <v>1.014719277754974</v>
+        <v>0.1373806132281459</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2316641713593022</v>
+      </c>
+      <c r="R16">
+        <v>0.9788583463304086</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.25682903284175</v>
+        <v>1.180437667734736</v>
       </c>
       <c r="C17">
-        <v>0.153942940882402</v>
+        <v>0.1588159583643716</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03823191158112493</v>
+        <v>0.03932546231415035</v>
       </c>
       <c r="F17">
-        <v>1.07545688291961</v>
+        <v>0.9960666978652171</v>
       </c>
       <c r="G17">
-        <v>0.6018918651499234</v>
+        <v>0.5239113488374159</v>
       </c>
       <c r="H17">
-        <v>0.1323099416656817</v>
+        <v>0.1310213508154021</v>
       </c>
       <c r="I17">
-        <v>0.00838051741806467</v>
+        <v>0.006741436759731378</v>
       </c>
       <c r="J17">
-        <v>0.4732868222594959</v>
+        <v>0.4314890799947193</v>
       </c>
       <c r="K17">
-        <v>0.4939703640656781</v>
+        <v>0.4264817198237765</v>
       </c>
       <c r="L17">
-        <v>0.1514442988129616</v>
+        <v>0.1720322045777785</v>
       </c>
       <c r="M17">
-        <v>1.188097829738609</v>
+        <v>0.1494851566983257</v>
       </c>
       <c r="N17">
-        <v>0.1327210108673569</v>
+        <v>0.160717842464706</v>
       </c>
       <c r="O17">
-        <v>0.2392505281162265</v>
+        <v>1.165359358002235</v>
       </c>
       <c r="P17">
-        <v>1.032563819295003</v>
+        <v>0.1533385962612144</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2361469500970159</v>
+      </c>
+      <c r="R17">
+        <v>0.9906766664817592</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.267697444618022</v>
+        <v>1.187797421362745</v>
       </c>
       <c r="C18">
-        <v>0.1444262773655822</v>
+        <v>0.1501060433437118</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04487145365752809</v>
+        <v>0.04606083349464818</v>
       </c>
       <c r="F18">
-        <v>1.159555692230569</v>
+        <v>1.074903382304072</v>
       </c>
       <c r="G18">
-        <v>0.6467379834046909</v>
+        <v>0.5577111973399695</v>
       </c>
       <c r="H18">
-        <v>0.07961644610670504</v>
+        <v>0.0782975769317602</v>
       </c>
       <c r="I18">
-        <v>0.00833920849440517</v>
+        <v>0.006596934066257276</v>
       </c>
       <c r="J18">
-        <v>0.497674939507263</v>
+        <v>0.4594712076073364</v>
       </c>
       <c r="K18">
-        <v>0.5261842880363083</v>
+        <v>0.4537425289810777</v>
       </c>
       <c r="L18">
-        <v>0.1329475892485164</v>
+        <v>0.1827924383110862</v>
       </c>
       <c r="M18">
-        <v>1.176257734617735</v>
+        <v>0.1589396525476801</v>
       </c>
       <c r="N18">
-        <v>0.1692030278045635</v>
+        <v>0.1408582313204434</v>
       </c>
       <c r="O18">
-        <v>0.2604896195060462</v>
+        <v>1.154835519313878</v>
       </c>
       <c r="P18">
-        <v>1.049690478512722</v>
+        <v>0.1929422551270221</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2571486736276825</v>
+      </c>
+      <c r="R18">
+        <v>0.9994647147251321</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.307955849291602</v>
+        <v>1.22008513282816</v>
       </c>
       <c r="C19">
-        <v>0.1364407780330055</v>
+        <v>0.1428049005509138</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05678627418795656</v>
+        <v>0.05814268011543966</v>
       </c>
       <c r="F19">
-        <v>1.280293533107383</v>
+        <v>1.185050742028452</v>
       </c>
       <c r="G19">
-        <v>0.7075221538170098</v>
+        <v>0.606696568850154</v>
       </c>
       <c r="H19">
-        <v>0.03378917043223595</v>
+        <v>0.03254854046583233</v>
       </c>
       <c r="I19">
-        <v>0.008206605074727591</v>
+        <v>0.006559788250790177</v>
       </c>
       <c r="J19">
-        <v>0.5291318994497232</v>
+        <v>0.4880138223555406</v>
       </c>
       <c r="K19">
-        <v>0.5681637883888868</v>
+        <v>0.4873299642541866</v>
       </c>
       <c r="L19">
-        <v>0.1149106472732768</v>
+        <v>0.1954774501366323</v>
       </c>
       <c r="M19">
-        <v>1.188221726215119</v>
+        <v>0.1714099890931102</v>
       </c>
       <c r="N19">
-        <v>0.2271575230366807</v>
+        <v>0.1217158687109503</v>
       </c>
       <c r="O19">
-        <v>0.2946440413813392</v>
+        <v>1.165246569665953</v>
       </c>
       <c r="P19">
-        <v>1.068954584061676</v>
+        <v>0.2558669582771387</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2908349558748213</v>
+      </c>
+      <c r="R19">
+        <v>1.008511938373263</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.43833583532259</v>
+        <v>1.329739202976299</v>
       </c>
       <c r="C20">
-        <v>0.1310874550216283</v>
+        <v>0.1379925952473826</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08277555231713407</v>
+        <v>0.08477452453807999</v>
       </c>
       <c r="F20">
-        <v>1.506947432864649</v>
+        <v>1.385243600622331</v>
       </c>
       <c r="G20">
-        <v>0.8174512058171217</v>
+        <v>0.7031542984820192</v>
       </c>
       <c r="H20">
-        <v>0.005274015427346956</v>
+        <v>0.004372536107537073</v>
       </c>
       <c r="I20">
-        <v>0.00681823959986172</v>
+        <v>0.005594552929321317</v>
       </c>
       <c r="J20">
-        <v>0.5826023039754915</v>
+        <v>0.5178194249917567</v>
       </c>
       <c r="K20">
-        <v>0.6406658558943548</v>
+        <v>0.540763416310547</v>
       </c>
       <c r="L20">
-        <v>0.09685548711212277</v>
+        <v>0.2133076237724616</v>
       </c>
       <c r="M20">
-        <v>1.269356926008982</v>
+        <v>0.1941590024559225</v>
       </c>
       <c r="N20">
-        <v>0.3414909709387501</v>
+        <v>0.102754906961394</v>
       </c>
       <c r="O20">
-        <v>0.3645725701983764</v>
+        <v>1.237211224429416</v>
       </c>
       <c r="P20">
-        <v>1.092464578795184</v>
+        <v>0.3805340140634002</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3596007557011802</v>
+      </c>
+      <c r="R20">
+        <v>1.01398300406963</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.624404501272295</v>
+        <v>1.48344464058502</v>
       </c>
       <c r="C21">
-        <v>0.1446534310194494</v>
+        <v>0.1468617307231597</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.09217486835909838</v>
+        <v>0.09708028937739499</v>
       </c>
       <c r="F21">
-        <v>1.625501072957348</v>
+        <v>1.460733757090495</v>
       </c>
       <c r="G21">
-        <v>0.8662951342714251</v>
+        <v>0.8045265226076452</v>
       </c>
       <c r="H21">
-        <v>0.002939508900736132</v>
+        <v>0.002448419498752297</v>
       </c>
       <c r="I21">
-        <v>0.004721005279936463</v>
+        <v>0.004169818030911543</v>
       </c>
       <c r="J21">
-        <v>0.6000887066908689</v>
+        <v>0.4302641494685417</v>
       </c>
       <c r="K21">
-        <v>0.6631028188810646</v>
+        <v>0.5372321404914899</v>
       </c>
       <c r="L21">
-        <v>0.1023776063970203</v>
+        <v>0.2056712925674731</v>
       </c>
       <c r="M21">
-        <v>1.433966095064903</v>
+        <v>0.2011321572559659</v>
       </c>
       <c r="N21">
-        <v>0.3882160617290111</v>
+        <v>0.1125428411877678</v>
       </c>
       <c r="O21">
-        <v>0.4133689918885253</v>
+        <v>1.366953625203365</v>
       </c>
       <c r="P21">
-        <v>1.054405754833052</v>
+        <v>0.4366681586660661</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.4067878735486943</v>
+      </c>
+      <c r="R21">
+        <v>0.9673228747316456</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.745470472631723</v>
+        <v>1.58242869805801</v>
       </c>
       <c r="C22">
-        <v>0.1536070319436931</v>
+        <v>0.1522823979377677</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.09698287233347003</v>
+        <v>0.1040772846047489</v>
       </c>
       <c r="F22">
-        <v>1.696951673392704</v>
+        <v>1.502564798692475</v>
       </c>
       <c r="G22">
-        <v>0.896829354600186</v>
+        <v>0.8781607594728769</v>
       </c>
       <c r="H22">
-        <v>0.001891493145046885</v>
+        <v>0.001593983260563148</v>
       </c>
       <c r="I22">
-        <v>0.003377112684461281</v>
+        <v>0.003097697145210354</v>
       </c>
       <c r="J22">
-        <v>0.6108714356097096</v>
+        <v>0.3769253177833605</v>
       </c>
       <c r="K22">
-        <v>0.6768359536605431</v>
+        <v>0.5332032345412898</v>
       </c>
       <c r="L22">
-        <v>0.1065669065499684</v>
+        <v>0.2002264276657399</v>
       </c>
       <c r="M22">
-        <v>1.541195240027605</v>
+        <v>0.2053005744150056</v>
       </c>
       <c r="N22">
-        <v>0.4125423956053567</v>
+        <v>0.1198747382358647</v>
       </c>
       <c r="O22">
-        <v>0.442625598185252</v>
+        <v>1.449128167502693</v>
       </c>
       <c r="P22">
-        <v>1.029294375847552</v>
+        <v>0.4670988365025437</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.4349432762318344</v>
+      </c>
+      <c r="R22">
+        <v>0.9371797261804211</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.6838362939381</v>
+        <v>1.533994687063796</v>
       </c>
       <c r="C23">
-        <v>0.1483165704908487</v>
+        <v>0.1496573263552534</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.09440619157412655</v>
+        <v>0.09997062952116664</v>
       </c>
       <c r="F23">
-        <v>1.661572948940702</v>
+        <v>1.48583817888553</v>
       </c>
       <c r="G23">
-        <v>0.8831793587745693</v>
+        <v>0.8330029917189847</v>
       </c>
       <c r="H23">
-        <v>0.002413492865522171</v>
+        <v>0.00201465381343946</v>
       </c>
       <c r="I23">
-        <v>0.003727939752846687</v>
+        <v>0.00324529433838272</v>
       </c>
       <c r="J23">
-        <v>0.6064531610429071</v>
+        <v>0.4146683146452261</v>
       </c>
       <c r="K23">
-        <v>0.6715398063657858</v>
+        <v>0.5388688131013097</v>
       </c>
       <c r="L23">
-        <v>0.1041187958730241</v>
+        <v>0.2043058908792155</v>
       </c>
       <c r="M23">
-        <v>1.484797805227799</v>
+        <v>0.2045022374384864</v>
       </c>
       <c r="N23">
-        <v>0.3987313067901823</v>
+        <v>0.1153821525010628</v>
       </c>
       <c r="O23">
-        <v>0.4271518293817493</v>
+        <v>1.409332773752965</v>
       </c>
       <c r="P23">
-        <v>1.043836019915673</v>
+        <v>0.4495003590487983</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.4201327681818086</v>
+      </c>
+      <c r="R23">
+        <v>0.9545314067076998</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.44575920280306</v>
+        <v>1.336228904645026</v>
       </c>
       <c r="C24">
-        <v>0.1294204389695182</v>
+        <v>0.1362684201492925</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08469078069904867</v>
+        <v>0.08669681859380063</v>
       </c>
       <c r="F24">
-        <v>1.524834575951417</v>
+        <v>1.401811011905835</v>
       </c>
       <c r="G24">
-        <v>0.8285535581402996</v>
+        <v>0.7121621891919006</v>
       </c>
       <c r="H24">
-        <v>0.005047105610327063</v>
+        <v>0.004157355086331638</v>
       </c>
       <c r="I24">
-        <v>0.006252179011282166</v>
+        <v>0.004937325259970926</v>
       </c>
       <c r="J24">
-        <v>0.5883282934241407</v>
+        <v>0.5235682045284733</v>
       </c>
       <c r="K24">
-        <v>0.6488489145430734</v>
+        <v>0.5476311512854863</v>
       </c>
       <c r="L24">
-        <v>0.09517221337826243</v>
+        <v>0.2159143641336065</v>
       </c>
       <c r="M24">
-        <v>1.270515959927792</v>
+        <v>0.1966904692992735</v>
       </c>
       <c r="N24">
-        <v>0.3480239435566546</v>
+        <v>0.1007968205756988</v>
       </c>
       <c r="O24">
-        <v>0.3684552421923328</v>
+        <v>1.238368538853507</v>
       </c>
       <c r="P24">
-        <v>1.098270050044665</v>
+        <v>0.3876056903637846</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3634292173031923</v>
+      </c>
+      <c r="R24">
+        <v>1.017734726349815</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.189314540636445</v>
+        <v>1.104943464139211</v>
       </c>
       <c r="C25">
-        <v>0.1095846203796853</v>
+        <v>0.1130111275325731</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.07424788180605546</v>
+        <v>0.07614072329797139</v>
       </c>
       <c r="F25">
-        <v>1.381034909867751</v>
+        <v>1.280685074562911</v>
       </c>
       <c r="G25">
-        <v>0.7725694301626191</v>
+        <v>0.6691781983525971</v>
       </c>
       <c r="H25">
-        <v>0.009161095893803622</v>
+        <v>0.007626822325956129</v>
       </c>
       <c r="I25">
-        <v>0.01031179294382412</v>
+        <v>0.007913543392713329</v>
       </c>
       <c r="J25">
-        <v>0.5704815283866367</v>
+        <v>0.5193997444995802</v>
       </c>
       <c r="K25">
-        <v>0.6258646894733602</v>
+        <v>0.5378135798205221</v>
       </c>
       <c r="L25">
-        <v>0.08544657220087259</v>
+        <v>0.2216776903449116</v>
       </c>
       <c r="M25">
-        <v>1.04059445327411</v>
+        <v>0.1824909186508705</v>
       </c>
       <c r="N25">
-        <v>0.2937895382448374</v>
+        <v>0.08835736241833558</v>
       </c>
       <c r="O25">
-        <v>0.3053918853265785</v>
+        <v>1.018921200877713</v>
       </c>
       <c r="P25">
-        <v>1.159605225358529</v>
+        <v>0.3267753094043542</v>
       </c>
       <c r="Q25">
+        <v>0.3015705511558124</v>
+      </c>
+      <c r="R25">
+        <v>1.079452228294674</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
